--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7463A94-7DD8-4134-A820-076A05C177E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="240" windowWidth="23880" windowHeight="7800" tabRatio="822" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="データ" sheetId="23" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'1. ドメイン定義'!$A$1:$AI$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1. ドメイン定義'!$A$1:$AI$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2.1. Nablarch標準提供バリデーション'!$A$1:$AI$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2.2. 本システム固有のバリデーション'!$A$1:$AI$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">データ!$A$1:$B$22</definedName>
@@ -32,12 +33,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
     <definedName name="データ型">データ!$A$2:$A$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="216">
   <si>
     <t>PJ名</t>
   </si>
@@ -148,16 +157,6 @@
       <t>メイショウ</t>
     </rPh>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -1896,16 +1895,166 @@
     <t>C0100001</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>文字種バリデーション（半角英数字）
+文字数バリデーション（最小値指定、最大値指定）</t>
+    <rPh sb="29" eb="31">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>codeId</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>半角英数字</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>codeValue</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コード名称</t>
+  </si>
+  <si>
+    <t>codeName</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>システム許容文字</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>パターン</t>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ソート順</t>
+  </si>
+  <si>
+    <t>文字種バリデーション（半角数字）
+文字数バリデーション（最小値指定、最大値指定）</t>
+    <rPh sb="28" eb="30">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>sortOrder</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>半角数字</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>文字種バリデーション（半角英字）
+文字数バリデーション（最小値指定、最大値指定）</t>
+    <rPh sb="13" eb="15">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>半角英字</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>略称</t>
+  </si>
+  <si>
+    <t>shortName</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コードID</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コード値</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>オプション名称</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="32"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="32"/>
+  </si>
+  <si>
+    <t>1. ドメイン定義</t>
+    <phoneticPr fontId="32"/>
+  </si>
+  <si>
+    <t>・ドメイン定義を見直し</t>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="32"/>
+  </si>
+  <si>
+    <t>TSS</t>
+    <phoneticPr fontId="32"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2926,7 +3075,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3491,14 +3640,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -3508,57 +3696,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3567,22 +3704,40 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3691,9 +3846,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3753,6 +3905,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3783,7 +3941,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="46"/>
+    <cellStyle name="パーセント 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="47" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -3799,13 +3957,13 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="48"/>
-    <cellStyle name="標準 2" xfId="41"/>
-    <cellStyle name="標準 2 13" xfId="49"/>
-    <cellStyle name="標準 2 3" xfId="50"/>
-    <cellStyle name="標準_~6362950" xfId="42"/>
-    <cellStyle name="標準_画面標準" xfId="43"/>
-    <cellStyle name="標準_画面標準定義" xfId="44"/>
+    <cellStyle name="標準 10" xfId="48" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準 2 13" xfId="49" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="標準_~6362950" xfId="42" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="標準_画面標準" xfId="43" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="44" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="良い" xfId="45" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3813,6 +3971,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3835,7 +3996,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1113" name="Group 17"/>
+        <xdr:cNvPr id="1113" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3850,7 +4017,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11276" name="Text Box 12"/>
+          <xdr:cNvPr id="11276" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C2C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3931,7 +4104,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11277" name="Text Box 13"/>
+          <xdr:cNvPr id="11277" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D2C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4028,7 +4207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11282" name="Text Box 18"/>
+        <xdr:cNvPr id="11282" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000122C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4170,7 +4355,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4222,7 +4413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4274,7 +4471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvPr id="4" name="右矢印 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4326,7 +4529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="右矢印 4"/>
+        <xdr:cNvPr id="5" name="右矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4378,7 +4587,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート : 書類 5"/>
+        <xdr:cNvPr id="6" name="フローチャート : 書類 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4434,7 +4649,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート : 書類 6"/>
+        <xdr:cNvPr id="7" name="フローチャート : 書類 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4496,7 +4717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート : 書類 7"/>
+        <xdr:cNvPr id="8" name="フローチャート : 書類 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4552,7 +4779,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート : 書類 8"/>
+        <xdr:cNvPr id="9" name="フローチャート : 書類 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4608,7 +4841,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="円/楕円 9"/>
+        <xdr:cNvPr id="10" name="円/楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4663,7 +4902,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="円/楕円 10"/>
+        <xdr:cNvPr id="11" name="円/楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4718,7 +4963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="上矢印 11"/>
+        <xdr:cNvPr id="12" name="上矢印 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4770,7 +5021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="上矢印 12"/>
+        <xdr:cNvPr id="13" name="上矢印 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4822,7 +5079,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4835,7 +5098,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="屈折矢印 14"/>
+          <xdr:cNvPr id="15" name="屈折矢印 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4876,7 +5145,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4913,7 +5188,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4969,7 +5250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="円/楕円 17"/>
+        <xdr:cNvPr id="18" name="円/楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5024,7 +5311,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="円/楕円 18"/>
+        <xdr:cNvPr id="19" name="円/楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5079,7 +5372,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="円/楕円 19"/>
+        <xdr:cNvPr id="20" name="円/楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5134,7 +5433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5193,7 +5498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5251,7 +5562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22" descr="「tool icon」の画像検索結果"/>
+        <xdr:cNvPr id="23" name="図 22" descr="「tool icon」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5318,7 +5635,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23" descr="「tool icon」の画像検索結果"/>
+        <xdr:cNvPr id="24" name="図 23" descr="「tool icon」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5385,7 +5708,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="フローチャート : 書類 24"/>
+        <xdr:cNvPr id="25" name="フローチャート : 書類 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5440,7 +5769,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="フローチャート : 書類 25"/>
+        <xdr:cNvPr id="26" name="フローチャート : 書類 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5495,7 +5830,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="フローチャート : 書類 26"/>
+        <xdr:cNvPr id="27" name="フローチャート : 書類 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5550,7 +5891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="フローチャート : 磁気ディスク 27"/>
+        <xdr:cNvPr id="28" name="フローチャート : 磁気ディスク 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5606,7 +5953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="右矢印 28"/>
+        <xdr:cNvPr id="29" name="右矢印 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5658,7 +6011,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="右矢印 29"/>
+        <xdr:cNvPr id="30" name="右矢印 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5710,7 +6069,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="フローチャート : 書類 30"/>
+        <xdr:cNvPr id="31" name="フローチャート : 書類 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5769,7 +6134,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート : 書類 31"/>
+        <xdr:cNvPr id="32" name="フローチャート : 書類 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5825,7 +6196,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="フローチャート : 書類 32"/>
+        <xdr:cNvPr id="33" name="フローチャート : 書類 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5887,7 +6264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="右矢印 33"/>
+        <xdr:cNvPr id="34" name="右矢印 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5939,7 +6322,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="円/楕円 34"/>
+        <xdr:cNvPr id="35" name="円/楕円 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5994,7 +6383,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="円/楕円 35"/>
+        <xdr:cNvPr id="36" name="円/楕円 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6049,7 +6444,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="上矢印 36"/>
+        <xdr:cNvPr id="37" name="上矢印 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6101,7 +6502,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="円/楕円 37"/>
+        <xdr:cNvPr id="38" name="円/楕円 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6156,7 +6563,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6208,7 +6621,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6263,7 +6682,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="フローチャート : 書類 40"/>
+        <xdr:cNvPr id="41" name="フローチャート : 書類 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6319,7 +6744,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="上矢印 41"/>
+        <xdr:cNvPr id="42" name="上矢印 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6371,7 +6802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="円/楕円 42"/>
+        <xdr:cNvPr id="43" name="円/楕円 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6426,7 +6863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6485,7 +6928,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44" descr="「tool icon」の画像検索結果"/>
+        <xdr:cNvPr id="45" name="図 44" descr="「tool icon」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6552,7 +7001,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="円/楕円 45"/>
+        <xdr:cNvPr id="46" name="円/楕円 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6607,7 +7062,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6665,7 +7126,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47" descr="「tool icon」の画像検索結果"/>
+        <xdr:cNvPr id="48" name="図 47" descr="「tool icon」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6732,7 +7199,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="フローチャート : 書類 48"/>
+        <xdr:cNvPr id="49" name="フローチャート : 書類 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6787,7 +7260,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="フローチャート : 書類 49"/>
+        <xdr:cNvPr id="50" name="フローチャート : 書類 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6842,7 +7321,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="フローチャート : 書類 50"/>
+        <xdr:cNvPr id="51" name="フローチャート : 書類 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6897,7 +7382,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート : 磁気ディスク 51"/>
+        <xdr:cNvPr id="52" name="フローチャート : 磁気ディスク 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6953,7 +7444,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="四角形吹き出し 52"/>
+        <xdr:cNvPr id="53" name="四角形吹き出し 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7011,7 +7508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="四角形吹き出し 53"/>
+        <xdr:cNvPr id="54" name="四角形吹き出し 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7069,7 +7572,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvPr id="55" name="グループ化 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7082,7 +7591,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+          <xdr:cNvPr id="56" name="正方形/長方形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7120,7 +7635,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+          <xdr:cNvPr id="57" name="テキスト ボックス 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7163,7 +7684,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="フローチャート : 書類 57"/>
+          <xdr:cNvPr id="58" name="フローチャート : 書類 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7201,7 +7728,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="フローチャート : 磁気ディスク 58"/>
+          <xdr:cNvPr id="59" name="フローチャート : 磁気ディスク 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7239,7 +7772,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="右矢印 59"/>
+          <xdr:cNvPr id="60" name="右矢印 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7277,7 +7816,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="図 60" descr="「tool icon」の画像検索結果"/>
+          <xdr:cNvPr id="61" name="図 60" descr="「tool icon」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -7329,7 +7874,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="右矢印 61"/>
+          <xdr:cNvPr id="62" name="右矢印 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7367,7 +7918,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="円/楕円 62"/>
+          <xdr:cNvPr id="63" name="円/楕円 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7423,7 +7980,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7485,7 +8048,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7546,7 +8115,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7607,7 +8182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="テキスト ボックス 66"/>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7668,7 +8249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7728,7 +8315,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="69" name="グループ化 68"/>
+        <xdr:cNvPr id="69" name="グループ化 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7741,7 +8334,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+          <xdr:cNvPr id="70" name="正方形/長方形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7779,7 +8378,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+          <xdr:cNvPr id="71" name="テキスト ボックス 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7822,7 +8427,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="フローチャート : 書類 71"/>
+          <xdr:cNvPr id="72" name="フローチャート : 書類 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7860,7 +8471,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="フローチャート : 磁気ディスク 72"/>
+          <xdr:cNvPr id="73" name="フローチャート : 磁気ディスク 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7898,7 +8515,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="右矢印 73"/>
+          <xdr:cNvPr id="74" name="右矢印 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7936,7 +8559,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="75" name="図 74" descr="「tool icon」の画像検索結果"/>
+          <xdr:cNvPr id="75" name="図 74" descr="「tool icon」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -7988,7 +8617,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="右矢印 75"/>
+          <xdr:cNvPr id="76" name="右矢印 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8026,7 +8661,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="円/楕円 76"/>
+          <xdr:cNvPr id="77" name="円/楕円 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8082,7 +8723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="テキスト ボックス 77"/>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8144,7 +8791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8205,7 +8858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8266,7 +8925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="テキスト ボックス 80"/>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8327,7 +8992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8392,7 +9063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 181"/>
+        <xdr:cNvPr id="5" name="Text Box 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8475,7 +9152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8517,7 +9194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8550,9 +9227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8585,6 +9279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8760,61 +9471,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="24"/>
       <c r="J23" s="15" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -8823,19 +9532,19 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="129">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43718</v>
+        <v>44825</v>
       </c>
       <c r="J25" s="129"/>
       <c r="K25" s="129"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -8844,7 +9553,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -8853,7 +9562,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -8862,7 +9571,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="24"/>
@@ -8870,7 +9579,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -8879,7 +9588,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -8888,7 +9597,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -8897,7 +9606,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="24"/>
@@ -8909,7 +9618,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="24"/>
@@ -8924,515 +9633,515 @@
       <c r="R34" s="133"/>
       <c r="S34" s="133"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="133"/>
       <c r="R35" s="133"/>
       <c r="S35" s="133"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="134"/>
       <c r="P36" s="133"/>
       <c r="Q36" s="134"/>
       <c r="R36" s="133"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="130"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="130"/>
       <c r="R37" s="131"/>
       <c r="S37" s="130"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="131"/>
       <c r="R38" s="131"/>
       <c r="S38" s="131"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="131"/>
       <c r="R39" s="131"/>
       <c r="S39" s="131"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -9453,20 +10162,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:F9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
@@ -9474,7 +10183,7 @@
       <c r="C1" s="180"/>
       <c r="D1" s="139"/>
       <c r="E1" s="193" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="191"/>
       <c r="G1" s="191"/>
@@ -9486,13 +10195,13 @@
       <c r="M1" s="191"/>
       <c r="N1" s="192"/>
       <c r="O1" s="181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P1" s="182"/>
       <c r="Q1" s="182"/>
       <c r="R1" s="183"/>
       <c r="S1" s="149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T1" s="150"/>
       <c r="U1" s="150"/>
@@ -9502,7 +10211,7 @@
       <c r="Y1" s="150"/>
       <c r="Z1" s="151"/>
       <c r="AA1" s="138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="139"/>
       <c r="AC1" s="140" t="str">
@@ -9524,7 +10233,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
@@ -9532,7 +10241,7 @@
       <c r="C2" s="180"/>
       <c r="D2" s="139"/>
       <c r="E2" s="193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="191"/>
       <c r="G2" s="191"/>
@@ -9556,19 +10265,19 @@
       <c r="Y2" s="153"/>
       <c r="Z2" s="154"/>
       <c r="AA2" s="138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB2" s="139"/>
       <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TSS</v>
       </c>
       <c r="AD2" s="195"/>
       <c r="AE2" s="195"/>
       <c r="AF2" s="196"/>
-      <c r="AG2" s="143" t="str">
+      <c r="AG2" s="143">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44825</v>
       </c>
       <c r="AH2" s="144"/>
       <c r="AI2" s="145"/>
@@ -9578,7 +10287,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
@@ -9622,7 +10331,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -9664,7 +10373,7 @@
       <c r="AM4" s="23"/>
       <c r="AN4" s="23"/>
     </row>
-    <row r="5" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -9708,7 +10417,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -9750,7 +10459,7 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
@@ -9806,12 +10515,12 @@
       <c r="AM7" s="31"/>
       <c r="AN7" s="31"/>
     </row>
-    <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="92">
         <v>1</v>
       </c>
       <c r="B8" s="167" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="168"/>
       <c r="D8" s="169">
@@ -9820,12 +10529,12 @@
       <c r="E8" s="170"/>
       <c r="F8" s="171"/>
       <c r="G8" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="172"/>
       <c r="I8" s="168"/>
       <c r="J8" s="176" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="174"/>
       <c r="L8" s="174"/>
@@ -9834,7 +10543,7 @@
       <c r="O8" s="174"/>
       <c r="P8" s="175"/>
       <c r="Q8" s="177" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R8" s="178"/>
       <c r="S8" s="178"/>
@@ -9851,7 +10560,7 @@
       <c r="AD8" s="178"/>
       <c r="AE8" s="179"/>
       <c r="AF8" s="173" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG8" s="174"/>
       <c r="AH8" s="174"/>
@@ -9862,24 +10571,36 @@
       <c r="AM8" s="31"/>
       <c r="AN8" s="31"/>
     </row>
-    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="158"/>
+    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="92">
+        <v>2</v>
+      </c>
+      <c r="B9" s="305" t="s">
+        <v>210</v>
+      </c>
       <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
+      <c r="D9" s="161">
+        <v>44825</v>
+      </c>
       <c r="E9" s="162"/>
       <c r="F9" s="163"/>
-      <c r="G9" s="158"/>
+      <c r="G9" s="305" t="s">
+        <v>211</v>
+      </c>
       <c r="H9" s="159"/>
       <c r="I9" s="160"/>
-      <c r="J9" s="135"/>
+      <c r="J9" s="306" t="s">
+        <v>212</v>
+      </c>
       <c r="K9" s="136"/>
       <c r="L9" s="136"/>
       <c r="M9" s="136"/>
       <c r="N9" s="136"/>
       <c r="O9" s="136"/>
       <c r="P9" s="137"/>
-      <c r="Q9" s="146"/>
+      <c r="Q9" s="232" t="s">
+        <v>213</v>
+      </c>
       <c r="R9" s="147"/>
       <c r="S9" s="147"/>
       <c r="T9" s="147"/>
@@ -9894,7 +10615,9 @@
       <c r="AC9" s="147"/>
       <c r="AD9" s="147"/>
       <c r="AE9" s="148"/>
-      <c r="AF9" s="135"/>
+      <c r="AF9" s="306" t="s">
+        <v>214</v>
+      </c>
       <c r="AG9" s="136"/>
       <c r="AH9" s="136"/>
       <c r="AI9" s="137"/>
@@ -9904,7 +10627,7 @@
       <c r="AM9" s="31"/>
       <c r="AN9" s="31"/>
     </row>
-    <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92"/>
       <c r="B10" s="158"/>
       <c r="C10" s="160"/>
@@ -9946,7 +10669,7 @@
       <c r="AM10" s="31"/>
       <c r="AN10" s="31"/>
     </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="92"/>
       <c r="B11" s="158"/>
       <c r="C11" s="160"/>
@@ -9988,7 +10711,7 @@
       <c r="AM11" s="31"/>
       <c r="AN11" s="31"/>
     </row>
-    <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="92"/>
       <c r="B12" s="158"/>
       <c r="C12" s="160"/>
@@ -10030,7 +10753,7 @@
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
     </row>
-    <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="92"/>
       <c r="B13" s="158"/>
       <c r="C13" s="160"/>
@@ -10072,7 +10795,7 @@
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
     </row>
-    <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="92"/>
       <c r="B14" s="158"/>
       <c r="C14" s="160"/>
@@ -10114,7 +10837,7 @@
       <c r="AM14" s="31"/>
       <c r="AN14" s="31"/>
     </row>
-    <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="92"/>
       <c r="B15" s="158"/>
       <c r="C15" s="160"/>
@@ -10156,7 +10879,7 @@
       <c r="AM15" s="31"/>
       <c r="AN15" s="31"/>
     </row>
-    <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="92"/>
       <c r="B16" s="158"/>
       <c r="C16" s="160"/>
@@ -10198,7 +10921,7 @@
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
     </row>
-    <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="92"/>
       <c r="B17" s="158"/>
       <c r="C17" s="160"/>
@@ -10240,7 +10963,7 @@
       <c r="AM17" s="31"/>
       <c r="AN17" s="31"/>
     </row>
-    <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="92"/>
       <c r="B18" s="158"/>
       <c r="C18" s="160"/>
@@ -10282,7 +11005,7 @@
       <c r="AM18" s="31"/>
       <c r="AN18" s="31"/>
     </row>
-    <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="92"/>
       <c r="B19" s="158"/>
       <c r="C19" s="160"/>
@@ -10324,7 +11047,7 @@
       <c r="AM19" s="31"/>
       <c r="AN19" s="31"/>
     </row>
-    <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="92"/>
       <c r="B20" s="158"/>
       <c r="C20" s="160"/>
@@ -10366,7 +11089,7 @@
       <c r="AM20" s="31"/>
       <c r="AN20" s="31"/>
     </row>
-    <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="92"/>
       <c r="B21" s="158"/>
       <c r="C21" s="160"/>
@@ -10408,7 +11131,7 @@
       <c r="AM21" s="31"/>
       <c r="AN21" s="31"/>
     </row>
-    <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="92"/>
       <c r="B22" s="158"/>
       <c r="C22" s="160"/>
@@ -10450,7 +11173,7 @@
       <c r="AM22" s="31"/>
       <c r="AN22" s="31"/>
     </row>
-    <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="92"/>
       <c r="B23" s="158"/>
       <c r="C23" s="160"/>
@@ -10492,7 +11215,7 @@
       <c r="AM23" s="31"/>
       <c r="AN23" s="31"/>
     </row>
-    <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="92"/>
       <c r="B24" s="158"/>
       <c r="C24" s="160"/>
@@ -10534,7 +11257,7 @@
       <c r="AM24" s="31"/>
       <c r="AN24" s="31"/>
     </row>
-    <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="92"/>
       <c r="B25" s="158"/>
       <c r="C25" s="160"/>
@@ -10576,7 +11299,7 @@
       <c r="AM25" s="31"/>
       <c r="AN25" s="31"/>
     </row>
-    <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="92"/>
       <c r="B26" s="158"/>
       <c r="C26" s="160"/>
@@ -10618,7 +11341,7 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="31"/>
     </row>
-    <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="92"/>
       <c r="B27" s="158"/>
       <c r="C27" s="160"/>
@@ -10660,7 +11383,7 @@
       <c r="AM27" s="31"/>
       <c r="AN27" s="31"/>
     </row>
-    <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="92"/>
       <c r="B28" s="158"/>
       <c r="C28" s="160"/>
@@ -10702,7 +11425,7 @@
       <c r="AM28" s="31"/>
       <c r="AN28" s="31"/>
     </row>
-    <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="92"/>
       <c r="B29" s="158"/>
       <c r="C29" s="160"/>
@@ -10744,7 +11467,7 @@
       <c r="AM29" s="31"/>
       <c r="AN29" s="31"/>
     </row>
-    <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="92"/>
       <c r="B30" s="158"/>
       <c r="C30" s="160"/>
@@ -10786,7 +11509,7 @@
       <c r="AM30" s="31"/>
       <c r="AN30" s="31"/>
     </row>
-    <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="92"/>
       <c r="B31" s="158"/>
       <c r="C31" s="160"/>
@@ -10828,7 +11551,7 @@
       <c r="AM31" s="31"/>
       <c r="AN31" s="31"/>
     </row>
-    <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="92"/>
       <c r="B32" s="158"/>
       <c r="C32" s="160"/>
@@ -10870,7 +11593,7 @@
       <c r="AM32" s="31"/>
       <c r="AN32" s="31"/>
     </row>
-    <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="92"/>
       <c r="B33" s="158"/>
       <c r="C33" s="160"/>
@@ -10912,7 +11635,7 @@
       <c r="AM33" s="31"/>
       <c r="AN33" s="31"/>
     </row>
-    <row r="34" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -10954,7 +11677,7 @@
       <c r="AM34" s="31"/>
       <c r="AN34" s="31"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -11187,7 +11910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AI52"/>
   <sheetViews>
@@ -11195,7 +11918,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="53" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="75" customWidth="1"/>
@@ -11330,7 +12053,7 @@
     <col min="16163" max="16384" width="4.83203125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25">
+    <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
@@ -11351,7 +12074,7 @@
       <c r="M1" s="191"/>
       <c r="N1" s="192"/>
       <c r="O1" s="212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="213"/>
       <c r="Q1" s="213"/>
@@ -11385,7 +12108,7 @@
       <c r="AH1" s="198"/>
       <c r="AI1" s="199"/>
     </row>
-    <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25">
+    <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="200" t="s">
         <v>1</v>
       </c>
@@ -11423,19 +12146,19 @@
       <c r="AB2" s="201"/>
       <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TSS</v>
       </c>
       <c r="AD2" s="141"/>
       <c r="AE2" s="141"/>
       <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AG2" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>44825</v>
       </c>
       <c r="AH2" s="198"/>
       <c r="AI2" s="199"/>
     </row>
-    <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25">
+    <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="200" t="s">
         <v>2</v>
       </c>
@@ -11483,7 +12206,7 @@
       <c r="AH3" s="198"/>
       <c r="AI3" s="199"/>
     </row>
-    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -11520,7 +12243,7 @@
       <c r="AH4" s="42"/>
       <c r="AI4" s="42"/>
     </row>
-    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -11538,7 +12261,7 @@
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
@@ -11559,7 +12282,7 @@
       <c r="AH5" s="42"/>
       <c r="AI5" s="42"/>
     </row>
-    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -11596,10 +12319,10 @@
       <c r="AH6" s="42"/>
       <c r="AI6" s="42"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="46"/>
       <c r="B7" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="46"/>
@@ -11629,7 +12352,7 @@
       <c r="AH7" s="51"/>
       <c r="AI7" s="52"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="46"/>
       <c r="B8" s="48"/>
       <c r="C8" s="57"/>
@@ -11660,10 +12383,10 @@
       <c r="AH8" s="55"/>
       <c r="AI8" s="52"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="46"/>
       <c r="B9" s="86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="58"/>
       <c r="N9" s="49"/>
@@ -11689,11 +12412,11 @@
       <c r="AH9" s="56"/>
       <c r="AI9" s="46"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="46"/>
       <c r="B10" s="52"/>
       <c r="C10" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -11722,11 +12445,11 @@
       <c r="AH10" s="51"/>
       <c r="AI10" s="52"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="46"/>
       <c r="B11" s="57"/>
       <c r="C11" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
@@ -11761,7 +12484,7 @@
       <c r="AH11" s="51"/>
       <c r="AI11" s="52"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="46"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="42"/>
@@ -11784,7 +12507,7 @@
       <c r="AH12" s="51"/>
       <c r="AI12" s="52"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="46"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -11821,7 +12544,7 @@
       <c r="AH13" s="51"/>
       <c r="AI13" s="52"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="46"/>
       <c r="C14" s="40"/>
       <c r="O14" s="48"/>
@@ -11846,7 +12569,7 @@
       <c r="AH14" s="51"/>
       <c r="AI14" s="52"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="46"/>
       <c r="B15" s="48"/>
       <c r="C15" s="40"/>
@@ -11883,7 +12606,7 @@
       <c r="AH15" s="51"/>
       <c r="AI15" s="52"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="46"/>
       <c r="B16" s="48"/>
       <c r="C16" s="40"/>
@@ -11920,7 +12643,7 @@
       <c r="AH16" s="51"/>
       <c r="AI16" s="52"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="46"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -11955,7 +12678,7 @@
       <c r="AH17" s="51"/>
       <c r="AI17" s="52"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="46"/>
       <c r="D18" s="40"/>
       <c r="E18" s="42"/>
@@ -11977,7 +12700,7 @@
       <c r="AH18" s="51"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="46"/>
       <c r="N19" s="49"/>
       <c r="P19" s="47"/>
@@ -11997,7 +12720,7 @@
       <c r="AH19" s="51"/>
       <c r="AI19" s="52"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="46"/>
       <c r="U20" s="48"/>
       <c r="V20" s="48"/>
@@ -12015,7 +12738,7 @@
       <c r="AH20" s="51"/>
       <c r="AI20" s="52"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="46"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
@@ -12033,7 +12756,7 @@
       <c r="AH21" s="51"/>
       <c r="AI21" s="52"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="46"/>
       <c r="U22" s="48"/>
       <c r="V22" s="48"/>
@@ -12051,7 +12774,7 @@
       <c r="AH22" s="51"/>
       <c r="AI22" s="52"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="46"/>
       <c r="U23" s="48"/>
       <c r="V23" s="48"/>
@@ -12069,7 +12792,7 @@
       <c r="AH23" s="51"/>
       <c r="AI23" s="52"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="46"/>
       <c r="B24" s="42"/>
       <c r="C24" s="46"/>
@@ -12104,7 +12827,7 @@
       <c r="AH24" s="51"/>
       <c r="AI24" s="52"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="46"/>
       <c r="B25" s="42"/>
       <c r="C25" s="46"/>
@@ -12141,7 +12864,7 @@
       <c r="AH25" s="51"/>
       <c r="AI25" s="52"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="46"/>
       <c r="B26" s="42"/>
       <c r="C26" s="46"/>
@@ -12178,7 +12901,7 @@
       <c r="AH26" s="51"/>
       <c r="AI26" s="52"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="46"/>
       <c r="B27" s="42"/>
       <c r="C27" s="46"/>
@@ -12215,7 +12938,7 @@
       <c r="AH27" s="51"/>
       <c r="AI27" s="52"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="46"/>
       <c r="B28" s="42"/>
       <c r="C28" s="46"/>
@@ -12252,7 +12975,7 @@
       <c r="AH28" s="51"/>
       <c r="AI28" s="52"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
       <c r="B29" s="42"/>
       <c r="C29" s="46"/>
@@ -12289,7 +13012,7 @@
       <c r="AH29" s="51"/>
       <c r="AI29" s="52"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -12326,7 +13049,7 @@
       <c r="AH30" s="63"/>
       <c r="AI30" s="64"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
@@ -12363,7 +13086,7 @@
       <c r="AH31" s="63"/>
       <c r="AI31" s="64"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
       <c r="B32" s="67"/>
       <c r="C32" s="46"/>
@@ -12400,7 +13123,7 @@
       <c r="AH32" s="63"/>
       <c r="AI32" s="64"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
       <c r="B33" s="67"/>
       <c r="C33" s="46"/>
@@ -12437,7 +13160,7 @@
       <c r="AH33" s="63"/>
       <c r="AI33" s="64"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60"/>
       <c r="B34" s="67"/>
       <c r="C34" s="46"/>
@@ -12474,7 +13197,7 @@
       <c r="AH34" s="63"/>
       <c r="AI34" s="64"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60"/>
       <c r="B35" s="67"/>
       <c r="C35" s="46"/>
@@ -12511,7 +13234,7 @@
       <c r="AH35" s="63"/>
       <c r="AI35" s="64"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="60"/>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -12548,7 +13271,7 @@
       <c r="AH36" s="72"/>
       <c r="AI36" s="60"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -12580,7 +13303,7 @@
       <c r="AH37" s="80"/>
       <c r="AI37" s="76"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="76"/>
       <c r="T38" s="76"/>
       <c r="U38" s="77"/>
@@ -12599,7 +13322,7 @@
       <c r="AH38" s="83"/>
       <c r="AI38" s="76"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="84"/>
       <c r="S39" s="76"/>
       <c r="T39" s="77"/>
@@ -12619,7 +13342,7 @@
       <c r="AH39" s="83"/>
       <c r="AI39" s="76"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="76"/>
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
@@ -12638,7 +13361,7 @@
       <c r="AH40" s="83"/>
       <c r="AI40" s="76"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="73"/>
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
@@ -12652,37 +13375,37 @@
       <c r="AH41" s="83"/>
       <c r="AI41" s="76"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="76"/>
       <c r="AF42" s="81"/>
       <c r="AG42" s="82"/>
       <c r="AH42" s="83"/>
       <c r="AI42" s="76"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="76"/>
       <c r="AF43" s="81"/>
       <c r="AG43" s="81"/>
       <c r="AH43" s="83"/>
       <c r="AI43" s="76"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="73"/>
       <c r="AF44" s="85"/>
       <c r="AG44" s="85"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="73"/>
       <c r="AG45" s="85"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="85"/>
       <c r="AG46" s="85"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="85"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="73"/>
       <c r="T48" s="73"/>
       <c r="V48" s="73"/>
@@ -12695,7 +13418,7 @@
       <c r="AC48" s="73"/>
       <c r="AD48" s="73"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="73"/>
       <c r="S49" s="73"/>
       <c r="T49" s="73"/>
@@ -12710,10 +13433,10 @@
       <c r="AD49" s="73"/>
       <c r="AG49" s="85"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="73"/>
     </row>
-    <row r="51" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="53"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
@@ -12746,7 +13469,7 @@
       <c r="AD51" s="53"/>
       <c r="AH51" s="84"/>
     </row>
-    <row r="52" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="53"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -12808,24 +13531,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI162"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="32" width="4.83203125" style="23"/>
     <col min="33" max="35" width="4.83203125" style="23" customWidth="1"/>
     <col min="36" max="16384" width="4.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
@@ -12846,7 +13569,7 @@
       <c r="M1" s="191"/>
       <c r="N1" s="192"/>
       <c r="O1" s="181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="182"/>
       <c r="Q1" s="182"/>
@@ -12880,7 +13603,7 @@
       <c r="AH1" s="198"/>
       <c r="AI1" s="199"/>
     </row>
-    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
@@ -12918,19 +13641,19 @@
       <c r="AB2" s="139"/>
       <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TSS</v>
       </c>
       <c r="AD2" s="141"/>
       <c r="AE2" s="141"/>
       <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AG2" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>44825</v>
       </c>
       <c r="AH2" s="198"/>
       <c r="AI2" s="199"/>
     </row>
-    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
@@ -12978,37 +13701,37 @@
       <c r="AH3" s="198"/>
       <c r="AI3" s="199"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="40"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B6" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C8" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B11" s="40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="C8" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="B11" s="40" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C13" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="C15" s="40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
-      <c r="C13" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="C15" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="3:33">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D17" s="224" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="224"/>
       <c r="F17" s="224"/>
@@ -13017,7 +13740,7 @@
       <c r="I17" s="224"/>
       <c r="J17" s="224"/>
       <c r="K17" s="224" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L17" s="224"/>
       <c r="M17" s="224"/>
@@ -13042,9 +13765,9 @@
       <c r="AF17" s="224"/>
       <c r="AG17" s="224"/>
     </row>
-    <row r="18" spans="3:33">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D18" s="221" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="221"/>
       <c r="F18" s="221"/>
@@ -13053,7 +13776,7 @@
       <c r="I18" s="221"/>
       <c r="J18" s="221"/>
       <c r="K18" s="221" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="221"/>
       <c r="M18" s="221"/>
@@ -13078,9 +13801,9 @@
       <c r="AF18" s="221"/>
       <c r="AG18" s="221"/>
     </row>
-    <row r="19" spans="3:33">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D19" s="228" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="228"/>
       <c r="F19" s="228"/>
@@ -13089,7 +13812,7 @@
       <c r="I19" s="228"/>
       <c r="J19" s="228"/>
       <c r="K19" s="229" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L19" s="228"/>
       <c r="M19" s="228"/>
@@ -13114,7 +13837,7 @@
       <c r="AF19" s="228"/>
       <c r="AG19" s="228"/>
     </row>
-    <row r="20" spans="3:33">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D20" s="226"/>
       <c r="E20" s="226"/>
       <c r="F20" s="226"/>
@@ -13123,7 +13846,7 @@
       <c r="I20" s="226"/>
       <c r="J20" s="226"/>
       <c r="K20" s="227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" s="226"/>
       <c r="M20" s="226"/>
@@ -13148,14 +13871,14 @@
       <c r="AF20" s="226"/>
       <c r="AG20" s="226"/>
     </row>
-    <row r="22" spans="3:33">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.15">
       <c r="C22" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="3:33">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D24" s="224" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="224"/>
       <c r="F24" s="224"/>
@@ -13164,7 +13887,7 @@
       <c r="I24" s="224"/>
       <c r="J24" s="224"/>
       <c r="K24" s="224" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L24" s="224"/>
       <c r="M24" s="224"/>
@@ -13189,9 +13912,9 @@
       <c r="AF24" s="224"/>
       <c r="AG24" s="224"/>
     </row>
-    <row r="25" spans="3:33">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D25" s="221" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="221"/>
       <c r="F25" s="221"/>
@@ -13200,7 +13923,7 @@
       <c r="I25" s="221"/>
       <c r="J25" s="221"/>
       <c r="K25" s="221" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L25" s="221"/>
       <c r="M25" s="221"/>
@@ -13225,9 +13948,9 @@
       <c r="AF25" s="221"/>
       <c r="AG25" s="221"/>
     </row>
-    <row r="26" spans="3:33">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D26" s="221" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="221"/>
       <c r="F26" s="221"/>
@@ -13236,7 +13959,7 @@
       <c r="I26" s="221"/>
       <c r="J26" s="221"/>
       <c r="K26" s="221" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L26" s="221"/>
       <c r="M26" s="221"/>
@@ -13261,9 +13984,9 @@
       <c r="AF26" s="221"/>
       <c r="AG26" s="221"/>
     </row>
-    <row r="27" spans="3:33">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D27" s="221" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="221"/>
       <c r="F27" s="221"/>
@@ -13272,7 +13995,7 @@
       <c r="I27" s="221"/>
       <c r="J27" s="221"/>
       <c r="K27" s="221" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L27" s="221"/>
       <c r="M27" s="221"/>
@@ -13297,14 +14020,14 @@
       <c r="AF27" s="221"/>
       <c r="AG27" s="221"/>
     </row>
-    <row r="29" spans="3:33">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.15">
       <c r="C29" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="3:33">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D31" s="224" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="224"/>
       <c r="F31" s="224"/>
@@ -13313,7 +14036,7 @@
       <c r="I31" s="224"/>
       <c r="J31" s="224"/>
       <c r="K31" s="224" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L31" s="224"/>
       <c r="M31" s="224"/>
@@ -13338,9 +14061,9 @@
       <c r="AF31" s="224"/>
       <c r="AG31" s="224"/>
     </row>
-    <row r="32" spans="3:33">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.15">
       <c r="D32" s="225" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="225"/>
       <c r="F32" s="225"/>
@@ -13349,7 +14072,7 @@
       <c r="I32" s="225"/>
       <c r="J32" s="225"/>
       <c r="K32" s="225" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L32" s="225"/>
       <c r="M32" s="225"/>
@@ -13374,7 +14097,7 @@
       <c r="AF32" s="225"/>
       <c r="AG32" s="225"/>
     </row>
-    <row r="33" spans="2:33">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D33" s="222"/>
       <c r="E33" s="222"/>
       <c r="F33" s="222"/>
@@ -13383,7 +14106,7 @@
       <c r="I33" s="222"/>
       <c r="J33" s="222"/>
       <c r="K33" s="222" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L33" s="222"/>
       <c r="M33" s="222"/>
@@ -13408,9 +14131,9 @@
       <c r="AF33" s="222"/>
       <c r="AG33" s="222"/>
     </row>
-    <row r="34" spans="2:33">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D34" s="225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="225"/>
       <c r="F34" s="225"/>
@@ -13419,7 +14142,7 @@
       <c r="I34" s="225"/>
       <c r="J34" s="225"/>
       <c r="K34" s="225" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L34" s="225"/>
       <c r="M34" s="225"/>
@@ -13444,7 +14167,7 @@
       <c r="AF34" s="225"/>
       <c r="AG34" s="225"/>
     </row>
-    <row r="35" spans="2:33">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D35" s="222"/>
       <c r="E35" s="222"/>
       <c r="F35" s="222"/>
@@ -13453,7 +14176,7 @@
       <c r="I35" s="222"/>
       <c r="J35" s="222"/>
       <c r="K35" s="222" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L35" s="222"/>
       <c r="M35" s="222"/>
@@ -13478,9 +14201,9 @@
       <c r="AF35" s="222"/>
       <c r="AG35" s="222"/>
     </row>
-    <row r="36" spans="2:33" ht="13.5" customHeight="1">
+    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="223" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="223"/>
       <c r="F36" s="223"/>
@@ -13489,7 +14212,7 @@
       <c r="I36" s="223"/>
       <c r="J36" s="223"/>
       <c r="K36" s="223" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36" s="223"/>
       <c r="M36" s="223"/>
@@ -13514,7 +14237,7 @@
       <c r="AF36" s="223"/>
       <c r="AG36" s="223"/>
     </row>
-    <row r="37" spans="2:33">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D37" s="93"/>
       <c r="E37" s="93"/>
       <c r="F37" s="93"/>
@@ -13546,14 +14269,14 @@
       <c r="AF37" s="93"/>
       <c r="AG37" s="93"/>
     </row>
-    <row r="38" spans="2:33">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C38" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D40" s="224" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="224"/>
       <c r="F40" s="224"/>
@@ -13562,7 +14285,7 @@
       <c r="I40" s="224"/>
       <c r="J40" s="224"/>
       <c r="K40" s="224" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L40" s="224"/>
       <c r="M40" s="224"/>
@@ -13587,9 +14310,9 @@
       <c r="AF40" s="224"/>
       <c r="AG40" s="224"/>
     </row>
-    <row r="41" spans="2:33">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D41" s="221" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="221"/>
       <c r="F41" s="221"/>
@@ -13598,7 +14321,7 @@
       <c r="I41" s="221"/>
       <c r="J41" s="221"/>
       <c r="K41" s="221" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L41" s="221"/>
       <c r="M41" s="221"/>
@@ -13623,7 +14346,7 @@
       <c r="AF41" s="221"/>
       <c r="AG41" s="221"/>
     </row>
-    <row r="42" spans="2:33">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -13655,129 +14378,129 @@
       <c r="AF42" s="73"/>
       <c r="AG42" s="73"/>
     </row>
-    <row r="44" spans="2:33">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B44" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C46" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="C47" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="40" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="2:33">
-      <c r="C46" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="2:33">
-      <c r="C47" s="23" t="s">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D51" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E53" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="40" t="s">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E54" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D85" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E87" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E88" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E89" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
-      <c r="D51" s="23" t="s">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E90" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E91" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E92" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C95" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D97" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E99" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E100" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="D132" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
-      <c r="E53" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5">
-      <c r="E54" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5">
-      <c r="D85" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="E87" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5">
-      <c r="E88" s="23" t="s">
+    <row r="134" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="E134" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="E135" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
-      <c r="E89" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5">
-      <c r="E90" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5">
-      <c r="E91" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5">
-      <c r="E92" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5">
-      <c r="C95" s="40" t="s">
+    <row r="136" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="E136" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="E137" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="E138" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B141" s="94" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5">
-      <c r="D97" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5">
-      <c r="E99" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5">
-      <c r="E100" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="2:31">
-      <c r="D132" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="134" spans="2:31">
-      <c r="E134" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="135" spans="2:31">
-      <c r="E135" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="136" spans="2:31">
-      <c r="E136" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="137" spans="2:31">
-      <c r="E137" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138" spans="2:31">
-      <c r="E138" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="2:31">
-      <c r="B141" s="94" t="s">
-        <v>137</v>
       </c>
       <c r="C141" s="93"/>
       <c r="D141" s="93"/>
@@ -13809,10 +14532,10 @@
       <c r="AD141" s="93"/>
       <c r="AE141" s="93"/>
     </row>
-    <row r="142" spans="2:31">
+    <row r="142" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B142" s="94"/>
       <c r="C142" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" s="93"/>
       <c r="E142" s="93"/>
@@ -13843,10 +14566,10 @@
       <c r="AD142" s="93"/>
       <c r="AE142" s="93"/>
     </row>
-    <row r="143" spans="2:31">
+    <row r="143" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B143" s="94"/>
       <c r="C143" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="93"/>
       <c r="E143" s="93"/>
@@ -13877,7 +14600,7 @@
       <c r="AD143" s="93"/>
       <c r="AE143" s="93"/>
     </row>
-    <row r="144" spans="2:31">
+    <row r="144" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B144" s="93"/>
       <c r="C144" s="93"/>
       <c r="D144" s="93"/>
@@ -13909,10 +14632,10 @@
       <c r="AD144" s="93"/>
       <c r="AE144" s="93"/>
     </row>
-    <row r="145" spans="2:31">
+    <row r="145" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B145" s="93"/>
       <c r="C145" s="95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D145" s="96"/>
       <c r="E145" s="96"/>
@@ -13923,10 +14646,10 @@
       <c r="J145" s="96"/>
       <c r="K145" s="97"/>
       <c r="L145" s="98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M145" s="95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N145" s="99"/>
       <c r="O145" s="96"/>
@@ -13947,10 +14670,10 @@
       <c r="AD145" s="96"/>
       <c r="AE145" s="97"/>
     </row>
-    <row r="146" spans="2:31">
+    <row r="146" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B146" s="93"/>
       <c r="C146" s="100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D146" s="101"/>
       <c r="E146" s="101"/>
@@ -13961,10 +14684,10 @@
       <c r="J146" s="102"/>
       <c r="K146" s="102"/>
       <c r="L146" s="103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M146" s="104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N146" s="105"/>
       <c r="O146" s="101"/>
@@ -13985,11 +14708,11 @@
       <c r="AD146" s="101"/>
       <c r="AE146" s="106"/>
     </row>
-    <row r="147" spans="2:31">
+    <row r="147" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B147" s="93"/>
       <c r="C147" s="107"/>
       <c r="D147" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E147" s="109"/>
       <c r="F147" s="109"/>
@@ -13999,10 +14722,10 @@
       <c r="J147" s="109"/>
       <c r="K147" s="110"/>
       <c r="L147" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="M147" s="108" t="s">
         <v>144</v>
-      </c>
-      <c r="M147" s="108" t="s">
-        <v>145</v>
       </c>
       <c r="N147" s="112"/>
       <c r="O147" s="109"/>
@@ -14023,11 +14746,11 @@
       <c r="AD147" s="109"/>
       <c r="AE147" s="110"/>
     </row>
-    <row r="148" spans="2:31">
+    <row r="148" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B148" s="93"/>
       <c r="C148" s="113"/>
       <c r="D148" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E148" s="115"/>
       <c r="F148" s="115"/>
@@ -14037,10 +14760,10 @@
       <c r="J148" s="115"/>
       <c r="K148" s="116"/>
       <c r="L148" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="M148" s="114" t="s">
         <v>147</v>
-      </c>
-      <c r="M148" s="114" t="s">
-        <v>148</v>
       </c>
       <c r="N148" s="118"/>
       <c r="O148" s="115"/>
@@ -14061,10 +14784,10 @@
       <c r="AD148" s="115"/>
       <c r="AE148" s="116"/>
     </row>
-    <row r="149" spans="2:31">
+    <row r="149" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B149" s="93"/>
       <c r="C149" s="100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D149" s="101"/>
       <c r="E149" s="101"/>
@@ -14075,10 +14798,10 @@
       <c r="J149" s="101"/>
       <c r="K149" s="106"/>
       <c r="L149" s="119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M149" s="100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N149" s="105"/>
       <c r="O149" s="101"/>
@@ -14099,7 +14822,7 @@
       <c r="AD149" s="101"/>
       <c r="AE149" s="106"/>
     </row>
-    <row r="150" spans="2:31">
+    <row r="150" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B150" s="93"/>
       <c r="C150" s="107"/>
       <c r="D150" s="120"/>
@@ -14112,7 +14835,7 @@
       <c r="K150" s="121"/>
       <c r="L150" s="122"/>
       <c r="M150" s="107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N150" s="123"/>
       <c r="O150" s="120"/>
@@ -14133,10 +14856,10 @@
       <c r="AD150" s="120"/>
       <c r="AE150" s="121"/>
     </row>
-    <row r="151" spans="2:31">
+    <row r="151" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B151" s="93"/>
       <c r="C151" s="100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D151" s="101"/>
       <c r="E151" s="101"/>
@@ -14147,10 +14870,10 @@
       <c r="J151" s="101"/>
       <c r="K151" s="106"/>
       <c r="L151" s="124" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M151" s="100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N151" s="105"/>
       <c r="O151" s="101"/>
@@ -14171,7 +14894,7 @@
       <c r="AD151" s="101"/>
       <c r="AE151" s="106"/>
     </row>
-    <row r="152" spans="2:31">
+    <row r="152" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B152" s="93"/>
       <c r="C152" s="113"/>
       <c r="D152" s="125"/>
@@ -14184,7 +14907,7 @@
       <c r="K152" s="126"/>
       <c r="L152" s="127"/>
       <c r="M152" s="113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N152" s="128"/>
       <c r="O152" s="125"/>
@@ -14205,7 +14928,7 @@
       <c r="AD152" s="125"/>
       <c r="AE152" s="126"/>
     </row>
-    <row r="153" spans="2:31">
+    <row r="153" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B153" s="93"/>
       <c r="C153" s="93"/>
       <c r="D153" s="93"/>
@@ -14237,10 +14960,10 @@
       <c r="AD153" s="93"/>
       <c r="AE153" s="93"/>
     </row>
-    <row r="154" spans="2:31">
+    <row r="154" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B154" s="93"/>
       <c r="C154" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D154" s="93"/>
       <c r="E154" s="93"/>
@@ -14271,7 +14994,7 @@
       <c r="AD154" s="93"/>
       <c r="AE154" s="93"/>
     </row>
-    <row r="155" spans="2:31">
+    <row r="155" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B155" s="93"/>
       <c r="C155" s="93"/>
       <c r="D155" s="93"/>
@@ -14303,10 +15026,10 @@
       <c r="AD155" s="93"/>
       <c r="AE155" s="93"/>
     </row>
-    <row r="156" spans="2:31">
+    <row r="156" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B156" s="93"/>
       <c r="C156" s="94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D156" s="93"/>
       <c r="F156" s="93"/>
@@ -14336,10 +15059,10 @@
       <c r="AD156" s="93"/>
       <c r="AE156" s="93"/>
     </row>
-    <row r="157" spans="2:31">
+    <row r="157" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B157" s="93"/>
       <c r="C157" s="94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D157" s="93"/>
       <c r="F157" s="93"/>
@@ -14369,10 +15092,10 @@
       <c r="AD157" s="93"/>
       <c r="AE157" s="93"/>
     </row>
-    <row r="158" spans="2:31">
+    <row r="158" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B158" s="93"/>
       <c r="C158" s="94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D158" s="93"/>
       <c r="F158" s="93"/>
@@ -14402,10 +15125,10 @@
       <c r="AD158" s="93"/>
       <c r="AE158" s="93"/>
     </row>
-    <row r="159" spans="2:31">
+    <row r="159" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B159" s="93"/>
       <c r="C159" s="94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D159" s="93"/>
       <c r="F159" s="93"/>
@@ -14435,10 +15158,10 @@
       <c r="AD159" s="93"/>
       <c r="AE159" s="93"/>
     </row>
-    <row r="160" spans="2:31">
+    <row r="160" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B160" s="93"/>
       <c r="C160" s="94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D160" s="93"/>
       <c r="F160" s="93"/>
@@ -14468,10 +15191,10 @@
       <c r="AD160" s="93"/>
       <c r="AE160" s="93"/>
     </row>
-    <row r="161" spans="2:31">
+    <row r="161" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B161" s="93"/>
       <c r="C161" s="94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D161" s="93"/>
       <c r="F161" s="93"/>
@@ -14501,9 +15224,9 @@
       <c r="AD161" s="93"/>
       <c r="AE161" s="93"/>
     </row>
-    <row r="162" spans="2:31">
+    <row r="162" spans="2:31" x14ac:dyDescent="0.15">
       <c r="C162" s="94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -14575,15 +15298,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BN15"/>
+  <dimension ref="A1:BN19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="23" width="4.83203125" style="23"/>
     <col min="24" max="24" width="4.83203125" style="23" customWidth="1"/>
@@ -14594,7 +15317,7 @@
     <col min="45" max="16384" width="4.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="41" customFormat="1">
+    <row r="1" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
@@ -14615,7 +15338,7 @@
       <c r="M1" s="191"/>
       <c r="N1" s="192"/>
       <c r="O1" s="181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="182"/>
       <c r="Q1" s="182"/>
@@ -14652,7 +15375,7 @@
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
-    <row r="2" spans="1:66" s="41" customFormat="1">
+    <row r="2" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
@@ -14690,14 +15413,14 @@
       <c r="AB2" s="139"/>
       <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TSS</v>
       </c>
       <c r="AD2" s="141"/>
       <c r="AE2" s="141"/>
       <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AG2" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>44825</v>
       </c>
       <c r="AH2" s="198"/>
       <c r="AI2" s="199"/>
@@ -14705,7 +15428,7 @@
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
-    <row r="3" spans="1:66" s="41" customFormat="1">
+    <row r="3" spans="1:66" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
@@ -14756,226 +15479,226 @@
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66">
-      <c r="A7" s="273" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.15">
+      <c r="A7" s="275" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="277" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="275" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="267" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="268"/>
-      <c r="K7" s="268"/>
-      <c r="L7" s="268"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="266" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="266"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="269" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="271"/>
+      <c r="O7" s="268" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="268"/>
+      <c r="Q7" s="268"/>
       <c r="R7" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S7" s="224"/>
       <c r="T7" s="224"/>
       <c r="U7" s="224"/>
       <c r="V7" s="224"/>
       <c r="W7" s="224"/>
-      <c r="X7" s="262" t="s">
+      <c r="X7" s="264" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="266"/>
+      <c r="AD7" s="268" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE7" s="268"/>
+      <c r="AF7" s="268"/>
+      <c r="AG7" s="268"/>
+      <c r="AH7" s="268"/>
+      <c r="AI7" s="268"/>
+      <c r="AJ7" s="88"/>
+      <c r="AL7" s="279" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM7" s="280"/>
+      <c r="AN7" s="280"/>
+      <c r="AO7" s="280"/>
+      <c r="AP7" s="280"/>
+      <c r="AQ7" s="280"/>
+      <c r="AR7" s="280"/>
+      <c r="AS7" s="280"/>
+      <c r="AT7" s="280"/>
+      <c r="AU7" s="280"/>
+      <c r="AV7" s="280"/>
+      <c r="AW7" s="280"/>
+      <c r="AX7" s="279" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY7" s="280"/>
+      <c r="AZ7" s="280"/>
+      <c r="BA7" s="280"/>
+      <c r="BB7" s="280"/>
+      <c r="BC7" s="281" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD7" s="282"/>
+      <c r="BE7" s="282"/>
+      <c r="BF7" s="282"/>
+      <c r="BG7" s="283"/>
+      <c r="BH7" s="280" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI7" s="280"/>
+      <c r="BJ7" s="280"/>
+      <c r="BK7" s="280"/>
+      <c r="BL7" s="280"/>
+      <c r="BM7" s="280"/>
+      <c r="BN7" s="280"/>
+    </row>
+    <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="276"/>
+      <c r="B8" s="277"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="268"/>
+      <c r="Q8" s="268"/>
+      <c r="R8" s="278" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="263"/>
+      <c r="T8" s="263" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="263"/>
+      <c r="V8" s="260" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="261"/>
+      <c r="X8" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="264"/>
-      <c r="AD7" s="266" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE7" s="266"/>
-      <c r="AF7" s="266"/>
-      <c r="AG7" s="266"/>
-      <c r="AH7" s="266"/>
-      <c r="AI7" s="266"/>
-      <c r="AJ7" s="88"/>
-      <c r="AL7" s="277" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM7" s="278"/>
-      <c r="AN7" s="278"/>
-      <c r="AO7" s="278"/>
-      <c r="AP7" s="278"/>
-      <c r="AQ7" s="278"/>
-      <c r="AR7" s="278"/>
-      <c r="AS7" s="278"/>
-      <c r="AT7" s="278"/>
-      <c r="AU7" s="278"/>
-      <c r="AV7" s="278"/>
-      <c r="AW7" s="278"/>
-      <c r="AX7" s="277" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY7" s="278"/>
-      <c r="AZ7" s="278"/>
-      <c r="BA7" s="278"/>
-      <c r="BB7" s="278"/>
-      <c r="BC7" s="279" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD7" s="280"/>
-      <c r="BE7" s="280"/>
-      <c r="BF7" s="280"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="278" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI7" s="278"/>
-      <c r="BJ7" s="278"/>
-      <c r="BK7" s="278"/>
-      <c r="BL7" s="278"/>
-      <c r="BM7" s="278"/>
-      <c r="BN7" s="278"/>
-    </row>
-    <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="270"/>
-      <c r="H8" s="271"/>
-      <c r="I8" s="271"/>
-      <c r="J8" s="271"/>
-      <c r="K8" s="271"/>
-      <c r="L8" s="271"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="266"/>
-      <c r="P8" s="266"/>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="276" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="261"/>
-      <c r="T8" s="261" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="261"/>
-      <c r="V8" s="258" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="259"/>
-      <c r="X8" s="260" t="s">
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" s="261"/>
-      <c r="Z8" s="261"/>
-      <c r="AA8" s="265" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB8" s="261"/>
-      <c r="AC8" s="259"/>
-      <c r="AD8" s="266"/>
-      <c r="AE8" s="266"/>
-      <c r="AF8" s="266"/>
-      <c r="AG8" s="266"/>
-      <c r="AH8" s="266"/>
-      <c r="AI8" s="266"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="261"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="268"/>
       <c r="AJ8" s="88"/>
-      <c r="AL8" s="278"/>
-      <c r="AM8" s="278"/>
-      <c r="AN8" s="278"/>
-      <c r="AO8" s="278"/>
-      <c r="AP8" s="278"/>
-      <c r="AQ8" s="278"/>
-      <c r="AR8" s="278"/>
-      <c r="AS8" s="278"/>
-      <c r="AT8" s="278"/>
-      <c r="AU8" s="278"/>
-      <c r="AV8" s="278"/>
-      <c r="AW8" s="278"/>
-      <c r="AX8" s="278"/>
-      <c r="AY8" s="278"/>
-      <c r="AZ8" s="278"/>
-      <c r="BA8" s="278"/>
-      <c r="BB8" s="278"/>
-      <c r="BC8" s="282"/>
-      <c r="BD8" s="283"/>
-      <c r="BE8" s="283"/>
-      <c r="BF8" s="283"/>
-      <c r="BG8" s="284"/>
-      <c r="BH8" s="278"/>
-      <c r="BI8" s="278"/>
-      <c r="BJ8" s="278"/>
-      <c r="BK8" s="278"/>
-      <c r="BL8" s="278"/>
-      <c r="BM8" s="278"/>
-      <c r="BN8" s="278"/>
-    </row>
-    <row r="9" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
+      <c r="AL8" s="280"/>
+      <c r="AM8" s="280"/>
+      <c r="AN8" s="280"/>
+      <c r="AO8" s="280"/>
+      <c r="AP8" s="280"/>
+      <c r="AQ8" s="280"/>
+      <c r="AR8" s="280"/>
+      <c r="AS8" s="280"/>
+      <c r="AT8" s="280"/>
+      <c r="AU8" s="280"/>
+      <c r="AV8" s="280"/>
+      <c r="AW8" s="280"/>
+      <c r="AX8" s="280"/>
+      <c r="AY8" s="280"/>
+      <c r="AZ8" s="280"/>
+      <c r="BA8" s="280"/>
+      <c r="BB8" s="280"/>
+      <c r="BC8" s="284"/>
+      <c r="BD8" s="285"/>
+      <c r="BE8" s="285"/>
+      <c r="BF8" s="285"/>
+      <c r="BG8" s="286"/>
+      <c r="BH8" s="280"/>
+      <c r="BI8" s="280"/>
+      <c r="BJ8" s="280"/>
+      <c r="BK8" s="280"/>
+      <c r="BL8" s="280"/>
+      <c r="BM8" s="280"/>
+      <c r="BN8" s="280"/>
+    </row>
+    <row r="9" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="238" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="248" t="s">
+      <c r="B9" s="255" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257"/>
+      <c r="G9" s="237" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="239"/>
+      <c r="O9" s="240" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="241"/>
+      <c r="Q9" s="242"/>
+      <c r="R9" s="243"/>
+      <c r="S9" s="244"/>
+      <c r="T9" s="245">
+        <v>10</v>
+      </c>
+      <c r="U9" s="246"/>
+      <c r="V9" s="247"/>
+      <c r="W9" s="248"/>
+      <c r="X9" s="249"/>
+      <c r="Y9" s="250"/>
+      <c r="Z9" s="250"/>
+      <c r="AA9" s="250"/>
+      <c r="AB9" s="250"/>
+      <c r="AC9" s="251"/>
+      <c r="AD9" s="259"/>
+      <c r="AE9" s="238"/>
+      <c r="AF9" s="238"/>
+      <c r="AG9" s="238"/>
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="239"/>
+      <c r="AJ9" s="38"/>
+      <c r="AL9" s="232" t="s">
         <v>180</v>
-      </c>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="249"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="249"/>
-      <c r="M9" s="249"/>
-      <c r="N9" s="250"/>
-      <c r="O9" s="235" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="237"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="233">
-        <v>10</v>
-      </c>
-      <c r="U9" s="234"/>
-      <c r="V9" s="251"/>
-      <c r="W9" s="252"/>
-      <c r="X9" s="255"/>
-      <c r="Y9" s="254"/>
-      <c r="Z9" s="254"/>
-      <c r="AA9" s="254"/>
-      <c r="AB9" s="254"/>
-      <c r="AC9" s="256"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="249"/>
-      <c r="AF9" s="249"/>
-      <c r="AG9" s="249"/>
-      <c r="AH9" s="249"/>
-      <c r="AI9" s="250"/>
-      <c r="AJ9" s="38"/>
-      <c r="AL9" s="285" t="s">
-        <v>181</v>
       </c>
       <c r="AM9" s="136"/>
       <c r="AN9" s="136"/>
@@ -14988,75 +15711,75 @@
       <c r="AU9" s="136"/>
       <c r="AV9" s="136"/>
       <c r="AW9" s="137"/>
-      <c r="AX9" s="231" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY9" s="232"/>
-      <c r="AZ9" s="232"/>
-      <c r="BA9" s="232"/>
-      <c r="BB9" s="232"/>
-      <c r="BC9" s="285"/>
+      <c r="AX9" s="230" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY9" s="231"/>
+      <c r="AZ9" s="231"/>
+      <c r="BA9" s="231"/>
+      <c r="BB9" s="231"/>
+      <c r="BC9" s="232"/>
       <c r="BD9" s="147"/>
       <c r="BE9" s="147"/>
       <c r="BF9" s="147"/>
       <c r="BG9" s="148"/>
-      <c r="BH9" s="230"/>
-      <c r="BI9" s="230"/>
-      <c r="BJ9" s="230"/>
-      <c r="BK9" s="230"/>
-      <c r="BL9" s="230"/>
-      <c r="BM9" s="230"/>
-      <c r="BN9" s="230"/>
-    </row>
-    <row r="10" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
+      <c r="BH9" s="233"/>
+      <c r="BI9" s="233"/>
+      <c r="BJ9" s="233"/>
+      <c r="BK9" s="233"/>
+      <c r="BL9" s="233"/>
+      <c r="BM9" s="233"/>
+      <c r="BN9" s="233"/>
+    </row>
+    <row r="10" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="238" t="s">
+      <c r="B10" s="255" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="248" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="249"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="249"/>
-      <c r="M10" s="249"/>
-      <c r="N10" s="250"/>
-      <c r="O10" s="235" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="245"/>
-      <c r="T10" s="233">
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="240" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="242"/>
+      <c r="R10" s="243"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245">
         <v>128</v>
       </c>
-      <c r="U10" s="234"/>
-      <c r="V10" s="251"/>
-      <c r="W10" s="252"/>
-      <c r="X10" s="255"/>
-      <c r="Y10" s="254"/>
-      <c r="Z10" s="254"/>
-      <c r="AA10" s="254"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="256"/>
-      <c r="AD10" s="257"/>
-      <c r="AE10" s="249"/>
-      <c r="AF10" s="249"/>
-      <c r="AG10" s="249"/>
-      <c r="AH10" s="249"/>
-      <c r="AI10" s="250"/>
+      <c r="U10" s="246"/>
+      <c r="V10" s="247"/>
+      <c r="W10" s="248"/>
+      <c r="X10" s="249"/>
+      <c r="Y10" s="250"/>
+      <c r="Z10" s="250"/>
+      <c r="AA10" s="250"/>
+      <c r="AB10" s="250"/>
+      <c r="AC10" s="251"/>
+      <c r="AD10" s="259"/>
+      <c r="AE10" s="238"/>
+      <c r="AF10" s="238"/>
+      <c r="AG10" s="238"/>
+      <c r="AH10" s="238"/>
+      <c r="AI10" s="239"/>
       <c r="AJ10" s="39"/>
-      <c r="AL10" s="285" t="s">
-        <v>183</v>
+      <c r="AL10" s="232" t="s">
+        <v>182</v>
       </c>
       <c r="AM10" s="136"/>
       <c r="AN10" s="136"/>
@@ -15069,80 +15792,80 @@
       <c r="AU10" s="136"/>
       <c r="AV10" s="136"/>
       <c r="AW10" s="137"/>
-      <c r="AX10" s="231" t="s">
-        <v>185</v>
-      </c>
-      <c r="AY10" s="232"/>
-      <c r="AZ10" s="232"/>
-      <c r="BA10" s="232"/>
-      <c r="BB10" s="232"/>
-      <c r="BC10" s="285" t="s">
-        <v>52</v>
+      <c r="AX10" s="230" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY10" s="231"/>
+      <c r="AZ10" s="231"/>
+      <c r="BA10" s="231"/>
+      <c r="BB10" s="231"/>
+      <c r="BC10" s="232" t="s">
+        <v>51</v>
       </c>
       <c r="BD10" s="147"/>
       <c r="BE10" s="147"/>
       <c r="BF10" s="147"/>
       <c r="BG10" s="148"/>
-      <c r="BH10" s="230"/>
-      <c r="BI10" s="230"/>
-      <c r="BJ10" s="230"/>
-      <c r="BK10" s="230"/>
-      <c r="BL10" s="230"/>
-      <c r="BM10" s="230"/>
-      <c r="BN10" s="230"/>
-    </row>
-    <row r="11" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
+      <c r="BH10" s="233"/>
+      <c r="BI10" s="233"/>
+      <c r="BJ10" s="233"/>
+      <c r="BK10" s="233"/>
+      <c r="BL10" s="233"/>
+      <c r="BM10" s="233"/>
+      <c r="BN10" s="233"/>
+    </row>
+    <row r="11" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="255" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="257"/>
+      <c r="G11" s="237" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="248" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="249"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="249"/>
-      <c r="M11" s="249"/>
-      <c r="N11" s="250"/>
-      <c r="O11" s="235" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="236"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="244"/>
-      <c r="S11" s="245"/>
-      <c r="T11" s="233">
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="239"/>
+      <c r="O11" s="240" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="241"/>
+      <c r="Q11" s="242"/>
+      <c r="R11" s="243"/>
+      <c r="S11" s="244"/>
+      <c r="T11" s="245">
         <v>2</v>
       </c>
-      <c r="U11" s="234"/>
-      <c r="V11" s="251"/>
-      <c r="W11" s="252"/>
-      <c r="X11" s="253" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="256"/>
-      <c r="AD11" s="257"/>
-      <c r="AE11" s="249"/>
-      <c r="AF11" s="249"/>
-      <c r="AG11" s="249"/>
-      <c r="AH11" s="249"/>
-      <c r="AI11" s="250"/>
+      <c r="U11" s="246"/>
+      <c r="V11" s="247"/>
+      <c r="W11" s="248"/>
+      <c r="X11" s="258" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y11" s="250"/>
+      <c r="Z11" s="250"/>
+      <c r="AA11" s="250"/>
+      <c r="AB11" s="250"/>
+      <c r="AC11" s="251"/>
+      <c r="AD11" s="259"/>
+      <c r="AE11" s="238"/>
+      <c r="AF11" s="238"/>
+      <c r="AG11" s="238"/>
+      <c r="AH11" s="238"/>
+      <c r="AI11" s="239"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="32"/>
-      <c r="AL11" s="285" t="s">
-        <v>163</v>
+      <c r="AL11" s="232" t="s">
+        <v>162</v>
       </c>
       <c r="AM11" s="147"/>
       <c r="AN11" s="147"/>
@@ -15155,66 +15878,75 @@
       <c r="AU11" s="147"/>
       <c r="AV11" s="147"/>
       <c r="AW11" s="148"/>
-      <c r="AX11" s="231" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY11" s="232"/>
-      <c r="AZ11" s="232"/>
-      <c r="BA11" s="232"/>
-      <c r="BB11" s="232"/>
+      <c r="AX11" s="230" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY11" s="231"/>
+      <c r="AZ11" s="231"/>
+      <c r="BA11" s="231"/>
+      <c r="BB11" s="231"/>
       <c r="BC11" s="146"/>
       <c r="BD11" s="147"/>
       <c r="BE11" s="147"/>
       <c r="BF11" s="147"/>
       <c r="BG11" s="148"/>
-      <c r="BH11" s="230"/>
-      <c r="BI11" s="230"/>
-      <c r="BJ11" s="230"/>
-      <c r="BK11" s="230"/>
-      <c r="BL11" s="230"/>
-      <c r="BM11" s="230"/>
-      <c r="BN11" s="230"/>
-    </row>
-    <row r="12" spans="1:66" s="91" customFormat="1">
+      <c r="BH11" s="233"/>
+      <c r="BI11" s="233"/>
+      <c r="BJ11" s="233"/>
+      <c r="BK11" s="233"/>
+      <c r="BL11" s="233"/>
+      <c r="BM11" s="233"/>
+      <c r="BN11" s="233"/>
+    </row>
+    <row r="12" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="238"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="248"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="249"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="249"/>
-      <c r="M12" s="249"/>
-      <c r="N12" s="250"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="236"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="233"/>
-      <c r="U12" s="234"/>
-      <c r="V12" s="251"/>
-      <c r="W12" s="252"/>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="254"/>
-      <c r="Z12" s="254"/>
-      <c r="AA12" s="254"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="256"/>
-      <c r="AD12" s="257"/>
-      <c r="AE12" s="249"/>
-      <c r="AF12" s="249"/>
-      <c r="AG12" s="249"/>
-      <c r="AH12" s="249"/>
-      <c r="AI12" s="250"/>
+      <c r="B12" s="234" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="241"/>
+      <c r="Q12" s="242"/>
+      <c r="R12" s="243"/>
+      <c r="S12" s="244"/>
+      <c r="T12" s="245">
+        <v>8</v>
+      </c>
+      <c r="U12" s="246"/>
+      <c r="V12" s="247"/>
+      <c r="W12" s="248"/>
+      <c r="X12" s="249"/>
+      <c r="Y12" s="250"/>
+      <c r="Z12" s="250"/>
+      <c r="AA12" s="250"/>
+      <c r="AB12" s="250"/>
+      <c r="AC12" s="251"/>
+      <c r="AD12" s="237"/>
+      <c r="AE12" s="238"/>
+      <c r="AF12" s="238"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="238"/>
+      <c r="AI12" s="239"/>
       <c r="AJ12" s="38"/>
-      <c r="AL12" s="285"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="232" t="s">
+        <v>187</v>
+      </c>
       <c r="AM12" s="136"/>
       <c r="AN12" s="136"/>
       <c r="AO12" s="136"/>
@@ -15226,64 +15958,77 @@
       <c r="AU12" s="136"/>
       <c r="AV12" s="136"/>
       <c r="AW12" s="137"/>
-      <c r="AX12" s="231"/>
-      <c r="AY12" s="232"/>
-      <c r="AZ12" s="232"/>
-      <c r="BA12" s="232"/>
-      <c r="BB12" s="232"/>
-      <c r="BC12" s="146"/>
+      <c r="AX12" s="230" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY12" s="231"/>
+      <c r="AZ12" s="231"/>
+      <c r="BA12" s="231"/>
+      <c r="BB12" s="231"/>
+      <c r="BC12" s="232" t="s">
+        <v>189</v>
+      </c>
       <c r="BD12" s="147"/>
       <c r="BE12" s="147"/>
       <c r="BF12" s="147"/>
       <c r="BG12" s="148"/>
-      <c r="BH12" s="230"/>
-      <c r="BI12" s="230"/>
-      <c r="BJ12" s="230"/>
-      <c r="BK12" s="230"/>
-      <c r="BL12" s="230"/>
-      <c r="BM12" s="230"/>
-      <c r="BN12" s="230"/>
-    </row>
-    <row r="13" spans="1:66" s="91" customFormat="1">
+      <c r="BH12" s="233"/>
+      <c r="BI12" s="233"/>
+      <c r="BJ12" s="233"/>
+      <c r="BK12" s="233"/>
+      <c r="BL12" s="233"/>
+      <c r="BM12" s="233"/>
+      <c r="BN12" s="233"/>
+    </row>
+    <row r="13" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="90">
         <v>5</v>
       </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="249"/>
-      <c r="N13" s="250"/>
-      <c r="O13" s="235"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="233"/>
-      <c r="U13" s="234"/>
-      <c r="V13" s="251"/>
-      <c r="W13" s="252"/>
-      <c r="X13" s="255"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="254"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="256"/>
-      <c r="AD13" s="248"/>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="249"/>
-      <c r="AG13" s="249"/>
-      <c r="AH13" s="249"/>
-      <c r="AI13" s="250"/>
+      <c r="B13" s="234" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="242"/>
+      <c r="R13" s="243"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245">
+        <v>2</v>
+      </c>
+      <c r="U13" s="246"/>
+      <c r="V13" s="247"/>
+      <c r="W13" s="248"/>
+      <c r="X13" s="249"/>
+      <c r="Y13" s="250"/>
+      <c r="Z13" s="250"/>
+      <c r="AA13" s="250"/>
+      <c r="AB13" s="250"/>
+      <c r="AC13" s="251"/>
+      <c r="AD13" s="237"/>
+      <c r="AE13" s="238"/>
+      <c r="AF13" s="238"/>
+      <c r="AG13" s="238"/>
+      <c r="AH13" s="238"/>
+      <c r="AI13" s="239"/>
       <c r="AJ13" s="38"/>
-      <c r="AL13" s="285"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="232" t="s">
+        <v>187</v>
+      </c>
       <c r="AM13" s="136"/>
       <c r="AN13" s="136"/>
       <c r="AO13" s="136"/>
@@ -15295,38 +16040,527 @@
       <c r="AU13" s="136"/>
       <c r="AV13" s="136"/>
       <c r="AW13" s="137"/>
-      <c r="AX13" s="231"/>
-      <c r="AY13" s="232"/>
-      <c r="AZ13" s="232"/>
-      <c r="BA13" s="232"/>
-      <c r="BB13" s="232"/>
-      <c r="BC13" s="146"/>
+      <c r="AX13" s="230" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY13" s="231"/>
+      <c r="AZ13" s="231"/>
+      <c r="BA13" s="231"/>
+      <c r="BB13" s="231"/>
+      <c r="BC13" s="232" t="s">
+        <v>189</v>
+      </c>
       <c r="BD13" s="147"/>
       <c r="BE13" s="147"/>
       <c r="BF13" s="147"/>
       <c r="BG13" s="148"/>
-      <c r="BH13" s="230"/>
-      <c r="BI13" s="230"/>
-      <c r="BJ13" s="230"/>
-      <c r="BK13" s="230"/>
-      <c r="BL13" s="230"/>
-      <c r="BM13" s="230"/>
-      <c r="BN13" s="230"/>
-    </row>
-    <row r="14" spans="1:66" ht="11.25" customHeight="1"/>
-    <row r="15" spans="1:66" ht="11.25" customHeight="1"/>
+      <c r="BH13" s="233"/>
+      <c r="BI13" s="233"/>
+      <c r="BJ13" s="233"/>
+      <c r="BK13" s="233"/>
+      <c r="BL13" s="233"/>
+      <c r="BM13" s="233"/>
+      <c r="BN13" s="233"/>
+    </row>
+    <row r="14" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="90">
+        <v>6</v>
+      </c>
+      <c r="B14" s="234" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="235"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="239"/>
+      <c r="O14" s="240" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="241"/>
+      <c r="Q14" s="242"/>
+      <c r="R14" s="243"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245">
+        <v>50</v>
+      </c>
+      <c r="U14" s="246"/>
+      <c r="V14" s="247"/>
+      <c r="W14" s="248"/>
+      <c r="X14" s="249"/>
+      <c r="Y14" s="250"/>
+      <c r="Z14" s="250"/>
+      <c r="AA14" s="250"/>
+      <c r="AB14" s="250"/>
+      <c r="AC14" s="251"/>
+      <c r="AD14" s="237"/>
+      <c r="AE14" s="238"/>
+      <c r="AF14" s="238"/>
+      <c r="AG14" s="238"/>
+      <c r="AH14" s="238"/>
+      <c r="AI14" s="239"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="252" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM14" s="253"/>
+      <c r="AN14" s="253"/>
+      <c r="AO14" s="253"/>
+      <c r="AP14" s="253"/>
+      <c r="AQ14" s="253"/>
+      <c r="AR14" s="253"/>
+      <c r="AS14" s="253"/>
+      <c r="AT14" s="253"/>
+      <c r="AU14" s="253"/>
+      <c r="AV14" s="253"/>
+      <c r="AW14" s="254"/>
+      <c r="AX14" s="230" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY14" s="231"/>
+      <c r="AZ14" s="231"/>
+      <c r="BA14" s="231"/>
+      <c r="BB14" s="231"/>
+      <c r="BC14" s="232" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD14" s="147"/>
+      <c r="BE14" s="147"/>
+      <c r="BF14" s="147"/>
+      <c r="BG14" s="148"/>
+      <c r="BH14" s="233"/>
+      <c r="BI14" s="233"/>
+      <c r="BJ14" s="233"/>
+      <c r="BK14" s="233"/>
+      <c r="BL14" s="233"/>
+      <c r="BM14" s="233"/>
+      <c r="BN14" s="233"/>
+    </row>
+    <row r="15" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="90">
+        <v>7</v>
+      </c>
+      <c r="B15" s="234" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="236"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="239"/>
+      <c r="O15" s="240" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="242"/>
+      <c r="R15" s="243"/>
+      <c r="S15" s="244"/>
+      <c r="T15" s="245">
+        <v>40</v>
+      </c>
+      <c r="U15" s="246"/>
+      <c r="V15" s="247"/>
+      <c r="W15" s="248"/>
+      <c r="X15" s="249"/>
+      <c r="Y15" s="250"/>
+      <c r="Z15" s="250"/>
+      <c r="AA15" s="250"/>
+      <c r="AB15" s="250"/>
+      <c r="AC15" s="251"/>
+      <c r="AD15" s="237"/>
+      <c r="AE15" s="238"/>
+      <c r="AF15" s="238"/>
+      <c r="AG15" s="238"/>
+      <c r="AH15" s="238"/>
+      <c r="AI15" s="239"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="252" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM15" s="253"/>
+      <c r="AN15" s="253"/>
+      <c r="AO15" s="253"/>
+      <c r="AP15" s="253"/>
+      <c r="AQ15" s="253"/>
+      <c r="AR15" s="253"/>
+      <c r="AS15" s="253"/>
+      <c r="AT15" s="253"/>
+      <c r="AU15" s="253"/>
+      <c r="AV15" s="253"/>
+      <c r="AW15" s="254"/>
+      <c r="AX15" s="230" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY15" s="231"/>
+      <c r="AZ15" s="231"/>
+      <c r="BA15" s="231"/>
+      <c r="BB15" s="231"/>
+      <c r="BC15" s="232" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD15" s="147"/>
+      <c r="BE15" s="147"/>
+      <c r="BF15" s="147"/>
+      <c r="BG15" s="148"/>
+      <c r="BH15" s="233"/>
+      <c r="BI15" s="233"/>
+      <c r="BJ15" s="233"/>
+      <c r="BK15" s="233"/>
+      <c r="BL15" s="233"/>
+      <c r="BM15" s="233"/>
+      <c r="BN15" s="233"/>
+    </row>
+    <row r="16" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="90">
+        <v>8</v>
+      </c>
+      <c r="B16" s="234" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="235"/>
+      <c r="D16" s="235"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="236"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="239"/>
+      <c r="O16" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="241"/>
+      <c r="Q16" s="242"/>
+      <c r="R16" s="243">
+        <v>1</v>
+      </c>
+      <c r="S16" s="244"/>
+      <c r="T16" s="245">
+        <v>1</v>
+      </c>
+      <c r="U16" s="246"/>
+      <c r="V16" s="247"/>
+      <c r="W16" s="248"/>
+      <c r="X16" s="249"/>
+      <c r="Y16" s="250"/>
+      <c r="Z16" s="250"/>
+      <c r="AA16" s="250"/>
+      <c r="AB16" s="250"/>
+      <c r="AC16" s="251"/>
+      <c r="AD16" s="237"/>
+      <c r="AE16" s="238"/>
+      <c r="AF16" s="238"/>
+      <c r="AG16" s="238"/>
+      <c r="AH16" s="238"/>
+      <c r="AI16" s="239"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="232" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM16" s="136"/>
+      <c r="AN16" s="136"/>
+      <c r="AO16" s="136"/>
+      <c r="AP16" s="136"/>
+      <c r="AQ16" s="136"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="136"/>
+      <c r="AT16" s="136"/>
+      <c r="AU16" s="136"/>
+      <c r="AV16" s="136"/>
+      <c r="AW16" s="137"/>
+      <c r="AX16" s="230" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY16" s="231"/>
+      <c r="AZ16" s="231"/>
+      <c r="BA16" s="231"/>
+      <c r="BB16" s="231"/>
+      <c r="BC16" s="232" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD16" s="147"/>
+      <c r="BE16" s="147"/>
+      <c r="BF16" s="147"/>
+      <c r="BG16" s="148"/>
+      <c r="BH16" s="233"/>
+      <c r="BI16" s="233"/>
+      <c r="BJ16" s="233"/>
+      <c r="BK16" s="233"/>
+      <c r="BL16" s="233"/>
+      <c r="BM16" s="233"/>
+      <c r="BN16" s="233"/>
+    </row>
+    <row r="17" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="90">
+        <v>9</v>
+      </c>
+      <c r="B17" s="234" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="239"/>
+      <c r="O17" s="240" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="242"/>
+      <c r="R17" s="243">
+        <v>1</v>
+      </c>
+      <c r="S17" s="244"/>
+      <c r="T17" s="245">
+        <v>1</v>
+      </c>
+      <c r="U17" s="246"/>
+      <c r="V17" s="247"/>
+      <c r="W17" s="248"/>
+      <c r="X17" s="249"/>
+      <c r="Y17" s="250"/>
+      <c r="Z17" s="250"/>
+      <c r="AA17" s="250"/>
+      <c r="AB17" s="250"/>
+      <c r="AC17" s="251"/>
+      <c r="AD17" s="237"/>
+      <c r="AE17" s="238"/>
+      <c r="AF17" s="238"/>
+      <c r="AG17" s="238"/>
+      <c r="AH17" s="238"/>
+      <c r="AI17" s="239"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="232" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM17" s="136"/>
+      <c r="AN17" s="136"/>
+      <c r="AO17" s="136"/>
+      <c r="AP17" s="136"/>
+      <c r="AQ17" s="136"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="136"/>
+      <c r="AT17" s="136"/>
+      <c r="AU17" s="136"/>
+      <c r="AV17" s="136"/>
+      <c r="AW17" s="137"/>
+      <c r="AX17" s="230" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY17" s="231"/>
+      <c r="AZ17" s="231"/>
+      <c r="BA17" s="231"/>
+      <c r="BB17" s="231"/>
+      <c r="BC17" s="232" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD17" s="147"/>
+      <c r="BE17" s="147"/>
+      <c r="BF17" s="147"/>
+      <c r="BG17" s="148"/>
+      <c r="BH17" s="233"/>
+      <c r="BI17" s="233"/>
+      <c r="BJ17" s="233"/>
+      <c r="BK17" s="233"/>
+      <c r="BL17" s="233"/>
+      <c r="BM17" s="233"/>
+      <c r="BN17" s="233"/>
+    </row>
+    <row r="18" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="90">
+        <v>10</v>
+      </c>
+      <c r="B18" s="234" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="238"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="239"/>
+      <c r="O18" s="240" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="242"/>
+      <c r="R18" s="243"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="245">
+        <v>2</v>
+      </c>
+      <c r="U18" s="246"/>
+      <c r="V18" s="247"/>
+      <c r="W18" s="248"/>
+      <c r="X18" s="249"/>
+      <c r="Y18" s="250"/>
+      <c r="Z18" s="250"/>
+      <c r="AA18" s="250"/>
+      <c r="AB18" s="250"/>
+      <c r="AC18" s="251"/>
+      <c r="AD18" s="237"/>
+      <c r="AE18" s="238"/>
+      <c r="AF18" s="238"/>
+      <c r="AG18" s="238"/>
+      <c r="AH18" s="238"/>
+      <c r="AI18" s="239"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="232" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM18" s="136"/>
+      <c r="AN18" s="136"/>
+      <c r="AO18" s="136"/>
+      <c r="AP18" s="136"/>
+      <c r="AQ18" s="136"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="136"/>
+      <c r="AT18" s="136"/>
+      <c r="AU18" s="136"/>
+      <c r="AV18" s="136"/>
+      <c r="AW18" s="137"/>
+      <c r="AX18" s="230" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY18" s="231"/>
+      <c r="AZ18" s="231"/>
+      <c r="BA18" s="231"/>
+      <c r="BB18" s="231"/>
+      <c r="BC18" s="232" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD18" s="147"/>
+      <c r="BE18" s="147"/>
+      <c r="BF18" s="147"/>
+      <c r="BG18" s="148"/>
+      <c r="BH18" s="233"/>
+      <c r="BI18" s="233"/>
+      <c r="BJ18" s="233"/>
+      <c r="BK18" s="233"/>
+      <c r="BL18" s="233"/>
+      <c r="BM18" s="233"/>
+      <c r="BN18" s="233"/>
+    </row>
+    <row r="19" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="90">
+        <v>11</v>
+      </c>
+      <c r="B19" s="234" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="240" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="241"/>
+      <c r="Q19" s="242"/>
+      <c r="R19" s="243"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="245">
+        <v>50</v>
+      </c>
+      <c r="U19" s="246"/>
+      <c r="V19" s="247"/>
+      <c r="W19" s="248"/>
+      <c r="X19" s="249"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="251"/>
+      <c r="AD19" s="237"/>
+      <c r="AE19" s="238"/>
+      <c r="AF19" s="238"/>
+      <c r="AG19" s="238"/>
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="239"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="252" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM19" s="253"/>
+      <c r="AN19" s="253"/>
+      <c r="AO19" s="253"/>
+      <c r="AP19" s="253"/>
+      <c r="AQ19" s="253"/>
+      <c r="AR19" s="253"/>
+      <c r="AS19" s="253"/>
+      <c r="AT19" s="253"/>
+      <c r="AU19" s="253"/>
+      <c r="AV19" s="253"/>
+      <c r="AW19" s="254"/>
+      <c r="AX19" s="230" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY19" s="231"/>
+      <c r="AZ19" s="231"/>
+      <c r="BA19" s="231"/>
+      <c r="BB19" s="231"/>
+      <c r="BC19" s="232" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD19" s="147"/>
+      <c r="BE19" s="147"/>
+      <c r="BF19" s="147"/>
+      <c r="BG19" s="148"/>
+      <c r="BH19" s="233"/>
+      <c r="BI19" s="233"/>
+      <c r="BJ19" s="233"/>
+      <c r="BK19" s="233"/>
+      <c r="BL19" s="233"/>
+      <c r="BM19" s="233"/>
+      <c r="BN19" s="233"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="98">
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
+  <mergeCells count="176">
     <mergeCell ref="AX7:BB8"/>
     <mergeCell ref="BH7:BN8"/>
     <mergeCell ref="AA12:AC12"/>
@@ -15343,12 +16577,14 @@
     <mergeCell ref="AL13:AW13"/>
     <mergeCell ref="BH9:BN9"/>
     <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="E1:N1"/>
@@ -15365,11 +16601,13 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="V9:W9"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="X7:AC7"/>
@@ -15379,6 +16617,9 @@
     <mergeCell ref="AD7:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="V10:W10"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="AD13:AI13"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="AA1:AB1"/>
@@ -15395,6 +16636,27 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AL14:AW14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
@@ -15403,23 +16665,82 @@
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="G11:N11"/>
     <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="BC14:BG14"/>
+    <mergeCell ref="BH14:BN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD15:AI15"/>
+    <mergeCell ref="AL15:AW15"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="BC15:BG15"/>
+    <mergeCell ref="BH15:BN15"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AD14:AI14"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="BC16:BG16"/>
+    <mergeCell ref="BH16:BN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AI17"/>
+    <mergeCell ref="AL17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="BC17:BG17"/>
+    <mergeCell ref="BH17:BN17"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AI16"/>
+    <mergeCell ref="AL16:AW16"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="BC18:BG18"/>
+    <mergeCell ref="BH18:BN18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AD19:AI19"/>
+    <mergeCell ref="AL19:AW19"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="BC19:BG19"/>
+    <mergeCell ref="BH19:BN19"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AD18:AI18"/>
+    <mergeCell ref="AL18:AW18"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="O18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:Q13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:Q19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>データ型</formula1>
     </dataValidation>
   </dataValidations>
@@ -15434,7 +16755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BR28"/>
   <sheetViews>
@@ -15442,7 +16763,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="29" width="4.83203125" style="33" customWidth="1"/>
     <col min="30" max="30" width="5" style="33" customWidth="1"/>
@@ -15450,9 +16771,9 @@
     <col min="71" max="16384" width="9.33203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="20" customFormat="1">
+    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="200" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="211"/>
       <c r="C1" s="211"/>
@@ -15471,7 +16792,7 @@
       <c r="M1" s="191"/>
       <c r="N1" s="192"/>
       <c r="O1" s="181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="182"/>
       <c r="Q1" s="182"/>
@@ -15505,7 +16826,7 @@
       <c r="AH1" s="198"/>
       <c r="AI1" s="199"/>
     </row>
-    <row r="2" spans="1:70" s="20" customFormat="1">
+    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
@@ -15543,19 +16864,19 @@
       <c r="AB2" s="139"/>
       <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TSS</v>
       </c>
       <c r="AD2" s="141"/>
       <c r="AE2" s="141"/>
       <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AG2" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>44825</v>
       </c>
       <c r="AH2" s="198"/>
       <c r="AI2" s="199"/>
     </row>
-    <row r="3" spans="1:70" s="20" customFormat="1">
+    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
@@ -15603,60 +16924,60 @@
       <c r="AH3" s="198"/>
       <c r="AI3" s="199"/>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8" s="224" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="289" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="289" t="s">
+      <c r="C8" s="291"/>
+      <c r="D8" s="291"/>
+      <c r="E8" s="291"/>
+      <c r="F8" s="291"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="275" t="s">
+      <c r="K8" s="291"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="291"/>
+      <c r="O8" s="291"/>
+      <c r="P8" s="291"/>
+      <c r="Q8" s="291"/>
+      <c r="R8" s="291"/>
+      <c r="S8" s="291"/>
+      <c r="T8" s="291"/>
+      <c r="U8" s="291"/>
+      <c r="V8" s="291"/>
+      <c r="W8" s="291"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="275"/>
-      <c r="AG8" s="275"/>
-      <c r="AH8" s="275"/>
-      <c r="AI8" s="275"/>
+      <c r="Z8" s="277"/>
+      <c r="AA8" s="277"/>
+      <c r="AB8" s="277"/>
+      <c r="AC8" s="277"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="277"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -15664,46 +16985,46 @@
       <c r="BQ8" s="23"/>
       <c r="BR8" s="23"/>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A9" s="224"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="293"/>
-      <c r="R9" s="293"/>
-      <c r="S9" s="293"/>
-      <c r="T9" s="293"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="275" t="s">
+      <c r="B9" s="293"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="294"/>
+      <c r="R9" s="294"/>
+      <c r="S9" s="294"/>
+      <c r="T9" s="294"/>
+      <c r="U9" s="294"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="294"/>
+      <c r="X9" s="295"/>
+      <c r="Y9" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="275"/>
-      <c r="AA9" s="275"/>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275" t="s">
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="275"/>
-      <c r="AF9" s="275"/>
-      <c r="AG9" s="275"/>
-      <c r="AH9" s="275"/>
-      <c r="AI9" s="275"/>
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="277"/>
+      <c r="AI9" s="277"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -15740,48 +17061,48 @@
       <c r="BQ9" s="23"/>
       <c r="BR9" s="23"/>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10" s="87">
         <v>1</v>
       </c>
-      <c r="B10" s="287" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="288" t="s">
+      <c r="B10" s="288" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="288"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="288"/>
-      <c r="Q10" s="288"/>
-      <c r="R10" s="288"/>
-      <c r="S10" s="288"/>
-      <c r="T10" s="288"/>
-      <c r="U10" s="288"/>
-      <c r="V10" s="288"/>
-      <c r="W10" s="288"/>
-      <c r="X10" s="288"/>
-      <c r="Y10" s="286"/>
-      <c r="Z10" s="286"/>
-      <c r="AA10" s="286"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="286"/>
-      <c r="AD10" s="286"/>
-      <c r="AE10" s="286"/>
-      <c r="AF10" s="286"/>
-      <c r="AG10" s="286"/>
-      <c r="AH10" s="286"/>
-      <c r="AI10" s="286"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="288"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="289" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="289"/>
+      <c r="L10" s="289"/>
+      <c r="M10" s="289"/>
+      <c r="N10" s="289"/>
+      <c r="O10" s="289"/>
+      <c r="P10" s="289"/>
+      <c r="Q10" s="289"/>
+      <c r="R10" s="289"/>
+      <c r="S10" s="289"/>
+      <c r="T10" s="289"/>
+      <c r="U10" s="289"/>
+      <c r="V10" s="289"/>
+      <c r="W10" s="289"/>
+      <c r="X10" s="289"/>
+      <c r="Y10" s="287"/>
+      <c r="Z10" s="287"/>
+      <c r="AA10" s="287"/>
+      <c r="AB10" s="287"/>
+      <c r="AC10" s="287"/>
+      <c r="AD10" s="287"/>
+      <c r="AE10" s="287"/>
+      <c r="AF10" s="287"/>
+      <c r="AG10" s="287"/>
+      <c r="AH10" s="287"/>
+      <c r="AI10" s="287"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23"/>
       <c r="AL10" s="23"/>
@@ -15818,48 +17139,48 @@
       <c r="BQ10" s="23"/>
       <c r="BR10" s="23"/>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="295" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="288" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="288"/>
-      <c r="L11" s="288"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="288"/>
-      <c r="O11" s="288"/>
-      <c r="P11" s="288"/>
-      <c r="Q11" s="288"/>
-      <c r="R11" s="288"/>
-      <c r="S11" s="288"/>
-      <c r="T11" s="288"/>
-      <c r="U11" s="288"/>
-      <c r="V11" s="288"/>
-      <c r="W11" s="288"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="286"/>
-      <c r="Z11" s="286"/>
-      <c r="AA11" s="286"/>
-      <c r="AB11" s="286"/>
-      <c r="AC11" s="286"/>
-      <c r="AD11" s="286"/>
-      <c r="AE11" s="286"/>
-      <c r="AF11" s="286"/>
-      <c r="AG11" s="286"/>
-      <c r="AH11" s="286"/>
-      <c r="AI11" s="286"/>
+      <c r="B11" s="296" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="289" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="289"/>
+      <c r="L11" s="289"/>
+      <c r="M11" s="289"/>
+      <c r="N11" s="289"/>
+      <c r="O11" s="289"/>
+      <c r="P11" s="289"/>
+      <c r="Q11" s="289"/>
+      <c r="R11" s="289"/>
+      <c r="S11" s="289"/>
+      <c r="T11" s="289"/>
+      <c r="U11" s="289"/>
+      <c r="V11" s="289"/>
+      <c r="W11" s="289"/>
+      <c r="X11" s="289"/>
+      <c r="Y11" s="287"/>
+      <c r="Z11" s="287"/>
+      <c r="AA11" s="287"/>
+      <c r="AB11" s="287"/>
+      <c r="AC11" s="287"/>
+      <c r="AD11" s="287"/>
+      <c r="AE11" s="287"/>
+      <c r="AF11" s="287"/>
+      <c r="AG11" s="287"/>
+      <c r="AH11" s="287"/>
+      <c r="AI11" s="287"/>
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23"/>
       <c r="AL11" s="23"/>
@@ -15896,48 +17217,48 @@
       <c r="BQ11" s="23"/>
       <c r="BR11" s="23"/>
     </row>
-    <row r="12" spans="1:70" ht="25.5" customHeight="1">
+    <row r="12" spans="1:70" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="87">
         <v>3</v>
       </c>
-      <c r="B12" s="296" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="288" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="288"/>
-      <c r="O12" s="288"/>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="288"/>
-      <c r="R12" s="288"/>
-      <c r="S12" s="288"/>
-      <c r="T12" s="288"/>
-      <c r="U12" s="288"/>
-      <c r="V12" s="288"/>
-      <c r="W12" s="288"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="286"/>
-      <c r="Z12" s="286"/>
-      <c r="AA12" s="286"/>
-      <c r="AB12" s="286"/>
-      <c r="AC12" s="286"/>
-      <c r="AD12" s="286"/>
-      <c r="AE12" s="286"/>
-      <c r="AF12" s="286"/>
-      <c r="AG12" s="286"/>
-      <c r="AH12" s="286"/>
-      <c r="AI12" s="286"/>
+      <c r="B12" s="297" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="289" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="289"/>
+      <c r="L12" s="289"/>
+      <c r="M12" s="289"/>
+      <c r="N12" s="289"/>
+      <c r="O12" s="289"/>
+      <c r="P12" s="289"/>
+      <c r="Q12" s="289"/>
+      <c r="R12" s="289"/>
+      <c r="S12" s="289"/>
+      <c r="T12" s="289"/>
+      <c r="U12" s="289"/>
+      <c r="V12" s="289"/>
+      <c r="W12" s="289"/>
+      <c r="X12" s="289"/>
+      <c r="Y12" s="287"/>
+      <c r="Z12" s="287"/>
+      <c r="AA12" s="287"/>
+      <c r="AB12" s="287"/>
+      <c r="AC12" s="287"/>
+      <c r="AD12" s="287"/>
+      <c r="AE12" s="287"/>
+      <c r="AF12" s="287"/>
+      <c r="AG12" s="287"/>
+      <c r="AH12" s="287"/>
+      <c r="AI12" s="287"/>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
@@ -15974,48 +17295,48 @@
       <c r="BQ12" s="23"/>
       <c r="BR12" s="23"/>
     </row>
-    <row r="13" spans="1:70" ht="21.75" customHeight="1">
+    <row r="13" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87">
         <v>4</v>
       </c>
-      <c r="B13" s="297" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="288" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="288"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="288"/>
-      <c r="R13" s="288"/>
-      <c r="S13" s="288"/>
-      <c r="T13" s="288"/>
-      <c r="U13" s="288"/>
-      <c r="V13" s="288"/>
-      <c r="W13" s="288"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="286"/>
-      <c r="Z13" s="286"/>
-      <c r="AA13" s="286"/>
-      <c r="AB13" s="286"/>
-      <c r="AC13" s="286"/>
-      <c r="AD13" s="286"/>
-      <c r="AE13" s="286"/>
-      <c r="AF13" s="286"/>
-      <c r="AG13" s="286"/>
-      <c r="AH13" s="286"/>
-      <c r="AI13" s="286"/>
+      <c r="B13" s="298" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="299"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="299"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="299"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="289" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="289"/>
+      <c r="L13" s="289"/>
+      <c r="M13" s="289"/>
+      <c r="N13" s="289"/>
+      <c r="O13" s="289"/>
+      <c r="P13" s="289"/>
+      <c r="Q13" s="289"/>
+      <c r="R13" s="289"/>
+      <c r="S13" s="289"/>
+      <c r="T13" s="289"/>
+      <c r="U13" s="289"/>
+      <c r="V13" s="289"/>
+      <c r="W13" s="289"/>
+      <c r="X13" s="289"/>
+      <c r="Y13" s="287"/>
+      <c r="Z13" s="287"/>
+      <c r="AA13" s="287"/>
+      <c r="AB13" s="287"/>
+      <c r="AC13" s="287"/>
+      <c r="AD13" s="287"/>
+      <c r="AE13" s="287"/>
+      <c r="AF13" s="287"/>
+      <c r="AG13" s="287"/>
+      <c r="AH13" s="287"/>
+      <c r="AI13" s="287"/>
       <c r="AJ13" s="23"/>
       <c r="AK13" s="23"/>
       <c r="AL13" s="23"/>
@@ -16052,48 +17373,48 @@
       <c r="BQ13" s="23"/>
       <c r="BR13" s="23"/>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A14" s="87">
         <v>5</v>
       </c>
-      <c r="B14" s="296" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="302" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="288"/>
-      <c r="N14" s="288"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="288"/>
-      <c r="Q14" s="288"/>
-      <c r="R14" s="288"/>
-      <c r="S14" s="288"/>
-      <c r="T14" s="288"/>
-      <c r="U14" s="288"/>
-      <c r="V14" s="288"/>
-      <c r="W14" s="288"/>
-      <c r="X14" s="288"/>
-      <c r="Y14" s="286"/>
-      <c r="Z14" s="286"/>
-      <c r="AA14" s="286"/>
-      <c r="AB14" s="286"/>
-      <c r="AC14" s="286"/>
-      <c r="AD14" s="286"/>
-      <c r="AE14" s="286"/>
-      <c r="AF14" s="286"/>
-      <c r="AG14" s="286"/>
-      <c r="AH14" s="286"/>
-      <c r="AI14" s="286"/>
+      <c r="B14" s="297" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="288"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="303" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
+      <c r="M14" s="289"/>
+      <c r="N14" s="289"/>
+      <c r="O14" s="289"/>
+      <c r="P14" s="289"/>
+      <c r="Q14" s="289"/>
+      <c r="R14" s="289"/>
+      <c r="S14" s="289"/>
+      <c r="T14" s="289"/>
+      <c r="U14" s="289"/>
+      <c r="V14" s="289"/>
+      <c r="W14" s="289"/>
+      <c r="X14" s="289"/>
+      <c r="Y14" s="287"/>
+      <c r="Z14" s="287"/>
+      <c r="AA14" s="287"/>
+      <c r="AB14" s="287"/>
+      <c r="AC14" s="287"/>
+      <c r="AD14" s="287"/>
+      <c r="AE14" s="287"/>
+      <c r="AF14" s="287"/>
+      <c r="AG14" s="287"/>
+      <c r="AH14" s="287"/>
+      <c r="AI14" s="287"/>
       <c r="AJ14" s="23"/>
       <c r="AK14" s="23"/>
       <c r="AL14" s="23"/>
@@ -16130,48 +17451,48 @@
       <c r="BQ14" s="23"/>
       <c r="BR14" s="23"/>
     </row>
-    <row r="15" spans="1:70" ht="21.75" customHeight="1">
+    <row r="15" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="87">
         <v>6</v>
       </c>
-      <c r="B15" s="296" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="302" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" s="288"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="288"/>
-      <c r="N15" s="288"/>
-      <c r="O15" s="288"/>
-      <c r="P15" s="288"/>
-      <c r="Q15" s="288"/>
-      <c r="R15" s="288"/>
-      <c r="S15" s="288"/>
-      <c r="T15" s="288"/>
-      <c r="U15" s="288"/>
-      <c r="V15" s="288"/>
-      <c r="W15" s="288"/>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="286"/>
-      <c r="Z15" s="286"/>
-      <c r="AA15" s="286"/>
-      <c r="AB15" s="286"/>
-      <c r="AC15" s="286"/>
-      <c r="AD15" s="286"/>
-      <c r="AE15" s="286"/>
-      <c r="AF15" s="286"/>
-      <c r="AG15" s="286"/>
-      <c r="AH15" s="286"/>
-      <c r="AI15" s="286"/>
+      <c r="B15" s="297" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="288"/>
+      <c r="D15" s="288"/>
+      <c r="E15" s="288"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="288"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="288"/>
+      <c r="J15" s="303" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="289"/>
+      <c r="L15" s="289"/>
+      <c r="M15" s="289"/>
+      <c r="N15" s="289"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="289"/>
+      <c r="U15" s="289"/>
+      <c r="V15" s="289"/>
+      <c r="W15" s="289"/>
+      <c r="X15" s="289"/>
+      <c r="Y15" s="287"/>
+      <c r="Z15" s="287"/>
+      <c r="AA15" s="287"/>
+      <c r="AB15" s="287"/>
+      <c r="AC15" s="287"/>
+      <c r="AD15" s="287"/>
+      <c r="AE15" s="287"/>
+      <c r="AF15" s="287"/>
+      <c r="AG15" s="287"/>
+      <c r="AH15" s="287"/>
+      <c r="AI15" s="287"/>
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
       <c r="AL15" s="23"/>
@@ -16208,48 +17529,48 @@
       <c r="BQ15" s="23"/>
       <c r="BR15" s="23"/>
     </row>
-    <row r="16" spans="1:70" ht="39.75" customHeight="1">
+    <row r="16" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87">
         <v>7</v>
       </c>
-      <c r="B16" s="295" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="300" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" s="301"/>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301"/>
-      <c r="N16" s="301"/>
-      <c r="O16" s="301"/>
-      <c r="P16" s="301"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="301"/>
-      <c r="S16" s="301"/>
-      <c r="T16" s="301"/>
-      <c r="U16" s="301"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="301"/>
-      <c r="X16" s="301"/>
-      <c r="Y16" s="286"/>
-      <c r="Z16" s="286"/>
-      <c r="AA16" s="286"/>
-      <c r="AB16" s="286"/>
-      <c r="AC16" s="286"/>
-      <c r="AD16" s="286"/>
-      <c r="AE16" s="286"/>
-      <c r="AF16" s="286"/>
-      <c r="AG16" s="286"/>
-      <c r="AH16" s="286"/>
-      <c r="AI16" s="286"/>
+      <c r="B16" s="296" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="288"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="288"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="301" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="302"/>
+      <c r="L16" s="302"/>
+      <c r="M16" s="302"/>
+      <c r="N16" s="302"/>
+      <c r="O16" s="302"/>
+      <c r="P16" s="302"/>
+      <c r="Q16" s="302"/>
+      <c r="R16" s="302"/>
+      <c r="S16" s="302"/>
+      <c r="T16" s="302"/>
+      <c r="U16" s="302"/>
+      <c r="V16" s="302"/>
+      <c r="W16" s="302"/>
+      <c r="X16" s="302"/>
+      <c r="Y16" s="287"/>
+      <c r="Z16" s="287"/>
+      <c r="AA16" s="287"/>
+      <c r="AB16" s="287"/>
+      <c r="AC16" s="287"/>
+      <c r="AD16" s="287"/>
+      <c r="AE16" s="287"/>
+      <c r="AF16" s="287"/>
+      <c r="AG16" s="287"/>
+      <c r="AH16" s="287"/>
+      <c r="AI16" s="287"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
       <c r="AL16" s="23"/>
@@ -16286,48 +17607,48 @@
       <c r="BQ16" s="23"/>
       <c r="BR16" s="23"/>
     </row>
-    <row r="17" spans="1:70" ht="24" customHeight="1">
+    <row r="17" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="87">
         <v>8</v>
       </c>
-      <c r="B17" s="295" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="301" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="286"/>
-      <c r="Z17" s="286"/>
-      <c r="AA17" s="286"/>
-      <c r="AB17" s="286"/>
-      <c r="AC17" s="286"/>
-      <c r="AD17" s="286"/>
-      <c r="AE17" s="286"/>
-      <c r="AF17" s="286"/>
-      <c r="AG17" s="286"/>
-      <c r="AH17" s="286"/>
-      <c r="AI17" s="286"/>
+      <c r="B17" s="296" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="288"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="288"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="288"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="302" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="302"/>
+      <c r="L17" s="302"/>
+      <c r="M17" s="302"/>
+      <c r="N17" s="302"/>
+      <c r="O17" s="302"/>
+      <c r="P17" s="302"/>
+      <c r="Q17" s="302"/>
+      <c r="R17" s="302"/>
+      <c r="S17" s="302"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="302"/>
+      <c r="Y17" s="287"/>
+      <c r="Z17" s="287"/>
+      <c r="AA17" s="287"/>
+      <c r="AB17" s="287"/>
+      <c r="AC17" s="287"/>
+      <c r="AD17" s="287"/>
+      <c r="AE17" s="287"/>
+      <c r="AF17" s="287"/>
+      <c r="AG17" s="287"/>
+      <c r="AH17" s="287"/>
+      <c r="AI17" s="287"/>
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
       <c r="AL17" s="23"/>
@@ -16364,48 +17685,48 @@
       <c r="BQ17" s="23"/>
       <c r="BR17" s="23"/>
     </row>
-    <row r="18" spans="1:70" ht="24" customHeight="1">
+    <row r="18" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="87">
         <v>9</v>
       </c>
-      <c r="B18" s="295" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="300" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="301"/>
-      <c r="L18" s="301"/>
-      <c r="M18" s="301"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="301"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="301"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="301"/>
-      <c r="U18" s="301"/>
-      <c r="V18" s="301"/>
-      <c r="W18" s="301"/>
-      <c r="X18" s="301"/>
-      <c r="Y18" s="286"/>
-      <c r="Z18" s="286"/>
-      <c r="AA18" s="286"/>
-      <c r="AB18" s="286"/>
-      <c r="AC18" s="286"/>
-      <c r="AD18" s="286"/>
-      <c r="AE18" s="286"/>
-      <c r="AF18" s="286"/>
-      <c r="AG18" s="286"/>
-      <c r="AH18" s="286"/>
-      <c r="AI18" s="286"/>
+      <c r="B18" s="296" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="301" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="302"/>
+      <c r="L18" s="302"/>
+      <c r="M18" s="302"/>
+      <c r="N18" s="302"/>
+      <c r="O18" s="302"/>
+      <c r="P18" s="302"/>
+      <c r="Q18" s="302"/>
+      <c r="R18" s="302"/>
+      <c r="S18" s="302"/>
+      <c r="T18" s="302"/>
+      <c r="U18" s="302"/>
+      <c r="V18" s="302"/>
+      <c r="W18" s="302"/>
+      <c r="X18" s="302"/>
+      <c r="Y18" s="287"/>
+      <c r="Z18" s="287"/>
+      <c r="AA18" s="287"/>
+      <c r="AB18" s="287"/>
+      <c r="AC18" s="287"/>
+      <c r="AD18" s="287"/>
+      <c r="AE18" s="287"/>
+      <c r="AF18" s="287"/>
+      <c r="AG18" s="287"/>
+      <c r="AH18" s="287"/>
+      <c r="AI18" s="287"/>
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
       <c r="AL18" s="23"/>
@@ -16442,7 +17763,7 @@
       <c r="BQ18" s="23"/>
       <c r="BR18" s="23"/>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -16514,7 +17835,7 @@
       <c r="BQ19" s="23"/>
       <c r="BR19" s="23"/>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -16586,7 +17907,7 @@
       <c r="BQ20" s="23"/>
       <c r="BR20" s="23"/>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -16658,7 +17979,7 @@
       <c r="BQ21" s="23"/>
       <c r="BR21" s="23"/>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -16730,7 +18051,7 @@
       <c r="BQ22" s="23"/>
       <c r="BR22" s="23"/>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -16802,7 +18123,7 @@
       <c r="BQ23" s="23"/>
       <c r="BR23" s="23"/>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.15">
       <c r="AG24" s="23"/>
       <c r="AH24" s="23"/>
       <c r="AI24" s="23"/>
@@ -16842,7 +18163,7 @@
       <c r="BQ24" s="23"/>
       <c r="BR24" s="23"/>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.15">
       <c r="AG25" s="23"/>
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
@@ -16882,7 +18203,7 @@
       <c r="BQ25" s="23"/>
       <c r="BR25" s="23"/>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.15">
       <c r="AG26" s="23"/>
       <c r="AH26" s="23"/>
       <c r="AI26" s="23"/>
@@ -16922,7 +18243,7 @@
       <c r="BQ26" s="23"/>
       <c r="BR26" s="23"/>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.15">
       <c r="AG27" s="23"/>
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
@@ -16962,7 +18283,7 @@
       <c r="BQ27" s="23"/>
       <c r="BR27" s="23"/>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.15">
       <c r="AG28" s="23"/>
       <c r="AH28" s="23"/>
       <c r="AI28" s="23"/>
@@ -17067,7 +18388,7 @@
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -17075,7 +18396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BR25"/>
   <sheetViews>
@@ -17083,7 +18404,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="29" width="4.83203125" style="33" customWidth="1"/>
     <col min="30" max="30" width="5" style="33" customWidth="1"/>
@@ -17091,7 +18412,7 @@
     <col min="71" max="16384" width="9.33203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="20" customFormat="1">
+    <row r="1" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
@@ -17112,7 +18433,7 @@
       <c r="M1" s="191"/>
       <c r="N1" s="192"/>
       <c r="O1" s="181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="182"/>
       <c r="Q1" s="182"/>
@@ -17146,7 +18467,7 @@
       <c r="AH1" s="198"/>
       <c r="AI1" s="199"/>
     </row>
-    <row r="2" spans="1:70" s="20" customFormat="1">
+    <row r="2" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
@@ -17184,19 +18505,19 @@
       <c r="AB2" s="139"/>
       <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TSS</v>
       </c>
       <c r="AD2" s="141"/>
       <c r="AE2" s="141"/>
       <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AG2" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>44825</v>
       </c>
       <c r="AH2" s="198"/>
       <c r="AI2" s="199"/>
     </row>
-    <row r="3" spans="1:70" s="20" customFormat="1">
+    <row r="3" spans="1:70" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
@@ -17244,60 +18565,60 @@
       <c r="AH3" s="198"/>
       <c r="AI3" s="199"/>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8" s="224" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="289" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="289" t="s">
+      <c r="C8" s="291"/>
+      <c r="D8" s="291"/>
+      <c r="E8" s="291"/>
+      <c r="F8" s="291"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="291"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="275" t="s">
+      <c r="K8" s="291"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="291"/>
+      <c r="O8" s="291"/>
+      <c r="P8" s="291"/>
+      <c r="Q8" s="291"/>
+      <c r="R8" s="291"/>
+      <c r="S8" s="291"/>
+      <c r="T8" s="291"/>
+      <c r="U8" s="291"/>
+      <c r="V8" s="291"/>
+      <c r="W8" s="291"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="275"/>
-      <c r="AG8" s="275"/>
-      <c r="AH8" s="275"/>
-      <c r="AI8" s="275"/>
+      <c r="Z8" s="277"/>
+      <c r="AA8" s="277"/>
+      <c r="AB8" s="277"/>
+      <c r="AC8" s="277"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="277"/>
+      <c r="AH8" s="277"/>
+      <c r="AI8" s="277"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -17334,46 +18655,46 @@
       <c r="BQ8" s="23"/>
       <c r="BR8" s="23"/>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A9" s="224"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="293"/>
-      <c r="R9" s="293"/>
-      <c r="S9" s="293"/>
-      <c r="T9" s="293"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="275" t="s">
+      <c r="B9" s="293"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="294"/>
+      <c r="R9" s="294"/>
+      <c r="S9" s="294"/>
+      <c r="T9" s="294"/>
+      <c r="U9" s="294"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="294"/>
+      <c r="X9" s="295"/>
+      <c r="Y9" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="275"/>
-      <c r="AA9" s="275"/>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275" t="s">
+      <c r="Z9" s="277"/>
+      <c r="AA9" s="277"/>
+      <c r="AB9" s="277"/>
+      <c r="AC9" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="275"/>
-      <c r="AF9" s="275"/>
-      <c r="AG9" s="275"/>
-      <c r="AH9" s="275"/>
-      <c r="AI9" s="275"/>
+      <c r="AD9" s="277"/>
+      <c r="AE9" s="277"/>
+      <c r="AF9" s="277"/>
+      <c r="AG9" s="277"/>
+      <c r="AH9" s="277"/>
+      <c r="AI9" s="277"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -17410,42 +18731,42 @@
       <c r="BQ9" s="23"/>
       <c r="BR9" s="23"/>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="300"/>
-      <c r="K10" s="301"/>
-      <c r="L10" s="301"/>
-      <c r="M10" s="301"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
-      <c r="P10" s="301"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="301"/>
-      <c r="X10" s="301"/>
-      <c r="Y10" s="286"/>
-      <c r="Z10" s="286"/>
-      <c r="AA10" s="286"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="286"/>
-      <c r="AD10" s="286"/>
-      <c r="AE10" s="286"/>
-      <c r="AF10" s="286"/>
-      <c r="AG10" s="286"/>
-      <c r="AH10" s="286"/>
-      <c r="AI10" s="286"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="289"/>
+      <c r="J10" s="301"/>
+      <c r="K10" s="302"/>
+      <c r="L10" s="302"/>
+      <c r="M10" s="302"/>
+      <c r="N10" s="302"/>
+      <c r="O10" s="302"/>
+      <c r="P10" s="302"/>
+      <c r="Q10" s="302"/>
+      <c r="R10" s="302"/>
+      <c r="S10" s="302"/>
+      <c r="T10" s="302"/>
+      <c r="U10" s="302"/>
+      <c r="V10" s="302"/>
+      <c r="W10" s="302"/>
+      <c r="X10" s="302"/>
+      <c r="Y10" s="287"/>
+      <c r="Z10" s="287"/>
+      <c r="AA10" s="287"/>
+      <c r="AB10" s="287"/>
+      <c r="AC10" s="287"/>
+      <c r="AD10" s="287"/>
+      <c r="AE10" s="287"/>
+      <c r="AF10" s="287"/>
+      <c r="AG10" s="287"/>
+      <c r="AH10" s="287"/>
+      <c r="AI10" s="287"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23"/>
       <c r="AL10" s="23"/>
@@ -17482,42 +18803,42 @@
       <c r="BQ10" s="23"/>
       <c r="BR10" s="23"/>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A11" s="87"/>
-      <c r="B11" s="288"/>
-      <c r="C11" s="288"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="288"/>
-      <c r="L11" s="288"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="288"/>
-      <c r="O11" s="288"/>
-      <c r="P11" s="288"/>
-      <c r="Q11" s="288"/>
-      <c r="R11" s="288"/>
-      <c r="S11" s="288"/>
-      <c r="T11" s="288"/>
-      <c r="U11" s="288"/>
-      <c r="V11" s="288"/>
-      <c r="W11" s="288"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="286"/>
-      <c r="Z11" s="286"/>
-      <c r="AA11" s="286"/>
-      <c r="AB11" s="286"/>
-      <c r="AC11" s="286"/>
-      <c r="AD11" s="286"/>
-      <c r="AE11" s="286"/>
-      <c r="AF11" s="286"/>
-      <c r="AG11" s="286"/>
-      <c r="AH11" s="286"/>
-      <c r="AI11" s="286"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="289"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="289"/>
+      <c r="F11" s="289"/>
+      <c r="G11" s="289"/>
+      <c r="H11" s="289"/>
+      <c r="I11" s="289"/>
+      <c r="J11" s="289"/>
+      <c r="K11" s="289"/>
+      <c r="L11" s="289"/>
+      <c r="M11" s="289"/>
+      <c r="N11" s="289"/>
+      <c r="O11" s="289"/>
+      <c r="P11" s="289"/>
+      <c r="Q11" s="289"/>
+      <c r="R11" s="289"/>
+      <c r="S11" s="289"/>
+      <c r="T11" s="289"/>
+      <c r="U11" s="289"/>
+      <c r="V11" s="289"/>
+      <c r="W11" s="289"/>
+      <c r="X11" s="289"/>
+      <c r="Y11" s="287"/>
+      <c r="Z11" s="287"/>
+      <c r="AA11" s="287"/>
+      <c r="AB11" s="287"/>
+      <c r="AC11" s="287"/>
+      <c r="AD11" s="287"/>
+      <c r="AE11" s="287"/>
+      <c r="AF11" s="287"/>
+      <c r="AG11" s="287"/>
+      <c r="AH11" s="287"/>
+      <c r="AI11" s="287"/>
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23"/>
       <c r="AL11" s="23"/>
@@ -17554,42 +18875,42 @@
       <c r="BQ11" s="23"/>
       <c r="BR11" s="23"/>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A12" s="87"/>
-      <c r="B12" s="288"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="288"/>
-      <c r="O12" s="288"/>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="288"/>
-      <c r="R12" s="288"/>
-      <c r="S12" s="288"/>
-      <c r="T12" s="288"/>
-      <c r="U12" s="288"/>
-      <c r="V12" s="288"/>
-      <c r="W12" s="288"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="286"/>
-      <c r="Z12" s="286"/>
-      <c r="AA12" s="286"/>
-      <c r="AB12" s="286"/>
-      <c r="AC12" s="286"/>
-      <c r="AD12" s="286"/>
-      <c r="AE12" s="286"/>
-      <c r="AF12" s="286"/>
-      <c r="AG12" s="286"/>
-      <c r="AH12" s="286"/>
-      <c r="AI12" s="286"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="289"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="289"/>
+      <c r="G12" s="289"/>
+      <c r="H12" s="289"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="289"/>
+      <c r="K12" s="289"/>
+      <c r="L12" s="289"/>
+      <c r="M12" s="289"/>
+      <c r="N12" s="289"/>
+      <c r="O12" s="289"/>
+      <c r="P12" s="289"/>
+      <c r="Q12" s="289"/>
+      <c r="R12" s="289"/>
+      <c r="S12" s="289"/>
+      <c r="T12" s="289"/>
+      <c r="U12" s="289"/>
+      <c r="V12" s="289"/>
+      <c r="W12" s="289"/>
+      <c r="X12" s="289"/>
+      <c r="Y12" s="287"/>
+      <c r="Z12" s="287"/>
+      <c r="AA12" s="287"/>
+      <c r="AB12" s="287"/>
+      <c r="AC12" s="287"/>
+      <c r="AD12" s="287"/>
+      <c r="AE12" s="287"/>
+      <c r="AF12" s="287"/>
+      <c r="AG12" s="287"/>
+      <c r="AH12" s="287"/>
+      <c r="AI12" s="287"/>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
@@ -17626,42 +18947,42 @@
       <c r="BQ12" s="23"/>
       <c r="BR12" s="23"/>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
-      <c r="B13" s="288"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="288"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="288"/>
-      <c r="R13" s="288"/>
-      <c r="S13" s="288"/>
-      <c r="T13" s="288"/>
-      <c r="U13" s="288"/>
-      <c r="V13" s="288"/>
-      <c r="W13" s="288"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="286"/>
-      <c r="Z13" s="286"/>
-      <c r="AA13" s="286"/>
-      <c r="AB13" s="286"/>
-      <c r="AC13" s="286"/>
-      <c r="AD13" s="286"/>
-      <c r="AE13" s="286"/>
-      <c r="AF13" s="286"/>
-      <c r="AG13" s="286"/>
-      <c r="AH13" s="286"/>
-      <c r="AI13" s="286"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="289"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="289"/>
+      <c r="M13" s="289"/>
+      <c r="N13" s="289"/>
+      <c r="O13" s="289"/>
+      <c r="P13" s="289"/>
+      <c r="Q13" s="289"/>
+      <c r="R13" s="289"/>
+      <c r="S13" s="289"/>
+      <c r="T13" s="289"/>
+      <c r="U13" s="289"/>
+      <c r="V13" s="289"/>
+      <c r="W13" s="289"/>
+      <c r="X13" s="289"/>
+      <c r="Y13" s="287"/>
+      <c r="Z13" s="287"/>
+      <c r="AA13" s="287"/>
+      <c r="AB13" s="287"/>
+      <c r="AC13" s="287"/>
+      <c r="AD13" s="287"/>
+      <c r="AE13" s="287"/>
+      <c r="AF13" s="287"/>
+      <c r="AG13" s="287"/>
+      <c r="AH13" s="287"/>
+      <c r="AI13" s="287"/>
       <c r="AJ13" s="23"/>
       <c r="AK13" s="23"/>
       <c r="AL13" s="23"/>
@@ -17698,42 +19019,42 @@
       <c r="BQ13" s="23"/>
       <c r="BR13" s="23"/>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A14" s="87"/>
-      <c r="B14" s="303"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="288"/>
-      <c r="N14" s="288"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="288"/>
-      <c r="Q14" s="288"/>
-      <c r="R14" s="288"/>
-      <c r="S14" s="288"/>
-      <c r="T14" s="288"/>
-      <c r="U14" s="288"/>
-      <c r="V14" s="288"/>
-      <c r="W14" s="288"/>
-      <c r="X14" s="288"/>
-      <c r="Y14" s="286"/>
-      <c r="Z14" s="286"/>
-      <c r="AA14" s="286"/>
-      <c r="AB14" s="286"/>
-      <c r="AC14" s="286"/>
-      <c r="AD14" s="286"/>
-      <c r="AE14" s="286"/>
-      <c r="AF14" s="286"/>
-      <c r="AG14" s="286"/>
-      <c r="AH14" s="286"/>
-      <c r="AI14" s="286"/>
+      <c r="B14" s="304"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="289"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
+      <c r="M14" s="289"/>
+      <c r="N14" s="289"/>
+      <c r="O14" s="289"/>
+      <c r="P14" s="289"/>
+      <c r="Q14" s="289"/>
+      <c r="R14" s="289"/>
+      <c r="S14" s="289"/>
+      <c r="T14" s="289"/>
+      <c r="U14" s="289"/>
+      <c r="V14" s="289"/>
+      <c r="W14" s="289"/>
+      <c r="X14" s="289"/>
+      <c r="Y14" s="287"/>
+      <c r="Z14" s="287"/>
+      <c r="AA14" s="287"/>
+      <c r="AB14" s="287"/>
+      <c r="AC14" s="287"/>
+      <c r="AD14" s="287"/>
+      <c r="AE14" s="287"/>
+      <c r="AF14" s="287"/>
+      <c r="AG14" s="287"/>
+      <c r="AH14" s="287"/>
+      <c r="AI14" s="287"/>
       <c r="AJ14" s="23"/>
       <c r="AK14" s="23"/>
       <c r="AL14" s="23"/>
@@ -17770,42 +19091,42 @@
       <c r="BQ14" s="23"/>
       <c r="BR14" s="23"/>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="288"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="288"/>
-      <c r="N15" s="288"/>
-      <c r="O15" s="288"/>
-      <c r="P15" s="288"/>
-      <c r="Q15" s="288"/>
-      <c r="R15" s="288"/>
-      <c r="S15" s="288"/>
-      <c r="T15" s="288"/>
-      <c r="U15" s="288"/>
-      <c r="V15" s="288"/>
-      <c r="W15" s="288"/>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="286"/>
-      <c r="Z15" s="286"/>
-      <c r="AA15" s="286"/>
-      <c r="AB15" s="286"/>
-      <c r="AC15" s="286"/>
-      <c r="AD15" s="286"/>
-      <c r="AE15" s="286"/>
-      <c r="AF15" s="286"/>
-      <c r="AG15" s="286"/>
-      <c r="AH15" s="286"/>
-      <c r="AI15" s="286"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="299"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="289"/>
+      <c r="K15" s="289"/>
+      <c r="L15" s="289"/>
+      <c r="M15" s="289"/>
+      <c r="N15" s="289"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="289"/>
+      <c r="U15" s="289"/>
+      <c r="V15" s="289"/>
+      <c r="W15" s="289"/>
+      <c r="X15" s="289"/>
+      <c r="Y15" s="287"/>
+      <c r="Z15" s="287"/>
+      <c r="AA15" s="287"/>
+      <c r="AB15" s="287"/>
+      <c r="AC15" s="287"/>
+      <c r="AD15" s="287"/>
+      <c r="AE15" s="287"/>
+      <c r="AF15" s="287"/>
+      <c r="AG15" s="287"/>
+      <c r="AH15" s="287"/>
+      <c r="AI15" s="287"/>
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
       <c r="AL15" s="23"/>
@@ -17842,42 +19163,42 @@
       <c r="BQ15" s="23"/>
       <c r="BR15" s="23"/>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
-      <c r="B16" s="303"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="288"/>
-      <c r="L16" s="288"/>
-      <c r="M16" s="288"/>
-      <c r="N16" s="288"/>
-      <c r="O16" s="288"/>
-      <c r="P16" s="288"/>
-      <c r="Q16" s="288"/>
-      <c r="R16" s="288"/>
-      <c r="S16" s="288"/>
-      <c r="T16" s="288"/>
-      <c r="U16" s="288"/>
-      <c r="V16" s="288"/>
-      <c r="W16" s="288"/>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="286"/>
-      <c r="Z16" s="286"/>
-      <c r="AA16" s="286"/>
-      <c r="AB16" s="286"/>
-      <c r="AC16" s="286"/>
-      <c r="AD16" s="286"/>
-      <c r="AE16" s="286"/>
-      <c r="AF16" s="286"/>
-      <c r="AG16" s="286"/>
-      <c r="AH16" s="286"/>
-      <c r="AI16" s="286"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="288"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="289"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="289"/>
+      <c r="M16" s="289"/>
+      <c r="N16" s="289"/>
+      <c r="O16" s="289"/>
+      <c r="P16" s="289"/>
+      <c r="Q16" s="289"/>
+      <c r="R16" s="289"/>
+      <c r="S16" s="289"/>
+      <c r="T16" s="289"/>
+      <c r="U16" s="289"/>
+      <c r="V16" s="289"/>
+      <c r="W16" s="289"/>
+      <c r="X16" s="289"/>
+      <c r="Y16" s="287"/>
+      <c r="Z16" s="287"/>
+      <c r="AA16" s="287"/>
+      <c r="AB16" s="287"/>
+      <c r="AC16" s="287"/>
+      <c r="AD16" s="287"/>
+      <c r="AE16" s="287"/>
+      <c r="AF16" s="287"/>
+      <c r="AG16" s="287"/>
+      <c r="AH16" s="287"/>
+      <c r="AI16" s="287"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
       <c r="AL16" s="23"/>
@@ -17914,42 +19235,42 @@
       <c r="BQ16" s="23"/>
       <c r="BR16" s="23"/>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
-      <c r="B17" s="303"/>
-      <c r="C17" s="303"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="288"/>
-      <c r="L17" s="288"/>
-      <c r="M17" s="288"/>
-      <c r="N17" s="288"/>
-      <c r="O17" s="288"/>
-      <c r="P17" s="288"/>
-      <c r="Q17" s="288"/>
-      <c r="R17" s="288"/>
-      <c r="S17" s="288"/>
-      <c r="T17" s="288"/>
-      <c r="U17" s="288"/>
-      <c r="V17" s="288"/>
-      <c r="W17" s="288"/>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="286"/>
-      <c r="Z17" s="286"/>
-      <c r="AA17" s="286"/>
-      <c r="AB17" s="286"/>
-      <c r="AC17" s="286"/>
-      <c r="AD17" s="286"/>
-      <c r="AE17" s="286"/>
-      <c r="AF17" s="286"/>
-      <c r="AG17" s="286"/>
-      <c r="AH17" s="286"/>
-      <c r="AI17" s="286"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="304"/>
+      <c r="E17" s="304"/>
+      <c r="F17" s="304"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="304"/>
+      <c r="I17" s="304"/>
+      <c r="J17" s="289"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="289"/>
+      <c r="M17" s="289"/>
+      <c r="N17" s="289"/>
+      <c r="O17" s="289"/>
+      <c r="P17" s="289"/>
+      <c r="Q17" s="289"/>
+      <c r="R17" s="289"/>
+      <c r="S17" s="289"/>
+      <c r="T17" s="289"/>
+      <c r="U17" s="289"/>
+      <c r="V17" s="289"/>
+      <c r="W17" s="289"/>
+      <c r="X17" s="289"/>
+      <c r="Y17" s="287"/>
+      <c r="Z17" s="287"/>
+      <c r="AA17" s="287"/>
+      <c r="AB17" s="287"/>
+      <c r="AC17" s="287"/>
+      <c r="AD17" s="287"/>
+      <c r="AE17" s="287"/>
+      <c r="AF17" s="287"/>
+      <c r="AG17" s="287"/>
+      <c r="AH17" s="287"/>
+      <c r="AI17" s="287"/>
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
       <c r="AL17" s="23"/>
@@ -17986,42 +19307,42 @@
       <c r="BQ17" s="23"/>
       <c r="BR17" s="23"/>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
-      <c r="B18" s="288"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
-      <c r="N18" s="288"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="288"/>
-      <c r="R18" s="288"/>
-      <c r="S18" s="288"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="286"/>
-      <c r="Z18" s="286"/>
-      <c r="AA18" s="286"/>
-      <c r="AB18" s="286"/>
-      <c r="AC18" s="286"/>
-      <c r="AD18" s="286"/>
-      <c r="AE18" s="286"/>
-      <c r="AF18" s="286"/>
-      <c r="AG18" s="286"/>
-      <c r="AH18" s="286"/>
-      <c r="AI18" s="286"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289"/>
+      <c r="I18" s="289"/>
+      <c r="J18" s="289"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="289"/>
+      <c r="M18" s="289"/>
+      <c r="N18" s="289"/>
+      <c r="O18" s="289"/>
+      <c r="P18" s="289"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="289"/>
+      <c r="S18" s="289"/>
+      <c r="T18" s="289"/>
+      <c r="U18" s="289"/>
+      <c r="V18" s="289"/>
+      <c r="W18" s="289"/>
+      <c r="X18" s="289"/>
+      <c r="Y18" s="287"/>
+      <c r="Z18" s="287"/>
+      <c r="AA18" s="287"/>
+      <c r="AB18" s="287"/>
+      <c r="AC18" s="287"/>
+      <c r="AD18" s="287"/>
+      <c r="AE18" s="287"/>
+      <c r="AF18" s="287"/>
+      <c r="AG18" s="287"/>
+      <c r="AH18" s="287"/>
+      <c r="AI18" s="287"/>
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
       <c r="AL18" s="23"/>
@@ -18058,42 +19379,42 @@
       <c r="BQ18" s="23"/>
       <c r="BR18" s="23"/>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
-      <c r="B19" s="288"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="288"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="288"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
-      <c r="N19" s="288"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="288"/>
-      <c r="Q19" s="288"/>
-      <c r="R19" s="288"/>
-      <c r="S19" s="288"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="288"/>
-      <c r="V19" s="288"/>
-      <c r="W19" s="288"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="286"/>
-      <c r="Z19" s="286"/>
-      <c r="AA19" s="286"/>
-      <c r="AB19" s="286"/>
-      <c r="AC19" s="286"/>
-      <c r="AD19" s="286"/>
-      <c r="AE19" s="286"/>
-      <c r="AF19" s="286"/>
-      <c r="AG19" s="286"/>
-      <c r="AH19" s="286"/>
-      <c r="AI19" s="286"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="289"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="289"/>
+      <c r="I19" s="289"/>
+      <c r="J19" s="289"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="289"/>
+      <c r="M19" s="289"/>
+      <c r="N19" s="289"/>
+      <c r="O19" s="289"/>
+      <c r="P19" s="289"/>
+      <c r="Q19" s="289"/>
+      <c r="R19" s="289"/>
+      <c r="S19" s="289"/>
+      <c r="T19" s="289"/>
+      <c r="U19" s="289"/>
+      <c r="V19" s="289"/>
+      <c r="W19" s="289"/>
+      <c r="X19" s="289"/>
+      <c r="Y19" s="287"/>
+      <c r="Z19" s="287"/>
+      <c r="AA19" s="287"/>
+      <c r="AB19" s="287"/>
+      <c r="AC19" s="287"/>
+      <c r="AD19" s="287"/>
+      <c r="AE19" s="287"/>
+      <c r="AF19" s="287"/>
+      <c r="AG19" s="287"/>
+      <c r="AH19" s="287"/>
+      <c r="AI19" s="287"/>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
       <c r="AL19" s="23"/>
@@ -18130,227 +19451,227 @@
       <c r="BQ19" s="23"/>
       <c r="BR19" s="23"/>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
-      <c r="B20" s="301"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="288"/>
-      <c r="H20" s="288"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="288"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="288"/>
-      <c r="N20" s="288"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="288"/>
-      <c r="Q20" s="288"/>
-      <c r="R20" s="288"/>
-      <c r="S20" s="288"/>
-      <c r="T20" s="288"/>
-      <c r="U20" s="288"/>
-      <c r="V20" s="288"/>
-      <c r="W20" s="288"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="286"/>
-      <c r="Z20" s="286"/>
-      <c r="AA20" s="286"/>
-      <c r="AB20" s="286"/>
-      <c r="AC20" s="286"/>
-      <c r="AD20" s="286"/>
-      <c r="AE20" s="286"/>
-      <c r="AF20" s="286"/>
-      <c r="AG20" s="286"/>
-      <c r="AH20" s="286"/>
-      <c r="AI20" s="286"/>
-    </row>
-    <row r="21" spans="1:70">
+      <c r="B20" s="302"/>
+      <c r="C20" s="289"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="289"/>
+      <c r="G20" s="289"/>
+      <c r="H20" s="289"/>
+      <c r="I20" s="289"/>
+      <c r="J20" s="289"/>
+      <c r="K20" s="289"/>
+      <c r="L20" s="289"/>
+      <c r="M20" s="289"/>
+      <c r="N20" s="289"/>
+      <c r="O20" s="289"/>
+      <c r="P20" s="289"/>
+      <c r="Q20" s="289"/>
+      <c r="R20" s="289"/>
+      <c r="S20" s="289"/>
+      <c r="T20" s="289"/>
+      <c r="U20" s="289"/>
+      <c r="V20" s="289"/>
+      <c r="W20" s="289"/>
+      <c r="X20" s="289"/>
+      <c r="Y20" s="287"/>
+      <c r="Z20" s="287"/>
+      <c r="AA20" s="287"/>
+      <c r="AB20" s="287"/>
+      <c r="AC20" s="287"/>
+      <c r="AD20" s="287"/>
+      <c r="AE20" s="287"/>
+      <c r="AF20" s="287"/>
+      <c r="AG20" s="287"/>
+      <c r="AH20" s="287"/>
+      <c r="AI20" s="287"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
-      <c r="B21" s="301"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="288"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="288"/>
-      <c r="N21" s="288"/>
-      <c r="O21" s="288"/>
-      <c r="P21" s="288"/>
-      <c r="Q21" s="288"/>
-      <c r="R21" s="288"/>
-      <c r="S21" s="288"/>
-      <c r="T21" s="288"/>
-      <c r="U21" s="288"/>
-      <c r="V21" s="288"/>
-      <c r="W21" s="288"/>
-      <c r="X21" s="288"/>
-      <c r="Y21" s="286"/>
-      <c r="Z21" s="286"/>
-      <c r="AA21" s="286"/>
-      <c r="AB21" s="286"/>
-      <c r="AC21" s="286"/>
-      <c r="AD21" s="286"/>
-      <c r="AE21" s="286"/>
-      <c r="AF21" s="286"/>
-      <c r="AG21" s="286"/>
-      <c r="AH21" s="286"/>
-      <c r="AI21" s="286"/>
-    </row>
-    <row r="22" spans="1:70">
+      <c r="B21" s="302"/>
+      <c r="C21" s="289"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="289"/>
+      <c r="F21" s="289"/>
+      <c r="G21" s="289"/>
+      <c r="H21" s="289"/>
+      <c r="I21" s="289"/>
+      <c r="J21" s="289"/>
+      <c r="K21" s="289"/>
+      <c r="L21" s="289"/>
+      <c r="M21" s="289"/>
+      <c r="N21" s="289"/>
+      <c r="O21" s="289"/>
+      <c r="P21" s="289"/>
+      <c r="Q21" s="289"/>
+      <c r="R21" s="289"/>
+      <c r="S21" s="289"/>
+      <c r="T21" s="289"/>
+      <c r="U21" s="289"/>
+      <c r="V21" s="289"/>
+      <c r="W21" s="289"/>
+      <c r="X21" s="289"/>
+      <c r="Y21" s="287"/>
+      <c r="Z21" s="287"/>
+      <c r="AA21" s="287"/>
+      <c r="AB21" s="287"/>
+      <c r="AC21" s="287"/>
+      <c r="AD21" s="287"/>
+      <c r="AE21" s="287"/>
+      <c r="AF21" s="287"/>
+      <c r="AG21" s="287"/>
+      <c r="AH21" s="287"/>
+      <c r="AI21" s="287"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A22" s="87"/>
-      <c r="B22" s="301"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="288"/>
-      <c r="H22" s="288"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="288"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="288"/>
-      <c r="N22" s="288"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="288"/>
-      <c r="Q22" s="288"/>
-      <c r="R22" s="288"/>
-      <c r="S22" s="288"/>
-      <c r="T22" s="288"/>
-      <c r="U22" s="288"/>
-      <c r="V22" s="288"/>
-      <c r="W22" s="288"/>
-      <c r="X22" s="288"/>
-      <c r="Y22" s="286"/>
-      <c r="Z22" s="286"/>
-      <c r="AA22" s="286"/>
-      <c r="AB22" s="286"/>
-      <c r="AC22" s="286"/>
-      <c r="AD22" s="286"/>
-      <c r="AE22" s="286"/>
-      <c r="AF22" s="286"/>
-      <c r="AG22" s="286"/>
-      <c r="AH22" s="286"/>
-      <c r="AI22" s="286"/>
-    </row>
-    <row r="23" spans="1:70">
+      <c r="B22" s="302"/>
+      <c r="C22" s="289"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="289"/>
+      <c r="H22" s="289"/>
+      <c r="I22" s="289"/>
+      <c r="J22" s="289"/>
+      <c r="K22" s="289"/>
+      <c r="L22" s="289"/>
+      <c r="M22" s="289"/>
+      <c r="N22" s="289"/>
+      <c r="O22" s="289"/>
+      <c r="P22" s="289"/>
+      <c r="Q22" s="289"/>
+      <c r="R22" s="289"/>
+      <c r="S22" s="289"/>
+      <c r="T22" s="289"/>
+      <c r="U22" s="289"/>
+      <c r="V22" s="289"/>
+      <c r="W22" s="289"/>
+      <c r="X22" s="289"/>
+      <c r="Y22" s="287"/>
+      <c r="Z22" s="287"/>
+      <c r="AA22" s="287"/>
+      <c r="AB22" s="287"/>
+      <c r="AC22" s="287"/>
+      <c r="AD22" s="287"/>
+      <c r="AE22" s="287"/>
+      <c r="AF22" s="287"/>
+      <c r="AG22" s="287"/>
+      <c r="AH22" s="287"/>
+      <c r="AI22" s="287"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A23" s="87"/>
-      <c r="B23" s="288"/>
-      <c r="C23" s="288"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="288"/>
-      <c r="G23" s="288"/>
-      <c r="H23" s="288"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="301"/>
-      <c r="K23" s="301"/>
-      <c r="L23" s="301"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
-      <c r="T23" s="301"/>
-      <c r="U23" s="301"/>
-      <c r="V23" s="301"/>
-      <c r="W23" s="301"/>
-      <c r="X23" s="301"/>
-      <c r="Y23" s="286"/>
-      <c r="Z23" s="286"/>
-      <c r="AA23" s="286"/>
-      <c r="AB23" s="286"/>
-      <c r="AC23" s="286"/>
-      <c r="AD23" s="286"/>
-      <c r="AE23" s="286"/>
-      <c r="AF23" s="286"/>
-      <c r="AG23" s="286"/>
-      <c r="AH23" s="286"/>
-      <c r="AI23" s="286"/>
-    </row>
-    <row r="24" spans="1:70">
+      <c r="B23" s="289"/>
+      <c r="C23" s="289"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="289"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="302"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="302"/>
+      <c r="M23" s="302"/>
+      <c r="N23" s="302"/>
+      <c r="O23" s="302"/>
+      <c r="P23" s="302"/>
+      <c r="Q23" s="302"/>
+      <c r="R23" s="302"/>
+      <c r="S23" s="302"/>
+      <c r="T23" s="302"/>
+      <c r="U23" s="302"/>
+      <c r="V23" s="302"/>
+      <c r="W23" s="302"/>
+      <c r="X23" s="302"/>
+      <c r="Y23" s="287"/>
+      <c r="Z23" s="287"/>
+      <c r="AA23" s="287"/>
+      <c r="AB23" s="287"/>
+      <c r="AC23" s="287"/>
+      <c r="AD23" s="287"/>
+      <c r="AE23" s="287"/>
+      <c r="AF23" s="287"/>
+      <c r="AG23" s="287"/>
+      <c r="AH23" s="287"/>
+      <c r="AI23" s="287"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A24" s="87"/>
-      <c r="B24" s="288"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="288"/>
-      <c r="H24" s="288"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="301"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="301"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="301"/>
-      <c r="V24" s="301"/>
-      <c r="W24" s="301"/>
-      <c r="X24" s="301"/>
-      <c r="Y24" s="286"/>
-      <c r="Z24" s="286"/>
-      <c r="AA24" s="286"/>
-      <c r="AB24" s="286"/>
-      <c r="AC24" s="286"/>
-      <c r="AD24" s="286"/>
-      <c r="AE24" s="286"/>
-      <c r="AF24" s="286"/>
-      <c r="AG24" s="286"/>
-      <c r="AH24" s="286"/>
-      <c r="AI24" s="286"/>
-    </row>
-    <row r="25" spans="1:70">
+      <c r="B24" s="289"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="289"/>
+      <c r="H24" s="289"/>
+      <c r="I24" s="289"/>
+      <c r="J24" s="302"/>
+      <c r="K24" s="302"/>
+      <c r="L24" s="302"/>
+      <c r="M24" s="302"/>
+      <c r="N24" s="302"/>
+      <c r="O24" s="302"/>
+      <c r="P24" s="302"/>
+      <c r="Q24" s="302"/>
+      <c r="R24" s="302"/>
+      <c r="S24" s="302"/>
+      <c r="T24" s="302"/>
+      <c r="U24" s="302"/>
+      <c r="V24" s="302"/>
+      <c r="W24" s="302"/>
+      <c r="X24" s="302"/>
+      <c r="Y24" s="287"/>
+      <c r="Z24" s="287"/>
+      <c r="AA24" s="287"/>
+      <c r="AB24" s="287"/>
+      <c r="AC24" s="287"/>
+      <c r="AD24" s="287"/>
+      <c r="AE24" s="287"/>
+      <c r="AF24" s="287"/>
+      <c r="AG24" s="287"/>
+      <c r="AH24" s="287"/>
+      <c r="AI24" s="287"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A25" s="87"/>
-      <c r="B25" s="288"/>
-      <c r="C25" s="288"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="288"/>
-      <c r="G25" s="288"/>
-      <c r="H25" s="288"/>
-      <c r="I25" s="288"/>
-      <c r="J25" s="301"/>
-      <c r="K25" s="301"/>
-      <c r="L25" s="301"/>
-      <c r="M25" s="301"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="301"/>
-      <c r="T25" s="301"/>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
-      <c r="Y25" s="286"/>
-      <c r="Z25" s="286"/>
-      <c r="AA25" s="286"/>
-      <c r="AB25" s="286"/>
-      <c r="AC25" s="286"/>
-      <c r="AD25" s="286"/>
-      <c r="AE25" s="286"/>
-      <c r="AF25" s="286"/>
-      <c r="AG25" s="286"/>
-      <c r="AH25" s="286"/>
-      <c r="AI25" s="286"/>
+      <c r="B25" s="289"/>
+      <c r="C25" s="289"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="289"/>
+      <c r="H25" s="289"/>
+      <c r="I25" s="289"/>
+      <c r="J25" s="302"/>
+      <c r="K25" s="302"/>
+      <c r="L25" s="302"/>
+      <c r="M25" s="302"/>
+      <c r="N25" s="302"/>
+      <c r="O25" s="302"/>
+      <c r="P25" s="302"/>
+      <c r="Q25" s="302"/>
+      <c r="R25" s="302"/>
+      <c r="S25" s="302"/>
+      <c r="T25" s="302"/>
+      <c r="U25" s="302"/>
+      <c r="V25" s="302"/>
+      <c r="W25" s="302"/>
+      <c r="X25" s="302"/>
+      <c r="Y25" s="287"/>
+      <c r="Z25" s="287"/>
+      <c r="AA25" s="287"/>
+      <c r="AB25" s="287"/>
+      <c r="AC25" s="287"/>
+      <c r="AD25" s="287"/>
+      <c r="AE25" s="287"/>
+      <c r="AF25" s="287"/>
+      <c r="AG25" s="287"/>
+      <c r="AH25" s="287"/>
+      <c r="AI25" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -18445,7 +19766,7 @@
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -18456,121 +19777,121 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="23" customWidth="1"/>
     <col min="2" max="16384" width="4.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="36" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="36" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="36" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="36" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="36" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="37" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="37" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="37" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="37" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="37" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="37" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED3B3D-400D-48B2-BD53-23940951884A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8A7CA-8424-4D2A-A4EE-9054C704053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="218">
   <si>
     <t>PJ名</t>
   </si>
@@ -2032,6 +2035,21 @@
   </si>
   <si>
     <t>industryCode</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>文字種バリデーション（全角文字）
+文字数バリデーション（桁数可変、最大値指定）</t>
+    <rPh sb="11" eb="15">
+      <t>ゼンカクモジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>全角文字</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンカクモジ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -3638,6 +3656,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3646,6 +3673,34 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3678,15 +3733,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3698,6 +3744,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -3729,18 +3787,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3762,32 +3808,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3805,14 +3831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -15474,31 +15492,31 @@
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="271" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="273" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="252" t="s">
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="269" t="s">
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="263"/>
+      <c r="K7" s="263"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="264"/>
+      <c r="O7" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="269"/>
-      <c r="Q7" s="269"/>
+      <c r="P7" s="240"/>
+      <c r="Q7" s="240"/>
       <c r="R7" s="226" t="s">
         <v>26</v>
       </c>
@@ -15507,184 +15525,184 @@
       <c r="U7" s="226"/>
       <c r="V7" s="226"/>
       <c r="W7" s="226"/>
-      <c r="X7" s="275" t="s">
+      <c r="X7" s="277" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="276"/>
-      <c r="Z7" s="276"/>
-      <c r="AA7" s="276"/>
-      <c r="AB7" s="276"/>
-      <c r="AC7" s="277"/>
-      <c r="AD7" s="269" t="s">
+      <c r="Y7" s="278"/>
+      <c r="Z7" s="278"/>
+      <c r="AA7" s="278"/>
+      <c r="AB7" s="278"/>
+      <c r="AC7" s="279"/>
+      <c r="AD7" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="269"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="240"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="240"/>
       <c r="AJ7" s="88"/>
-      <c r="AL7" s="233" t="s">
+      <c r="AL7" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="234"/>
-      <c r="AN7" s="234"/>
-      <c r="AO7" s="234"/>
-      <c r="AP7" s="234"/>
-      <c r="AQ7" s="234"/>
-      <c r="AR7" s="234"/>
-      <c r="AS7" s="234"/>
-      <c r="AT7" s="234"/>
-      <c r="AU7" s="234"/>
-      <c r="AV7" s="234"/>
-      <c r="AW7" s="234"/>
-      <c r="AX7" s="233" t="s">
+      <c r="AM7" s="237"/>
+      <c r="AN7" s="237"/>
+      <c r="AO7" s="237"/>
+      <c r="AP7" s="237"/>
+      <c r="AQ7" s="237"/>
+      <c r="AR7" s="237"/>
+      <c r="AS7" s="237"/>
+      <c r="AT7" s="237"/>
+      <c r="AU7" s="237"/>
+      <c r="AV7" s="237"/>
+      <c r="AW7" s="237"/>
+      <c r="AX7" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="AY7" s="234"/>
-      <c r="AZ7" s="234"/>
-      <c r="BA7" s="234"/>
-      <c r="BB7" s="234"/>
-      <c r="BC7" s="237" t="s">
+      <c r="AY7" s="237"/>
+      <c r="AZ7" s="237"/>
+      <c r="BA7" s="237"/>
+      <c r="BB7" s="237"/>
+      <c r="BC7" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="BD7" s="238"/>
-      <c r="BE7" s="238"/>
-      <c r="BF7" s="238"/>
-      <c r="BG7" s="239"/>
-      <c r="BH7" s="234" t="s">
+      <c r="BD7" s="248"/>
+      <c r="BE7" s="248"/>
+      <c r="BF7" s="248"/>
+      <c r="BG7" s="249"/>
+      <c r="BH7" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="BI7" s="234"/>
-      <c r="BJ7" s="234"/>
-      <c r="BK7" s="234"/>
-      <c r="BL7" s="234"/>
-      <c r="BM7" s="234"/>
-      <c r="BN7" s="234"/>
+      <c r="BI7" s="237"/>
+      <c r="BJ7" s="237"/>
+      <c r="BK7" s="237"/>
+      <c r="BL7" s="237"/>
+      <c r="BM7" s="237"/>
+      <c r="BN7" s="237"/>
     </row>
     <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="265"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="269"/>
-      <c r="R8" s="267" t="s">
+      <c r="A8" s="272"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="266"/>
+      <c r="J8" s="266"/>
+      <c r="K8" s="266"/>
+      <c r="L8" s="266"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="240"/>
+      <c r="P8" s="240"/>
+      <c r="Q8" s="240"/>
+      <c r="R8" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268" t="s">
+      <c r="S8" s="239"/>
+      <c r="T8" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="268"/>
-      <c r="V8" s="272" t="s">
+      <c r="U8" s="239"/>
+      <c r="V8" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="W8" s="273"/>
-      <c r="X8" s="274" t="s">
+      <c r="W8" s="244"/>
+      <c r="X8" s="276" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="278" t="s">
+      <c r="Y8" s="239"/>
+      <c r="Z8" s="239"/>
+      <c r="AA8" s="280" t="s">
         <v>161</v>
       </c>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
-      <c r="AI8" s="269"/>
+      <c r="AB8" s="239"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="240"/>
+      <c r="AE8" s="240"/>
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="240"/>
+      <c r="AH8" s="240"/>
+      <c r="AI8" s="240"/>
       <c r="AJ8" s="88"/>
-      <c r="AL8" s="234"/>
-      <c r="AM8" s="234"/>
-      <c r="AN8" s="234"/>
-      <c r="AO8" s="234"/>
-      <c r="AP8" s="234"/>
-      <c r="AQ8" s="234"/>
-      <c r="AR8" s="234"/>
-      <c r="AS8" s="234"/>
-      <c r="AT8" s="234"/>
-      <c r="AU8" s="234"/>
-      <c r="AV8" s="234"/>
-      <c r="AW8" s="234"/>
-      <c r="AX8" s="234"/>
-      <c r="AY8" s="234"/>
-      <c r="AZ8" s="234"/>
-      <c r="BA8" s="234"/>
-      <c r="BB8" s="234"/>
-      <c r="BC8" s="240"/>
-      <c r="BD8" s="241"/>
-      <c r="BE8" s="241"/>
-      <c r="BF8" s="241"/>
-      <c r="BG8" s="242"/>
-      <c r="BH8" s="234"/>
-      <c r="BI8" s="234"/>
-      <c r="BJ8" s="234"/>
-      <c r="BK8" s="234"/>
-      <c r="BL8" s="234"/>
-      <c r="BM8" s="234"/>
-      <c r="BN8" s="234"/>
+      <c r="AL8" s="237"/>
+      <c r="AM8" s="237"/>
+      <c r="AN8" s="237"/>
+      <c r="AO8" s="237"/>
+      <c r="AP8" s="237"/>
+      <c r="AQ8" s="237"/>
+      <c r="AR8" s="237"/>
+      <c r="AS8" s="237"/>
+      <c r="AT8" s="237"/>
+      <c r="AU8" s="237"/>
+      <c r="AV8" s="237"/>
+      <c r="AW8" s="237"/>
+      <c r="AX8" s="237"/>
+      <c r="AY8" s="237"/>
+      <c r="AZ8" s="237"/>
+      <c r="BA8" s="237"/>
+      <c r="BB8" s="237"/>
+      <c r="BC8" s="250"/>
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="251"/>
+      <c r="BF8" s="251"/>
+      <c r="BG8" s="252"/>
+      <c r="BH8" s="237"/>
+      <c r="BI8" s="237"/>
+      <c r="BJ8" s="237"/>
+      <c r="BK8" s="237"/>
+      <c r="BL8" s="237"/>
+      <c r="BM8" s="237"/>
+      <c r="BN8" s="237"/>
     </row>
     <row r="9" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="261" t="s">
+      <c r="B9" s="268" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="246" t="s">
+      <c r="C9" s="269"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="270"/>
+      <c r="G9" s="253" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="247"/>
-      <c r="K9" s="247"/>
-      <c r="L9" s="247"/>
-      <c r="M9" s="247"/>
-      <c r="N9" s="248"/>
-      <c r="O9" s="258" t="s">
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="254"/>
+      <c r="N9" s="255"/>
+      <c r="O9" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="250"/>
-      <c r="S9" s="251"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="259"/>
+      <c r="R9" s="260"/>
+      <c r="S9" s="261"/>
       <c r="T9" s="281">
         <v>10</v>
       </c>
       <c r="U9" s="282"/>
-      <c r="V9" s="270"/>
-      <c r="W9" s="271"/>
-      <c r="X9" s="280"/>
-      <c r="Y9" s="235"/>
-      <c r="Z9" s="235"/>
-      <c r="AA9" s="235"/>
-      <c r="AB9" s="235"/>
-      <c r="AC9" s="236"/>
-      <c r="AD9" s="249"/>
-      <c r="AE9" s="247"/>
-      <c r="AF9" s="247"/>
-      <c r="AG9" s="247"/>
-      <c r="AH9" s="247"/>
-      <c r="AI9" s="248"/>
+      <c r="V9" s="241"/>
+      <c r="W9" s="242"/>
+      <c r="X9" s="275"/>
+      <c r="Y9" s="245"/>
+      <c r="Z9" s="245"/>
+      <c r="AA9" s="245"/>
+      <c r="AB9" s="245"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="256"/>
+      <c r="AE9" s="254"/>
+      <c r="AF9" s="254"/>
+      <c r="AG9" s="254"/>
+      <c r="AH9" s="254"/>
+      <c r="AI9" s="255"/>
       <c r="AJ9" s="38"/>
       <c r="AL9" s="196" t="s">
         <v>180</v>
@@ -15700,75 +15718,75 @@
       <c r="AU9" s="181"/>
       <c r="AV9" s="181"/>
       <c r="AW9" s="182"/>
-      <c r="AX9" s="243" t="s">
+      <c r="AX9" s="233" t="s">
         <v>213</v>
       </c>
-      <c r="AY9" s="244"/>
-      <c r="AZ9" s="244"/>
-      <c r="BA9" s="244"/>
-      <c r="BB9" s="244"/>
+      <c r="AY9" s="234"/>
+      <c r="AZ9" s="234"/>
+      <c r="BA9" s="234"/>
+      <c r="BB9" s="234"/>
       <c r="BC9" s="196"/>
       <c r="BD9" s="185"/>
       <c r="BE9" s="185"/>
       <c r="BF9" s="185"/>
       <c r="BG9" s="186"/>
-      <c r="BH9" s="245"/>
-      <c r="BI9" s="245"/>
-      <c r="BJ9" s="245"/>
-      <c r="BK9" s="245"/>
-      <c r="BL9" s="245"/>
-      <c r="BM9" s="245"/>
-      <c r="BN9" s="245"/>
+      <c r="BH9" s="235"/>
+      <c r="BI9" s="235"/>
+      <c r="BJ9" s="235"/>
+      <c r="BK9" s="235"/>
+      <c r="BL9" s="235"/>
+      <c r="BM9" s="235"/>
+      <c r="BN9" s="235"/>
     </row>
     <row r="10" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="268" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="246" t="s">
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="253" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="247"/>
-      <c r="K10" s="247"/>
-      <c r="L10" s="247"/>
-      <c r="M10" s="247"/>
-      <c r="N10" s="248"/>
-      <c r="O10" s="258" t="s">
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="250"/>
-      <c r="S10" s="251"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="261"/>
       <c r="T10" s="281">
         <v>128</v>
       </c>
       <c r="U10" s="282"/>
-      <c r="V10" s="270"/>
-      <c r="W10" s="271"/>
-      <c r="X10" s="280"/>
-      <c r="Y10" s="235"/>
-      <c r="Z10" s="235"/>
-      <c r="AA10" s="235"/>
-      <c r="AB10" s="235"/>
-      <c r="AC10" s="236"/>
-      <c r="AD10" s="249"/>
-      <c r="AE10" s="247"/>
-      <c r="AF10" s="247"/>
-      <c r="AG10" s="247"/>
-      <c r="AH10" s="247"/>
-      <c r="AI10" s="248"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="242"/>
+      <c r="X10" s="275"/>
+      <c r="Y10" s="245"/>
+      <c r="Z10" s="245"/>
+      <c r="AA10" s="245"/>
+      <c r="AB10" s="245"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="256"/>
+      <c r="AE10" s="254"/>
+      <c r="AF10" s="254"/>
+      <c r="AG10" s="254"/>
+      <c r="AH10" s="254"/>
+      <c r="AI10" s="255"/>
       <c r="AJ10" s="39"/>
       <c r="AL10" s="196" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="AM10" s="181"/>
       <c r="AN10" s="181"/>
@@ -15781,76 +15799,76 @@
       <c r="AU10" s="181"/>
       <c r="AV10" s="181"/>
       <c r="AW10" s="182"/>
-      <c r="AX10" s="243" t="s">
+      <c r="AX10" s="233" t="s">
         <v>214</v>
       </c>
-      <c r="AY10" s="244"/>
-      <c r="AZ10" s="244"/>
-      <c r="BA10" s="244"/>
-      <c r="BB10" s="244"/>
+      <c r="AY10" s="234"/>
+      <c r="AZ10" s="234"/>
+      <c r="BA10" s="234"/>
+      <c r="BB10" s="234"/>
       <c r="BC10" s="196" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="BD10" s="185"/>
       <c r="BE10" s="185"/>
       <c r="BF10" s="185"/>
       <c r="BG10" s="186"/>
-      <c r="BH10" s="245"/>
-      <c r="BI10" s="245"/>
-      <c r="BJ10" s="245"/>
-      <c r="BK10" s="245"/>
-      <c r="BL10" s="245"/>
-      <c r="BM10" s="245"/>
-      <c r="BN10" s="245"/>
+      <c r="BH10" s="235"/>
+      <c r="BI10" s="235"/>
+      <c r="BJ10" s="235"/>
+      <c r="BK10" s="235"/>
+      <c r="BL10" s="235"/>
+      <c r="BM10" s="235"/>
+      <c r="BN10" s="235"/>
     </row>
     <row r="11" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="261" t="s">
+      <c r="B11" s="268" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="246" t="s">
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="253" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="247"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="247"/>
-      <c r="N11" s="248"/>
-      <c r="O11" s="258" t="s">
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="254"/>
+      <c r="N11" s="255"/>
+      <c r="O11" s="257" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="250"/>
-      <c r="S11" s="251"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="261"/>
       <c r="T11" s="281">
         <v>2</v>
       </c>
       <c r="U11" s="282"/>
-      <c r="V11" s="270"/>
-      <c r="W11" s="271"/>
-      <c r="X11" s="279" t="s">
+      <c r="V11" s="241"/>
+      <c r="W11" s="242"/>
+      <c r="X11" s="274" t="s">
         <v>183</v>
       </c>
-      <c r="Y11" s="235"/>
-      <c r="Z11" s="235"/>
-      <c r="AA11" s="235"/>
-      <c r="AB11" s="235"/>
-      <c r="AC11" s="236"/>
-      <c r="AD11" s="249"/>
-      <c r="AE11" s="247"/>
-      <c r="AF11" s="247"/>
-      <c r="AG11" s="247"/>
-      <c r="AH11" s="247"/>
-      <c r="AI11" s="248"/>
+      <c r="Y11" s="245"/>
+      <c r="Z11" s="245"/>
+      <c r="AA11" s="245"/>
+      <c r="AB11" s="245"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="256"/>
+      <c r="AE11" s="254"/>
+      <c r="AF11" s="254"/>
+      <c r="AG11" s="254"/>
+      <c r="AH11" s="254"/>
+      <c r="AI11" s="255"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="32"/>
       <c r="AL11" s="196" t="s">
@@ -15867,25 +15885,25 @@
       <c r="AU11" s="185"/>
       <c r="AV11" s="185"/>
       <c r="AW11" s="186"/>
-      <c r="AX11" s="243" t="s">
+      <c r="AX11" s="233" t="s">
         <v>215</v>
       </c>
-      <c r="AY11" s="244"/>
-      <c r="AZ11" s="244"/>
-      <c r="BA11" s="244"/>
-      <c r="BB11" s="244"/>
+      <c r="AY11" s="234"/>
+      <c r="AZ11" s="234"/>
+      <c r="BA11" s="234"/>
+      <c r="BB11" s="234"/>
       <c r="BC11" s="184"/>
       <c r="BD11" s="185"/>
       <c r="BE11" s="185"/>
       <c r="BF11" s="185"/>
       <c r="BG11" s="186"/>
-      <c r="BH11" s="245"/>
-      <c r="BI11" s="245"/>
-      <c r="BJ11" s="245"/>
-      <c r="BK11" s="245"/>
-      <c r="BL11" s="245"/>
-      <c r="BM11" s="245"/>
-      <c r="BN11" s="245"/>
+      <c r="BH11" s="235"/>
+      <c r="BI11" s="235"/>
+      <c r="BJ11" s="235"/>
+      <c r="BK11" s="235"/>
+      <c r="BL11" s="235"/>
+      <c r="BM11" s="235"/>
+      <c r="BN11" s="235"/>
     </row>
     <row r="12" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="90">
@@ -15898,39 +15916,39 @@
       <c r="D12" s="287"/>
       <c r="E12" s="287"/>
       <c r="F12" s="288"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="248"/>
-      <c r="O12" s="258" t="s">
+      <c r="G12" s="253"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="254"/>
+      <c r="N12" s="255"/>
+      <c r="O12" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="260"/>
-      <c r="R12" s="250"/>
-      <c r="S12" s="251"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="261"/>
       <c r="T12" s="281">
         <v>8</v>
       </c>
       <c r="U12" s="282"/>
-      <c r="V12" s="270"/>
-      <c r="W12" s="271"/>
-      <c r="X12" s="280"/>
-      <c r="Y12" s="235"/>
-      <c r="Z12" s="235"/>
-      <c r="AA12" s="235"/>
-      <c r="AB12" s="235"/>
-      <c r="AC12" s="236"/>
-      <c r="AD12" s="246"/>
-      <c r="AE12" s="247"/>
-      <c r="AF12" s="247"/>
-      <c r="AG12" s="247"/>
-      <c r="AH12" s="247"/>
-      <c r="AI12" s="248"/>
+      <c r="V12" s="241"/>
+      <c r="W12" s="242"/>
+      <c r="X12" s="275"/>
+      <c r="Y12" s="245"/>
+      <c r="Z12" s="245"/>
+      <c r="AA12" s="245"/>
+      <c r="AB12" s="245"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="254"/>
+      <c r="AF12" s="254"/>
+      <c r="AG12" s="254"/>
+      <c r="AH12" s="254"/>
+      <c r="AI12" s="255"/>
       <c r="AJ12" s="38"/>
       <c r="AK12" s="32"/>
       <c r="AL12" s="196" t="s">
@@ -15947,13 +15965,13 @@
       <c r="AU12" s="181"/>
       <c r="AV12" s="181"/>
       <c r="AW12" s="182"/>
-      <c r="AX12" s="243" t="s">
+      <c r="AX12" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="AY12" s="244"/>
-      <c r="AZ12" s="244"/>
-      <c r="BA12" s="244"/>
-      <c r="BB12" s="244"/>
+      <c r="AY12" s="234"/>
+      <c r="AZ12" s="234"/>
+      <c r="BA12" s="234"/>
+      <c r="BB12" s="234"/>
       <c r="BC12" s="196" t="s">
         <v>186</v>
       </c>
@@ -15961,13 +15979,13 @@
       <c r="BE12" s="185"/>
       <c r="BF12" s="185"/>
       <c r="BG12" s="186"/>
-      <c r="BH12" s="245"/>
-      <c r="BI12" s="245"/>
-      <c r="BJ12" s="245"/>
-      <c r="BK12" s="245"/>
-      <c r="BL12" s="245"/>
-      <c r="BM12" s="245"/>
-      <c r="BN12" s="245"/>
+      <c r="BH12" s="235"/>
+      <c r="BI12" s="235"/>
+      <c r="BJ12" s="235"/>
+      <c r="BK12" s="235"/>
+      <c r="BL12" s="235"/>
+      <c r="BM12" s="235"/>
+      <c r="BN12" s="235"/>
     </row>
     <row r="13" spans="1:66" s="91" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="90">
@@ -15980,39 +15998,39 @@
       <c r="D13" s="287"/>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="247"/>
-      <c r="N13" s="248"/>
-      <c r="O13" s="258" t="s">
+      <c r="G13" s="253"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="254"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="255"/>
+      <c r="O13" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="260"/>
-      <c r="R13" s="250"/>
-      <c r="S13" s="251"/>
+      <c r="P13" s="258"/>
+      <c r="Q13" s="259"/>
+      <c r="R13" s="260"/>
+      <c r="S13" s="261"/>
       <c r="T13" s="281">
         <v>2</v>
       </c>
       <c r="U13" s="282"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="271"/>
-      <c r="X13" s="280"/>
-      <c r="Y13" s="235"/>
-      <c r="Z13" s="235"/>
-      <c r="AA13" s="235"/>
-      <c r="AB13" s="235"/>
-      <c r="AC13" s="236"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="247"/>
-      <c r="AF13" s="247"/>
-      <c r="AG13" s="247"/>
-      <c r="AH13" s="247"/>
-      <c r="AI13" s="248"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="242"/>
+      <c r="X13" s="275"/>
+      <c r="Y13" s="245"/>
+      <c r="Z13" s="245"/>
+      <c r="AA13" s="245"/>
+      <c r="AB13" s="245"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="254"/>
+      <c r="AF13" s="254"/>
+      <c r="AG13" s="254"/>
+      <c r="AH13" s="254"/>
+      <c r="AI13" s="255"/>
       <c r="AJ13" s="38"/>
       <c r="AK13" s="32"/>
       <c r="AL13" s="196" t="s">
@@ -16029,13 +16047,13 @@
       <c r="AU13" s="181"/>
       <c r="AV13" s="181"/>
       <c r="AW13" s="182"/>
-      <c r="AX13" s="243" t="s">
+      <c r="AX13" s="233" t="s">
         <v>187</v>
       </c>
-      <c r="AY13" s="244"/>
-      <c r="AZ13" s="244"/>
-      <c r="BA13" s="244"/>
-      <c r="BB13" s="244"/>
+      <c r="AY13" s="234"/>
+      <c r="AZ13" s="234"/>
+      <c r="BA13" s="234"/>
+      <c r="BB13" s="234"/>
       <c r="BC13" s="196" t="s">
         <v>186</v>
       </c>
@@ -16043,13 +16061,13 @@
       <c r="BE13" s="185"/>
       <c r="BF13" s="185"/>
       <c r="BG13" s="186"/>
-      <c r="BH13" s="245"/>
-      <c r="BI13" s="245"/>
-      <c r="BJ13" s="245"/>
-      <c r="BK13" s="245"/>
-      <c r="BL13" s="245"/>
-      <c r="BM13" s="245"/>
-      <c r="BN13" s="245"/>
+      <c r="BH13" s="235"/>
+      <c r="BI13" s="235"/>
+      <c r="BJ13" s="235"/>
+      <c r="BK13" s="235"/>
+      <c r="BL13" s="235"/>
+      <c r="BM13" s="235"/>
+      <c r="BN13" s="235"/>
     </row>
     <row r="14" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="90">
@@ -16062,39 +16080,39 @@
       <c r="D14" s="287"/>
       <c r="E14" s="287"/>
       <c r="F14" s="288"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="247"/>
-      <c r="K14" s="247"/>
-      <c r="L14" s="247"/>
-      <c r="M14" s="247"/>
-      <c r="N14" s="248"/>
-      <c r="O14" s="258" t="s">
+      <c r="G14" s="253"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="254"/>
+      <c r="N14" s="255"/>
+      <c r="O14" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="260"/>
-      <c r="R14" s="250"/>
-      <c r="S14" s="251"/>
+      <c r="P14" s="258"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="260"/>
+      <c r="S14" s="261"/>
       <c r="T14" s="281">
         <v>50</v>
       </c>
       <c r="U14" s="282"/>
-      <c r="V14" s="270"/>
-      <c r="W14" s="271"/>
-      <c r="X14" s="280"/>
-      <c r="Y14" s="235"/>
-      <c r="Z14" s="235"/>
-      <c r="AA14" s="235"/>
-      <c r="AB14" s="235"/>
-      <c r="AC14" s="236"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="247"/>
-      <c r="AF14" s="247"/>
-      <c r="AG14" s="247"/>
-      <c r="AH14" s="247"/>
-      <c r="AI14" s="248"/>
+      <c r="V14" s="241"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="275"/>
+      <c r="Y14" s="245"/>
+      <c r="Z14" s="245"/>
+      <c r="AA14" s="245"/>
+      <c r="AB14" s="245"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="253"/>
+      <c r="AE14" s="254"/>
+      <c r="AF14" s="254"/>
+      <c r="AG14" s="254"/>
+      <c r="AH14" s="254"/>
+      <c r="AI14" s="255"/>
       <c r="AJ14" s="38"/>
       <c r="AK14" s="32"/>
       <c r="AL14" s="283" t="s">
@@ -16111,13 +16129,13 @@
       <c r="AU14" s="284"/>
       <c r="AV14" s="284"/>
       <c r="AW14" s="285"/>
-      <c r="AX14" s="243" t="s">
+      <c r="AX14" s="233" t="s">
         <v>189</v>
       </c>
-      <c r="AY14" s="244"/>
-      <c r="AZ14" s="244"/>
-      <c r="BA14" s="244"/>
-      <c r="BB14" s="244"/>
+      <c r="AY14" s="234"/>
+      <c r="AZ14" s="234"/>
+      <c r="BA14" s="234"/>
+      <c r="BB14" s="234"/>
       <c r="BC14" s="196" t="s">
         <v>190</v>
       </c>
@@ -16125,13 +16143,13 @@
       <c r="BE14" s="185"/>
       <c r="BF14" s="185"/>
       <c r="BG14" s="186"/>
-      <c r="BH14" s="245"/>
-      <c r="BI14" s="245"/>
-      <c r="BJ14" s="245"/>
-      <c r="BK14" s="245"/>
-      <c r="BL14" s="245"/>
-      <c r="BM14" s="245"/>
-      <c r="BN14" s="245"/>
+      <c r="BH14" s="235"/>
+      <c r="BI14" s="235"/>
+      <c r="BJ14" s="235"/>
+      <c r="BK14" s="235"/>
+      <c r="BL14" s="235"/>
+      <c r="BM14" s="235"/>
+      <c r="BN14" s="235"/>
     </row>
     <row r="15" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="90">
@@ -16144,39 +16162,39 @@
       <c r="D15" s="287"/>
       <c r="E15" s="287"/>
       <c r="F15" s="288"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="247"/>
-      <c r="N15" s="248"/>
-      <c r="O15" s="258" t="s">
+      <c r="G15" s="253"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="254"/>
+      <c r="N15" s="255"/>
+      <c r="O15" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="260"/>
-      <c r="R15" s="250"/>
-      <c r="S15" s="251"/>
+      <c r="P15" s="258"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="260"/>
+      <c r="S15" s="261"/>
       <c r="T15" s="281">
         <v>40</v>
       </c>
       <c r="U15" s="282"/>
-      <c r="V15" s="270"/>
-      <c r="W15" s="271"/>
-      <c r="X15" s="280"/>
-      <c r="Y15" s="235"/>
-      <c r="Z15" s="235"/>
-      <c r="AA15" s="235"/>
-      <c r="AB15" s="235"/>
-      <c r="AC15" s="236"/>
-      <c r="AD15" s="246"/>
-      <c r="AE15" s="247"/>
-      <c r="AF15" s="247"/>
-      <c r="AG15" s="247"/>
-      <c r="AH15" s="247"/>
-      <c r="AI15" s="248"/>
+      <c r="V15" s="241"/>
+      <c r="W15" s="242"/>
+      <c r="X15" s="275"/>
+      <c r="Y15" s="245"/>
+      <c r="Z15" s="245"/>
+      <c r="AA15" s="245"/>
+      <c r="AB15" s="245"/>
+      <c r="AC15" s="246"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="254"/>
+      <c r="AF15" s="254"/>
+      <c r="AG15" s="254"/>
+      <c r="AH15" s="254"/>
+      <c r="AI15" s="255"/>
       <c r="AJ15" s="38"/>
       <c r="AK15" s="32"/>
       <c r="AL15" s="283" t="s">
@@ -16193,13 +16211,13 @@
       <c r="AU15" s="284"/>
       <c r="AV15" s="284"/>
       <c r="AW15" s="285"/>
-      <c r="AX15" s="243" t="s">
+      <c r="AX15" s="233" t="s">
         <v>191</v>
       </c>
-      <c r="AY15" s="244"/>
-      <c r="AZ15" s="244"/>
-      <c r="BA15" s="244"/>
-      <c r="BB15" s="244"/>
+      <c r="AY15" s="234"/>
+      <c r="AZ15" s="234"/>
+      <c r="BA15" s="234"/>
+      <c r="BB15" s="234"/>
       <c r="BC15" s="196" t="s">
         <v>190</v>
       </c>
@@ -16207,13 +16225,13 @@
       <c r="BE15" s="185"/>
       <c r="BF15" s="185"/>
       <c r="BG15" s="186"/>
-      <c r="BH15" s="245"/>
-      <c r="BI15" s="245"/>
-      <c r="BJ15" s="245"/>
-      <c r="BK15" s="245"/>
-      <c r="BL15" s="245"/>
-      <c r="BM15" s="245"/>
-      <c r="BN15" s="245"/>
+      <c r="BH15" s="235"/>
+      <c r="BI15" s="235"/>
+      <c r="BJ15" s="235"/>
+      <c r="BK15" s="235"/>
+      <c r="BL15" s="235"/>
+      <c r="BM15" s="235"/>
+      <c r="BN15" s="235"/>
     </row>
     <row r="16" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="90">
@@ -16226,41 +16244,41 @@
       <c r="D16" s="287"/>
       <c r="E16" s="287"/>
       <c r="F16" s="288"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="247"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="247"/>
-      <c r="N16" s="248"/>
-      <c r="O16" s="258" t="s">
+      <c r="G16" s="253"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="255"/>
+      <c r="O16" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="260"/>
-      <c r="R16" s="250">
+      <c r="P16" s="258"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="260">
         <v>1</v>
       </c>
-      <c r="S16" s="251"/>
+      <c r="S16" s="261"/>
       <c r="T16" s="281">
         <v>1</v>
       </c>
       <c r="U16" s="282"/>
-      <c r="V16" s="270"/>
-      <c r="W16" s="271"/>
-      <c r="X16" s="280"/>
-      <c r="Y16" s="235"/>
-      <c r="Z16" s="235"/>
-      <c r="AA16" s="235"/>
-      <c r="AB16" s="235"/>
-      <c r="AC16" s="236"/>
-      <c r="AD16" s="246"/>
-      <c r="AE16" s="247"/>
-      <c r="AF16" s="247"/>
-      <c r="AG16" s="247"/>
-      <c r="AH16" s="247"/>
-      <c r="AI16" s="248"/>
+      <c r="V16" s="241"/>
+      <c r="W16" s="242"/>
+      <c r="X16" s="275"/>
+      <c r="Y16" s="245"/>
+      <c r="Z16" s="245"/>
+      <c r="AA16" s="245"/>
+      <c r="AB16" s="245"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="254"/>
+      <c r="AF16" s="254"/>
+      <c r="AG16" s="254"/>
+      <c r="AH16" s="254"/>
+      <c r="AI16" s="255"/>
       <c r="AJ16" s="38"/>
       <c r="AK16" s="32"/>
       <c r="AL16" s="196" t="s">
@@ -16277,13 +16295,13 @@
       <c r="AU16" s="181"/>
       <c r="AV16" s="181"/>
       <c r="AW16" s="182"/>
-      <c r="AX16" s="243" t="s">
+      <c r="AX16" s="233" t="s">
         <v>193</v>
       </c>
-      <c r="AY16" s="244"/>
-      <c r="AZ16" s="244"/>
-      <c r="BA16" s="244"/>
-      <c r="BB16" s="244"/>
+      <c r="AY16" s="234"/>
+      <c r="AZ16" s="234"/>
+      <c r="BA16" s="234"/>
+      <c r="BB16" s="234"/>
       <c r="BC16" s="196" t="s">
         <v>186</v>
       </c>
@@ -16291,13 +16309,13 @@
       <c r="BE16" s="185"/>
       <c r="BF16" s="185"/>
       <c r="BG16" s="186"/>
-      <c r="BH16" s="245"/>
-      <c r="BI16" s="245"/>
-      <c r="BJ16" s="245"/>
-      <c r="BK16" s="245"/>
-      <c r="BL16" s="245"/>
-      <c r="BM16" s="245"/>
-      <c r="BN16" s="245"/>
+      <c r="BH16" s="235"/>
+      <c r="BI16" s="235"/>
+      <c r="BJ16" s="235"/>
+      <c r="BK16" s="235"/>
+      <c r="BL16" s="235"/>
+      <c r="BM16" s="235"/>
+      <c r="BN16" s="235"/>
     </row>
     <row r="17" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="90">
@@ -16310,41 +16328,41 @@
       <c r="D17" s="287"/>
       <c r="E17" s="287"/>
       <c r="F17" s="288"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="247"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="247"/>
-      <c r="N17" s="248"/>
-      <c r="O17" s="258" t="s">
+      <c r="G17" s="253"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="255"/>
+      <c r="O17" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="260"/>
-      <c r="R17" s="250">
+      <c r="P17" s="258"/>
+      <c r="Q17" s="259"/>
+      <c r="R17" s="260">
         <v>1</v>
       </c>
-      <c r="S17" s="251"/>
+      <c r="S17" s="261"/>
       <c r="T17" s="281">
         <v>1</v>
       </c>
       <c r="U17" s="282"/>
-      <c r="V17" s="270"/>
-      <c r="W17" s="271"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="235"/>
-      <c r="Z17" s="235"/>
-      <c r="AA17" s="235"/>
-      <c r="AB17" s="235"/>
-      <c r="AC17" s="236"/>
-      <c r="AD17" s="246"/>
-      <c r="AE17" s="247"/>
-      <c r="AF17" s="247"/>
-      <c r="AG17" s="247"/>
-      <c r="AH17" s="247"/>
-      <c r="AI17" s="248"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="242"/>
+      <c r="X17" s="275"/>
+      <c r="Y17" s="245"/>
+      <c r="Z17" s="245"/>
+      <c r="AA17" s="245"/>
+      <c r="AB17" s="245"/>
+      <c r="AC17" s="246"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="254"/>
+      <c r="AF17" s="254"/>
+      <c r="AG17" s="254"/>
+      <c r="AH17" s="254"/>
+      <c r="AI17" s="255"/>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="32"/>
       <c r="AL17" s="196" t="s">
@@ -16361,13 +16379,13 @@
       <c r="AU17" s="181"/>
       <c r="AV17" s="181"/>
       <c r="AW17" s="182"/>
-      <c r="AX17" s="243" t="s">
+      <c r="AX17" s="233" t="s">
         <v>196</v>
       </c>
-      <c r="AY17" s="244"/>
-      <c r="AZ17" s="244"/>
-      <c r="BA17" s="244"/>
-      <c r="BB17" s="244"/>
+      <c r="AY17" s="234"/>
+      <c r="AZ17" s="234"/>
+      <c r="BA17" s="234"/>
+      <c r="BB17" s="234"/>
       <c r="BC17" s="196" t="s">
         <v>197</v>
       </c>
@@ -16375,13 +16393,13 @@
       <c r="BE17" s="185"/>
       <c r="BF17" s="185"/>
       <c r="BG17" s="186"/>
-      <c r="BH17" s="245"/>
-      <c r="BI17" s="245"/>
-      <c r="BJ17" s="245"/>
-      <c r="BK17" s="245"/>
-      <c r="BL17" s="245"/>
-      <c r="BM17" s="245"/>
-      <c r="BN17" s="245"/>
+      <c r="BH17" s="235"/>
+      <c r="BI17" s="235"/>
+      <c r="BJ17" s="235"/>
+      <c r="BK17" s="235"/>
+      <c r="BL17" s="235"/>
+      <c r="BM17" s="235"/>
+      <c r="BN17" s="235"/>
     </row>
     <row r="18" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="90">
@@ -16394,39 +16412,39 @@
       <c r="D18" s="287"/>
       <c r="E18" s="287"/>
       <c r="F18" s="288"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="247"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="248"/>
-      <c r="O18" s="258" t="s">
+      <c r="G18" s="253"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="254"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="254"/>
+      <c r="N18" s="255"/>
+      <c r="O18" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="260"/>
-      <c r="R18" s="250"/>
-      <c r="S18" s="251"/>
+      <c r="P18" s="258"/>
+      <c r="Q18" s="259"/>
+      <c r="R18" s="260"/>
+      <c r="S18" s="261"/>
       <c r="T18" s="281">
         <v>2</v>
       </c>
       <c r="U18" s="282"/>
-      <c r="V18" s="270"/>
-      <c r="W18" s="271"/>
-      <c r="X18" s="280"/>
-      <c r="Y18" s="235"/>
-      <c r="Z18" s="235"/>
-      <c r="AA18" s="235"/>
-      <c r="AB18" s="235"/>
-      <c r="AC18" s="236"/>
-      <c r="AD18" s="246"/>
-      <c r="AE18" s="247"/>
-      <c r="AF18" s="247"/>
-      <c r="AG18" s="247"/>
-      <c r="AH18" s="247"/>
-      <c r="AI18" s="248"/>
+      <c r="V18" s="241"/>
+      <c r="W18" s="242"/>
+      <c r="X18" s="275"/>
+      <c r="Y18" s="245"/>
+      <c r="Z18" s="245"/>
+      <c r="AA18" s="245"/>
+      <c r="AB18" s="245"/>
+      <c r="AC18" s="246"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="254"/>
+      <c r="AF18" s="254"/>
+      <c r="AG18" s="254"/>
+      <c r="AH18" s="254"/>
+      <c r="AI18" s="255"/>
       <c r="AJ18" s="38"/>
       <c r="AK18" s="32"/>
       <c r="AL18" s="196" t="s">
@@ -16443,13 +16461,13 @@
       <c r="AU18" s="181"/>
       <c r="AV18" s="181"/>
       <c r="AW18" s="182"/>
-      <c r="AX18" s="243" t="s">
+      <c r="AX18" s="233" t="s">
         <v>200</v>
       </c>
-      <c r="AY18" s="244"/>
-      <c r="AZ18" s="244"/>
-      <c r="BA18" s="244"/>
-      <c r="BB18" s="244"/>
+      <c r="AY18" s="234"/>
+      <c r="AZ18" s="234"/>
+      <c r="BA18" s="234"/>
+      <c r="BB18" s="234"/>
       <c r="BC18" s="196" t="s">
         <v>201</v>
       </c>
@@ -16457,13 +16475,13 @@
       <c r="BE18" s="185"/>
       <c r="BF18" s="185"/>
       <c r="BG18" s="186"/>
-      <c r="BH18" s="245"/>
-      <c r="BI18" s="245"/>
-      <c r="BJ18" s="245"/>
-      <c r="BK18" s="245"/>
-      <c r="BL18" s="245"/>
-      <c r="BM18" s="245"/>
-      <c r="BN18" s="245"/>
+      <c r="BH18" s="235"/>
+      <c r="BI18" s="235"/>
+      <c r="BJ18" s="235"/>
+      <c r="BK18" s="235"/>
+      <c r="BL18" s="235"/>
+      <c r="BM18" s="235"/>
+      <c r="BN18" s="235"/>
     </row>
     <row r="19" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="90">
@@ -16476,39 +16494,39 @@
       <c r="D19" s="287"/>
       <c r="E19" s="287"/>
       <c r="F19" s="288"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="247"/>
-      <c r="N19" s="248"/>
-      <c r="O19" s="258" t="s">
+      <c r="G19" s="253"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="254"/>
+      <c r="N19" s="255"/>
+      <c r="O19" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="260"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="251"/>
+      <c r="P19" s="258"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="260"/>
+      <c r="S19" s="261"/>
       <c r="T19" s="281">
         <v>50</v>
       </c>
       <c r="U19" s="282"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="271"/>
-      <c r="X19" s="280"/>
-      <c r="Y19" s="235"/>
-      <c r="Z19" s="235"/>
-      <c r="AA19" s="235"/>
-      <c r="AB19" s="235"/>
-      <c r="AC19" s="236"/>
-      <c r="AD19" s="246"/>
-      <c r="AE19" s="247"/>
-      <c r="AF19" s="247"/>
-      <c r="AG19" s="247"/>
-      <c r="AH19" s="247"/>
-      <c r="AI19" s="248"/>
+      <c r="V19" s="241"/>
+      <c r="W19" s="242"/>
+      <c r="X19" s="275"/>
+      <c r="Y19" s="245"/>
+      <c r="Z19" s="245"/>
+      <c r="AA19" s="245"/>
+      <c r="AB19" s="245"/>
+      <c r="AC19" s="246"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="254"/>
+      <c r="AF19" s="254"/>
+      <c r="AG19" s="254"/>
+      <c r="AH19" s="254"/>
+      <c r="AI19" s="255"/>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="32"/>
       <c r="AL19" s="283" t="s">
@@ -16525,13 +16543,13 @@
       <c r="AU19" s="284"/>
       <c r="AV19" s="284"/>
       <c r="AW19" s="285"/>
-      <c r="AX19" s="243" t="s">
+      <c r="AX19" s="233" t="s">
         <v>203</v>
       </c>
-      <c r="AY19" s="244"/>
-      <c r="AZ19" s="244"/>
-      <c r="BA19" s="244"/>
-      <c r="BB19" s="244"/>
+      <c r="AY19" s="234"/>
+      <c r="AZ19" s="234"/>
+      <c r="BA19" s="234"/>
+      <c r="BB19" s="234"/>
       <c r="BC19" s="196" t="s">
         <v>190</v>
       </c>
@@ -16539,13 +16557,13 @@
       <c r="BE19" s="185"/>
       <c r="BF19" s="185"/>
       <c r="BG19" s="186"/>
-      <c r="BH19" s="245"/>
-      <c r="BI19" s="245"/>
-      <c r="BJ19" s="245"/>
-      <c r="BK19" s="245"/>
-      <c r="BL19" s="245"/>
-      <c r="BM19" s="245"/>
-      <c r="BN19" s="245"/>
+      <c r="BH19" s="235"/>
+      <c r="BI19" s="235"/>
+      <c r="BJ19" s="235"/>
+      <c r="BK19" s="235"/>
+      <c r="BL19" s="235"/>
+      <c r="BM19" s="235"/>
+      <c r="BN19" s="235"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -16658,9 +16676,8 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="X13:Z13"/>
     <mergeCell ref="AA11:AC11"/>
@@ -16669,9 +16686,8 @@
     <mergeCell ref="AA8:AC8"/>
     <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="V10:W10"/>
+    <mergeCell ref="AA13:AC13"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O13:Q13"/>
@@ -16705,12 +16721,17 @@
     <mergeCell ref="AX7:BB8"/>
     <mergeCell ref="BH7:BN8"/>
     <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA13:AC13"/>
     <mergeCell ref="BC7:BG8"/>
     <mergeCell ref="BC9:BG9"/>
     <mergeCell ref="BC10:BG10"/>
     <mergeCell ref="BC11:BG11"/>
     <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="BC13:BG13"/>
     <mergeCell ref="AX11:BB11"/>
     <mergeCell ref="AX12:BB12"/>
@@ -16720,11 +16741,8 @@
     <mergeCell ref="AX9:BB9"/>
     <mergeCell ref="AL7:AW8"/>
     <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
     <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
     <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
     <mergeCell ref="AL10:AW10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
@@ -16954,19 +16972,19 @@
       <c r="V8" s="301"/>
       <c r="W8" s="301"/>
       <c r="X8" s="302"/>
-      <c r="Y8" s="266" t="s">
+      <c r="Y8" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="266"/>
-      <c r="AA8" s="266"/>
-      <c r="AB8" s="266"/>
-      <c r="AC8" s="266"/>
-      <c r="AD8" s="266"/>
-      <c r="AE8" s="266"/>
-      <c r="AF8" s="266"/>
-      <c r="AG8" s="266"/>
-      <c r="AH8" s="266"/>
-      <c r="AI8" s="266"/>
+      <c r="Z8" s="273"/>
+      <c r="AA8" s="273"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="273"/>
+      <c r="AD8" s="273"/>
+      <c r="AE8" s="273"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="273"/>
+      <c r="AI8" s="273"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -16999,21 +17017,21 @@
       <c r="V9" s="304"/>
       <c r="W9" s="304"/>
       <c r="X9" s="305"/>
-      <c r="Y9" s="266" t="s">
+      <c r="Y9" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266" t="s">
+      <c r="Z9" s="273"/>
+      <c r="AA9" s="273"/>
+      <c r="AB9" s="273"/>
+      <c r="AC9" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="266"/>
-      <c r="AE9" s="266"/>
-      <c r="AF9" s="266"/>
-      <c r="AG9" s="266"/>
-      <c r="AH9" s="266"/>
-      <c r="AI9" s="266"/>
+      <c r="AD9" s="273"/>
+      <c r="AE9" s="273"/>
+      <c r="AF9" s="273"/>
+      <c r="AG9" s="273"/>
+      <c r="AH9" s="273"/>
+      <c r="AI9" s="273"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -18595,19 +18613,19 @@
       <c r="V8" s="301"/>
       <c r="W8" s="301"/>
       <c r="X8" s="302"/>
-      <c r="Y8" s="266" t="s">
+      <c r="Y8" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="266"/>
-      <c r="AA8" s="266"/>
-      <c r="AB8" s="266"/>
-      <c r="AC8" s="266"/>
-      <c r="AD8" s="266"/>
-      <c r="AE8" s="266"/>
-      <c r="AF8" s="266"/>
-      <c r="AG8" s="266"/>
-      <c r="AH8" s="266"/>
-      <c r="AI8" s="266"/>
+      <c r="Z8" s="273"/>
+      <c r="AA8" s="273"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="273"/>
+      <c r="AD8" s="273"/>
+      <c r="AE8" s="273"/>
+      <c r="AF8" s="273"/>
+      <c r="AG8" s="273"/>
+      <c r="AH8" s="273"/>
+      <c r="AI8" s="273"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -18669,21 +18687,21 @@
       <c r="V9" s="304"/>
       <c r="W9" s="304"/>
       <c r="X9" s="305"/>
-      <c r="Y9" s="266" t="s">
+      <c r="Y9" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266" t="s">
+      <c r="Z9" s="273"/>
+      <c r="AA9" s="273"/>
+      <c r="AB9" s="273"/>
+      <c r="AC9" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="266"/>
-      <c r="AE9" s="266"/>
-      <c r="AF9" s="266"/>
-      <c r="AG9" s="266"/>
-      <c r="AH9" s="266"/>
-      <c r="AI9" s="266"/>
+      <c r="AD9" s="273"/>
+      <c r="AE9" s="273"/>
+      <c r="AF9" s="273"/>
+      <c r="AG9" s="273"/>
+      <c r="AH9" s="273"/>
+      <c r="AI9" s="273"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D9B5F-51A7-44FB-96C7-C6630DD44159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF6A24A-ACA1-4BF4-A6F5-35F01D5BA1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,8 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="218">
   <si>
     <t>PJ名</t>
   </si>
@@ -2037,6 +2035,21 @@
   </si>
   <si>
     <t>industryCode</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>文字種バリデーション（全角文字）
+文字数バリデーション（桁数可変、最大値指定）</t>
+    <rPh sb="11" eb="15">
+      <t>ゼンカクモジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>全角文字</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンカクモジ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -3637,8 +3650,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3666,10 +3679,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3744,6 +3753,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14734,31 +14747,31 @@
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="229" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="231" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="224" t="s">
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="225"/>
-      <c r="M7" s="225"/>
-      <c r="N7" s="226"/>
-      <c r="O7" s="223" t="s">
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
       <c r="R7" s="191" t="s">
         <v>26</v>
       </c>
@@ -14775,72 +14788,72 @@
       <c r="AA7" s="219"/>
       <c r="AB7" s="219"/>
       <c r="AC7" s="220"/>
-      <c r="AD7" s="223" t="s">
+      <c r="AD7" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="223"/>
-      <c r="AF7" s="223"/>
-      <c r="AG7" s="223"/>
-      <c r="AH7" s="223"/>
-      <c r="AI7" s="223"/>
+      <c r="AE7" s="215"/>
+      <c r="AF7" s="215"/>
+      <c r="AG7" s="215"/>
+      <c r="AH7" s="215"/>
+      <c r="AI7" s="215"/>
       <c r="AJ7" s="58"/>
-      <c r="AL7" s="235" t="s">
+      <c r="AL7" s="234" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="236"/>
-      <c r="AN7" s="236"/>
-      <c r="AO7" s="236"/>
-      <c r="AP7" s="236"/>
-      <c r="AQ7" s="236"/>
-      <c r="AR7" s="236"/>
-      <c r="AS7" s="236"/>
-      <c r="AT7" s="236"/>
-      <c r="AU7" s="236"/>
-      <c r="AV7" s="236"/>
-      <c r="AW7" s="236"/>
-      <c r="AX7" s="235" t="s">
+      <c r="AM7" s="235"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="235"/>
+      <c r="AP7" s="235"/>
+      <c r="AQ7" s="235"/>
+      <c r="AR7" s="235"/>
+      <c r="AS7" s="235"/>
+      <c r="AT7" s="235"/>
+      <c r="AU7" s="235"/>
+      <c r="AV7" s="235"/>
+      <c r="AW7" s="235"/>
+      <c r="AX7" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="AY7" s="236"/>
-      <c r="AZ7" s="236"/>
-      <c r="BA7" s="236"/>
-      <c r="BB7" s="236"/>
-      <c r="BC7" s="237" t="s">
+      <c r="AY7" s="235"/>
+      <c r="AZ7" s="235"/>
+      <c r="BA7" s="235"/>
+      <c r="BB7" s="235"/>
+      <c r="BC7" s="236" t="s">
         <v>51</v>
       </c>
-      <c r="BD7" s="238"/>
-      <c r="BE7" s="238"/>
-      <c r="BF7" s="238"/>
-      <c r="BG7" s="239"/>
-      <c r="BH7" s="236" t="s">
+      <c r="BD7" s="237"/>
+      <c r="BE7" s="237"/>
+      <c r="BF7" s="237"/>
+      <c r="BG7" s="238"/>
+      <c r="BH7" s="235" t="s">
         <v>50</v>
       </c>
-      <c r="BI7" s="236"/>
-      <c r="BJ7" s="236"/>
-      <c r="BK7" s="236"/>
-      <c r="BL7" s="236"/>
-      <c r="BM7" s="236"/>
-      <c r="BN7" s="236"/>
+      <c r="BI7" s="235"/>
+      <c r="BJ7" s="235"/>
+      <c r="BK7" s="235"/>
+      <c r="BL7" s="235"/>
+      <c r="BM7" s="235"/>
+      <c r="BN7" s="235"/>
     </row>
     <row r="8" spans="1:66" s="59" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="231"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="223"/>
-      <c r="Q8" s="223"/>
-      <c r="R8" s="233" t="s">
+      <c r="A8" s="230"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="227"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
+      <c r="R8" s="232" t="s">
         <v>27</v>
       </c>
       <c r="S8" s="217"/>
@@ -14848,7 +14861,7 @@
         <v>28</v>
       </c>
       <c r="U8" s="217"/>
-      <c r="V8" s="234" t="s">
+      <c r="V8" s="233" t="s">
         <v>29</v>
       </c>
       <c r="W8" s="222"/>
@@ -14862,42 +14875,42 @@
       </c>
       <c r="AB8" s="217"/>
       <c r="AC8" s="222"/>
-      <c r="AD8" s="223"/>
-      <c r="AE8" s="223"/>
-      <c r="AF8" s="223"/>
-      <c r="AG8" s="223"/>
-      <c r="AH8" s="223"/>
-      <c r="AI8" s="223"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="215"/>
+      <c r="AF8" s="215"/>
+      <c r="AG8" s="215"/>
+      <c r="AH8" s="215"/>
+      <c r="AI8" s="215"/>
       <c r="AJ8" s="58"/>
-      <c r="AL8" s="236"/>
-      <c r="AM8" s="236"/>
-      <c r="AN8" s="236"/>
-      <c r="AO8" s="236"/>
-      <c r="AP8" s="236"/>
-      <c r="AQ8" s="236"/>
-      <c r="AR8" s="236"/>
-      <c r="AS8" s="236"/>
-      <c r="AT8" s="236"/>
-      <c r="AU8" s="236"/>
-      <c r="AV8" s="236"/>
-      <c r="AW8" s="236"/>
-      <c r="AX8" s="236"/>
-      <c r="AY8" s="236"/>
-      <c r="AZ8" s="236"/>
-      <c r="BA8" s="236"/>
-      <c r="BB8" s="236"/>
-      <c r="BC8" s="240"/>
-      <c r="BD8" s="241"/>
-      <c r="BE8" s="241"/>
-      <c r="BF8" s="241"/>
-      <c r="BG8" s="242"/>
-      <c r="BH8" s="236"/>
-      <c r="BI8" s="236"/>
-      <c r="BJ8" s="236"/>
-      <c r="BK8" s="236"/>
-      <c r="BL8" s="236"/>
-      <c r="BM8" s="236"/>
-      <c r="BN8" s="236"/>
+      <c r="AL8" s="235"/>
+      <c r="AM8" s="235"/>
+      <c r="AN8" s="235"/>
+      <c r="AO8" s="235"/>
+      <c r="AP8" s="235"/>
+      <c r="AQ8" s="235"/>
+      <c r="AR8" s="235"/>
+      <c r="AS8" s="235"/>
+      <c r="AT8" s="235"/>
+      <c r="AU8" s="235"/>
+      <c r="AV8" s="235"/>
+      <c r="AW8" s="235"/>
+      <c r="AX8" s="235"/>
+      <c r="AY8" s="235"/>
+      <c r="AZ8" s="235"/>
+      <c r="BA8" s="235"/>
+      <c r="BB8" s="235"/>
+      <c r="BC8" s="239"/>
+      <c r="BD8" s="240"/>
+      <c r="BE8" s="240"/>
+      <c r="BF8" s="240"/>
+      <c r="BG8" s="241"/>
+      <c r="BH8" s="235"/>
+      <c r="BI8" s="235"/>
+      <c r="BJ8" s="235"/>
+      <c r="BK8" s="235"/>
+      <c r="BL8" s="235"/>
+      <c r="BM8" s="235"/>
+      <c r="BN8" s="235"/>
     </row>
     <row r="9" spans="1:66" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
@@ -15028,7 +15041,7 @@
       <c r="AI10" s="113"/>
       <c r="AJ10" s="37"/>
       <c r="AL10" s="124" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="AM10" s="101"/>
       <c r="AN10" s="101"/>
@@ -15049,7 +15062,7 @@
       <c r="BA10" s="196"/>
       <c r="BB10" s="196"/>
       <c r="BC10" s="124" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="BD10" s="112"/>
       <c r="BE10" s="112"/>
@@ -15097,7 +15110,7 @@
       <c r="U11" s="206"/>
       <c r="V11" s="207"/>
       <c r="W11" s="208"/>
-      <c r="X11" s="215" t="s">
+      <c r="X11" s="242" t="s">
         <v>183</v>
       </c>
       <c r="Y11" s="210"/>
@@ -15836,6 +15849,9 @@
     <mergeCell ref="AD12:AI12"/>
     <mergeCell ref="AD9:AI9"/>
     <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O13:Q13"/>
@@ -15860,9 +15876,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="X13:Z13"/>
     <mergeCell ref="AA11:AC11"/>
@@ -16211,19 +16224,19 @@
       <c r="V8" s="246"/>
       <c r="W8" s="246"/>
       <c r="X8" s="247"/>
-      <c r="Y8" s="232" t="s">
+      <c r="Y8" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="232"/>
-      <c r="AA8" s="232"/>
-      <c r="AB8" s="232"/>
-      <c r="AC8" s="232"/>
-      <c r="AD8" s="232"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="232"/>
-      <c r="AG8" s="232"/>
-      <c r="AH8" s="232"/>
-      <c r="AI8" s="232"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="231"/>
+      <c r="AF8" s="231"/>
+      <c r="AG8" s="231"/>
+      <c r="AH8" s="231"/>
+      <c r="AI8" s="231"/>
       <c r="BM8" s="22"/>
       <c r="BN8" s="22"/>
       <c r="BO8" s="22"/>
@@ -16256,21 +16269,21 @@
       <c r="V9" s="249"/>
       <c r="W9" s="249"/>
       <c r="X9" s="250"/>
-      <c r="Y9" s="232" t="s">
+      <c r="Y9" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="232"/>
-      <c r="AA9" s="232"/>
-      <c r="AB9" s="232"/>
-      <c r="AC9" s="232" t="s">
+      <c r="Z9" s="231"/>
+      <c r="AA9" s="231"/>
+      <c r="AB9" s="231"/>
+      <c r="AC9" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="232"/>
-      <c r="AE9" s="232"/>
-      <c r="AF9" s="232"/>
-      <c r="AG9" s="232"/>
-      <c r="AH9" s="232"/>
-      <c r="AI9" s="232"/>
+      <c r="AD9" s="231"/>
+      <c r="AE9" s="231"/>
+      <c r="AF9" s="231"/>
+      <c r="AG9" s="231"/>
+      <c r="AH9" s="231"/>
+      <c r="AI9" s="231"/>
       <c r="AJ9" s="22"/>
       <c r="AK9" s="22"/>
       <c r="AL9" s="22"/>
@@ -17852,19 +17865,19 @@
       <c r="V8" s="246"/>
       <c r="W8" s="246"/>
       <c r="X8" s="247"/>
-      <c r="Y8" s="232" t="s">
+      <c r="Y8" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="232"/>
-      <c r="AA8" s="232"/>
-      <c r="AB8" s="232"/>
-      <c r="AC8" s="232"/>
-      <c r="AD8" s="232"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="232"/>
-      <c r="AG8" s="232"/>
-      <c r="AH8" s="232"/>
-      <c r="AI8" s="232"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="231"/>
+      <c r="AF8" s="231"/>
+      <c r="AG8" s="231"/>
+      <c r="AH8" s="231"/>
+      <c r="AI8" s="231"/>
       <c r="AJ8" s="22"/>
       <c r="AK8" s="22"/>
       <c r="AL8" s="22"/>
@@ -17926,21 +17939,21 @@
       <c r="V9" s="249"/>
       <c r="W9" s="249"/>
       <c r="X9" s="250"/>
-      <c r="Y9" s="232" t="s">
+      <c r="Y9" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="232"/>
-      <c r="AA9" s="232"/>
-      <c r="AB9" s="232"/>
-      <c r="AC9" s="232" t="s">
+      <c r="Z9" s="231"/>
+      <c r="AA9" s="231"/>
+      <c r="AB9" s="231"/>
+      <c r="AC9" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="232"/>
-      <c r="AE9" s="232"/>
-      <c r="AF9" s="232"/>
-      <c r="AG9" s="232"/>
-      <c r="AH9" s="232"/>
-      <c r="AI9" s="232"/>
+      <c r="AD9" s="231"/>
+      <c r="AE9" s="231"/>
+      <c r="AF9" s="231"/>
+      <c r="AG9" s="231"/>
+      <c r="AH9" s="231"/>
+      <c r="AI9" s="231"/>
       <c r="AJ9" s="22"/>
       <c r="AK9" s="22"/>
       <c r="AL9" s="22"/>
